--- a/my_app/在職業務名單.xlsx
+++ b/my_app/在職業務名單.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jerry.APEX\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jerry.APEX\Desktop\my_app\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -2410,8 +2410,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C144"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
+      <selection activeCell="B144" sqref="B144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.149999999999999" x14ac:dyDescent="0.45"/>
@@ -2661,6 +2661,10 @@
         <f>系統!E19</f>
         <v>H220714765</v>
       </c>
+      <c r="B18" t="str">
+        <f>IFERROR(LEFT(系統!C19,FIND("(",系統!C19)-1),系統!C19)</f>
+        <v>黃睿埁</v>
+      </c>
       <c r="C18" t="str">
         <f>系統!D19</f>
         <v>鳳凰營業處</v>
@@ -2671,6 +2675,10 @@
         <f>系統!E20</f>
         <v>F123794583</v>
       </c>
+      <c r="B19" t="str">
+        <f>IFERROR(LEFT(系統!C20,FIND("(",系統!C20)-1),系統!C20)</f>
+        <v>林濬煬</v>
+      </c>
       <c r="C19" t="str">
         <f>系統!D20</f>
         <v>鳳凰營業處</v>
@@ -2681,6 +2689,10 @@
         <f>系統!E21</f>
         <v>V220907556</v>
       </c>
+      <c r="B20" t="str">
+        <f>IFERROR(LEFT(系統!C21,FIND("(",系統!C21)-1),系統!C21)</f>
+        <v>陳欣佑</v>
+      </c>
       <c r="C20" t="str">
         <f>系統!D21</f>
         <v>鳳凰營業處</v>
@@ -2691,6 +2703,10 @@
         <f>系統!E22</f>
         <v>J120381541</v>
       </c>
+      <c r="B21" t="str">
+        <f>IFERROR(LEFT(系統!C22,FIND("(",系統!C22)-1),系統!C22)</f>
+        <v>李志平</v>
+      </c>
       <c r="C21" t="str">
         <f>系統!D22</f>
         <v>鳳凰營業處</v>
@@ -2701,6 +2717,10 @@
         <f>系統!E23</f>
         <v>F126199599</v>
       </c>
+      <c r="B22" t="str">
+        <f>IFERROR(LEFT(系統!C23,FIND("(",系統!C23)-1),系統!C23)</f>
+        <v>周富揚</v>
+      </c>
       <c r="C22" t="str">
         <f>系統!D23</f>
         <v>鳳凰營業處</v>
@@ -2711,6 +2731,10 @@
         <f>系統!E24</f>
         <v>A123307361</v>
       </c>
+      <c r="B23" t="str">
+        <f>IFERROR(LEFT(系統!C24,FIND("(",系統!C24)-1),系統!C24)</f>
+        <v>沈志偉</v>
+      </c>
       <c r="C23" t="str">
         <f>系統!D24</f>
         <v>鳳凰營業處</v>
@@ -2721,6 +2745,10 @@
         <f>系統!E25</f>
         <v>F120762187</v>
       </c>
+      <c r="B24" t="str">
+        <f>IFERROR(LEFT(系統!C25,FIND("(",系統!C25)-1),系統!C25)</f>
+        <v>林樹臏</v>
+      </c>
       <c r="C24" t="str">
         <f>系統!D25</f>
         <v>鳳凰營業處</v>
@@ -2731,6 +2759,10 @@
         <f>系統!E26</f>
         <v>A127808378</v>
       </c>
+      <c r="B25" t="str">
+        <f>IFERROR(LEFT(系統!C26,FIND("(",系統!C26)-1),系統!C26)</f>
+        <v>邱奕瑋</v>
+      </c>
       <c r="C25" t="str">
         <f>系統!D26</f>
         <v>鳳凰營業處</v>
@@ -2741,6 +2773,10 @@
         <f>系統!E27</f>
         <v>A128337412</v>
       </c>
+      <c r="B26" t="str">
+        <f>IFERROR(LEFT(系統!C27,FIND("(",系統!C27)-1),系統!C27)</f>
+        <v>謝長祐</v>
+      </c>
       <c r="C26" t="str">
         <f>系統!D27</f>
         <v>鳳凰營業處</v>
@@ -2751,6 +2787,10 @@
         <f>系統!E28</f>
         <v>F226133182</v>
       </c>
+      <c r="B27" t="str">
+        <f>IFERROR(LEFT(系統!C28,FIND("(",系統!C28)-1),系統!C28)</f>
+        <v>王儷餘</v>
+      </c>
       <c r="C27" t="str">
         <f>系統!D28</f>
         <v>鳳凰營業處</v>
@@ -2761,6 +2801,10 @@
         <f>系統!E29</f>
         <v>A224643466</v>
       </c>
+      <c r="B28" t="str">
+        <f>IFERROR(LEFT(系統!C29,FIND("(",系統!C29)-1),系統!C29)</f>
+        <v>余語瑩</v>
+      </c>
       <c r="C28" t="str">
         <f>系統!D29</f>
         <v>鳳凰營業處</v>
@@ -2771,6 +2815,10 @@
         <f>系統!E30</f>
         <v>F226676557</v>
       </c>
+      <c r="B29" t="str">
+        <f>IFERROR(LEFT(系統!C30,FIND("(",系統!C30)-1),系統!C30)</f>
+        <v>呂淑清</v>
+      </c>
       <c r="C29" t="str">
         <f>系統!D30</f>
         <v>鳳凰營業處</v>
@@ -2781,6 +2829,10 @@
         <f>系統!E31</f>
         <v>A223101754</v>
       </c>
+      <c r="B30" t="str">
+        <f>IFERROR(LEFT(系統!C31,FIND("(",系統!C31)-1),系統!C31)</f>
+        <v>郭美惠</v>
+      </c>
       <c r="C30" t="str">
         <f>系統!D31</f>
         <v>鳳凰營業處</v>
@@ -2791,6 +2843,10 @@
         <f>系統!E32</f>
         <v>K220990749</v>
       </c>
+      <c r="B31" t="str">
+        <f>IFERROR(LEFT(系統!C32,FIND("(",系統!C32)-1),系統!C32)</f>
+        <v>陳亭潔</v>
+      </c>
       <c r="C31" t="str">
         <f>系統!D32</f>
         <v>鳳凰營業處</v>
@@ -2801,6 +2857,10 @@
         <f>系統!E33</f>
         <v>F102898184</v>
       </c>
+      <c r="B32" t="str">
+        <f>IFERROR(LEFT(系統!C33,FIND("(",系統!C33)-1),系統!C33)</f>
+        <v>陳賢傑</v>
+      </c>
       <c r="C32" t="str">
         <f>系統!D33</f>
         <v>鳳凰營業處</v>
@@ -2811,6 +2871,10 @@
         <f>系統!E34</f>
         <v>A127034305</v>
       </c>
+      <c r="B33" t="str">
+        <f>IFERROR(LEFT(系統!C34,FIND("(",系統!C34)-1),系統!C34)</f>
+        <v>林溢恩</v>
+      </c>
       <c r="C33" t="str">
         <f>系統!D34</f>
         <v>鳳凰營業處</v>
@@ -2821,6 +2885,10 @@
         <f>系統!E35</f>
         <v>A227368362</v>
       </c>
+      <c r="B34" t="str">
+        <f>IFERROR(LEFT(系統!C35,FIND("(",系統!C35)-1),系統!C35)</f>
+        <v>余欣佳</v>
+      </c>
       <c r="C34" t="str">
         <f>系統!D35</f>
         <v>鳳凰營業處</v>
@@ -2831,6 +2899,10 @@
         <f>系統!E36</f>
         <v>A127487379</v>
       </c>
+      <c r="B35" t="str">
+        <f>IFERROR(LEFT(系統!C36,FIND("(",系統!C36)-1),系統!C36)</f>
+        <v>施憬諭</v>
+      </c>
       <c r="C35" t="str">
         <f>系統!D36</f>
         <v>鳳凰營業處</v>
@@ -2841,6 +2913,10 @@
         <f>系統!E37</f>
         <v>T221873511</v>
       </c>
+      <c r="B36" t="str">
+        <f>IFERROR(LEFT(系統!C37,FIND("(",系統!C37)-1),系統!C37)</f>
+        <v>蕭慧珍</v>
+      </c>
       <c r="C36" t="str">
         <f>系統!D37</f>
         <v>鳳凰營業處</v>
@@ -2851,6 +2927,10 @@
         <f>系統!E38</f>
         <v>H220650711</v>
       </c>
+      <c r="B37" t="str">
+        <f>IFERROR(LEFT(系統!C38,FIND("(",系統!C38)-1),系統!C38)</f>
+        <v>江明怡</v>
+      </c>
       <c r="C37" t="str">
         <f>系統!D38</f>
         <v>鳳凰營業處</v>
@@ -2861,6 +2941,10 @@
         <f>系統!E39</f>
         <v>A227457631</v>
       </c>
+      <c r="B38" t="str">
+        <f>IFERROR(LEFT(系統!C39,FIND("(",系統!C39)-1),系統!C39)</f>
+        <v>郭安皎</v>
+      </c>
       <c r="C38" t="str">
         <f>系統!D39</f>
         <v>鳳凰營業處</v>
@@ -2871,6 +2955,10 @@
         <f>系統!E40</f>
         <v>S224502661</v>
       </c>
+      <c r="B39" t="str">
+        <f>IFERROR(LEFT(系統!C40,FIND("(",系統!C40)-1),系統!C40)</f>
+        <v>黃琬翎</v>
+      </c>
       <c r="C39" t="str">
         <f>系統!D40</f>
         <v>鳳凰營業處</v>
@@ -2881,6 +2969,10 @@
         <f>系統!E41</f>
         <v>F123406328</v>
       </c>
+      <c r="B40" t="str">
+        <f>IFERROR(LEFT(系統!C41,FIND("(",系統!C41)-1),系統!C41)</f>
+        <v>賴芳延</v>
+      </c>
       <c r="C40" t="str">
         <f>系統!D41</f>
         <v>鳳凰營業處</v>
@@ -2891,6 +2983,10 @@
         <f>系統!E42</f>
         <v>P201665028</v>
       </c>
+      <c r="B41" t="str">
+        <f>IFERROR(LEFT(系統!C42,FIND("(",系統!C42)-1),系統!C42)</f>
+        <v>鍾茹伝</v>
+      </c>
       <c r="C41" t="str">
         <f>系統!D42</f>
         <v>鳳凰營業處</v>
@@ -2901,6 +2997,10 @@
         <f>系統!E43</f>
         <v>N223078573</v>
       </c>
+      <c r="B42" t="str">
+        <f>IFERROR(LEFT(系統!C43,FIND("(",系統!C43)-1),系統!C43)</f>
+        <v>王淑芳</v>
+      </c>
       <c r="C42" t="str">
         <f>系統!D43</f>
         <v>鳳凰營業處</v>
@@ -2911,6 +3011,10 @@
         <f>系統!E44</f>
         <v>J220017879</v>
       </c>
+      <c r="B43" t="str">
+        <f>IFERROR(LEFT(系統!C44,FIND("(",系統!C44)-1),系統!C44)</f>
+        <v>施沛綺</v>
+      </c>
       <c r="C43" t="str">
         <f>系統!D44</f>
         <v>鳳凰營業處</v>
@@ -2921,6 +3025,10 @@
         <f>系統!E45</f>
         <v>L123000464</v>
       </c>
+      <c r="B44" t="str">
+        <f>IFERROR(LEFT(系統!C45,FIND("(",系統!C45)-1),系統!C45)</f>
+        <v>劉育誠</v>
+      </c>
       <c r="C44" t="str">
         <f>系統!D45</f>
         <v>鳳凰營業處</v>
@@ -2931,6 +3039,10 @@
         <f>系統!E46</f>
         <v>H221818584</v>
       </c>
+      <c r="B45" t="str">
+        <f>IFERROR(LEFT(系統!C46,FIND("(",系統!C46)-1),系統!C46)</f>
+        <v>倪美臻</v>
+      </c>
       <c r="C45" t="str">
         <f>系統!D46</f>
         <v>鳳凰營業處</v>
@@ -2941,6 +3053,10 @@
         <f>系統!E47</f>
         <v>K220325840</v>
       </c>
+      <c r="B46" t="str">
+        <f>IFERROR(LEFT(系統!C47,FIND("(",系統!C47)-1),系統!C47)</f>
+        <v>張琦瑛</v>
+      </c>
       <c r="C46" t="str">
         <f>系統!D47</f>
         <v>鳳凰營業處</v>
@@ -2951,6 +3067,10 @@
         <f>系統!E48</f>
         <v>S222293203</v>
       </c>
+      <c r="B47" t="str">
+        <f>IFERROR(LEFT(系統!C48,FIND("(",系統!C48)-1),系統!C48)</f>
+        <v>潘慈筠</v>
+      </c>
       <c r="C47" t="str">
         <f>系統!D48</f>
         <v>鳳凰營業處</v>
@@ -2961,6 +3081,10 @@
         <f>系統!E49</f>
         <v>L225390909</v>
       </c>
+      <c r="B48" t="str">
+        <f>IFERROR(LEFT(系統!C49,FIND("(",系統!C49)-1),系統!C49)</f>
+        <v>蔡蕙芯</v>
+      </c>
       <c r="C48" t="str">
         <f>系統!D49</f>
         <v>鳳凰營業處</v>
@@ -2971,6 +3095,10 @@
         <f>系統!E50</f>
         <v>A124484278</v>
       </c>
+      <c r="B49" t="str">
+        <f>IFERROR(LEFT(系統!C50,FIND("(",系統!C50)-1),系統!C50)</f>
+        <v>郭安人</v>
+      </c>
       <c r="C49" t="str">
         <f>系統!D50</f>
         <v>鳳凰營業處</v>
@@ -2981,6 +3109,10 @@
         <f>系統!E51</f>
         <v>K120824757</v>
       </c>
+      <c r="B50" t="str">
+        <f>IFERROR(LEFT(系統!C51,FIND("(",系統!C51)-1),系統!C51)</f>
+        <v>田慶堂</v>
+      </c>
       <c r="C50" t="str">
         <f>系統!D51</f>
         <v>鳳凰營業處</v>
@@ -2991,6 +3123,10 @@
         <f>系統!E52</f>
         <v>F126607443</v>
       </c>
+      <c r="B51" t="str">
+        <f>IFERROR(LEFT(系統!C52,FIND("(",系統!C52)-1),系統!C52)</f>
+        <v>秦培淞</v>
+      </c>
       <c r="C51" t="str">
         <f>系統!D52</f>
         <v>鳳凰營業處</v>
@@ -3001,6 +3137,10 @@
         <f>系統!E53</f>
         <v>B221720958</v>
       </c>
+      <c r="B52" t="str">
+        <f>IFERROR(LEFT(系統!C53,FIND("(",系統!C53)-1),系統!C53)</f>
+        <v>簡衣妘</v>
+      </c>
       <c r="C52" t="str">
         <f>系統!D53</f>
         <v>鳳凰營業處</v>
@@ -3011,6 +3151,10 @@
         <f>系統!E54</f>
         <v>H124690693</v>
       </c>
+      <c r="B53" t="str">
+        <f>IFERROR(LEFT(系統!C54,FIND("(",系統!C54)-1),系統!C54)</f>
+        <v>黃建誠</v>
+      </c>
       <c r="C53" t="str">
         <f>系統!D54</f>
         <v>鳳凰營業處</v>
@@ -3021,6 +3165,10 @@
         <f>系統!E55</f>
         <v>F290037457</v>
       </c>
+      <c r="B54" t="str">
+        <f>IFERROR(LEFT(系統!C55,FIND("(",系統!C55)-1),系統!C55)</f>
+        <v>阮笠凌</v>
+      </c>
       <c r="C54" t="str">
         <f>系統!D55</f>
         <v>鳳凰營業處</v>
@@ -3031,6 +3179,10 @@
         <f>系統!E56</f>
         <v>F223458468</v>
       </c>
+      <c r="B55" t="str">
+        <f>IFERROR(LEFT(系統!C56,FIND("(",系統!C56)-1),系統!C56)</f>
+        <v>張家菁</v>
+      </c>
       <c r="C55" t="str">
         <f>系統!D56</f>
         <v>鳳凰營業處</v>
@@ -3041,6 +3193,10 @@
         <f>系統!E57</f>
         <v>A127259142</v>
       </c>
+      <c r="B56" t="str">
+        <f>IFERROR(LEFT(系統!C57,FIND("(",系統!C57)-1),系統!C57)</f>
+        <v>許建甫</v>
+      </c>
       <c r="C56" t="str">
         <f>系統!D57</f>
         <v>鳳凰營業處</v>
@@ -3051,6 +3207,10 @@
         <f>系統!E58</f>
         <v>V120456883</v>
       </c>
+      <c r="B57" t="str">
+        <f>IFERROR(LEFT(系統!C58,FIND("(",系統!C58)-1),系統!C58)</f>
+        <v>曠力誠</v>
+      </c>
       <c r="C57" t="str">
         <f>系統!D58</f>
         <v>鳳凰營業處</v>
@@ -3061,6 +3221,10 @@
         <f>系統!E59</f>
         <v>Q120705528</v>
       </c>
+      <c r="B58" t="str">
+        <f>IFERROR(LEFT(系統!C59,FIND("(",系統!C59)-1),系統!C59)</f>
+        <v>余聰惠</v>
+      </c>
       <c r="C58" t="str">
         <f>系統!D59</f>
         <v>鳳凰營業處</v>
@@ -3071,6 +3235,10 @@
         <f>系統!E60</f>
         <v>F800143304</v>
       </c>
+      <c r="B59" t="str">
+        <f>IFERROR(LEFT(系統!C60,FIND("(",系統!C60)-1),系統!C60)</f>
+        <v>林尚安</v>
+      </c>
       <c r="C59" t="str">
         <f>系統!D60</f>
         <v>鳳凰營業處</v>
@@ -3081,6 +3249,10 @@
         <f>系統!E61</f>
         <v>N223343020</v>
       </c>
+      <c r="B60" t="str">
+        <f>IFERROR(LEFT(系統!C61,FIND("(",系統!C61)-1),系統!C61)</f>
+        <v>蕭茜翎</v>
+      </c>
       <c r="C60" t="str">
         <f>系統!D61</f>
         <v>鳳凰營業處</v>
@@ -3091,6 +3263,10 @@
         <f>系統!E62</f>
         <v>A220844734</v>
       </c>
+      <c r="B61" t="str">
+        <f>IFERROR(LEFT(系統!C62,FIND("(",系統!C62)-1),系統!C62)</f>
+        <v>林美雲</v>
+      </c>
       <c r="C61" t="str">
         <f>系統!D62</f>
         <v>鳳凰營業處</v>
@@ -3101,6 +3277,10 @@
         <f>系統!E63</f>
         <v>A225113716</v>
       </c>
+      <c r="B62" t="str">
+        <f>IFERROR(LEFT(系統!C63,FIND("(",系統!C63)-1),系統!C63)</f>
+        <v>林毅華</v>
+      </c>
       <c r="C62" t="str">
         <f>系統!D63</f>
         <v>鳳凰營業處</v>
@@ -3111,6 +3291,10 @@
         <f>系統!E64</f>
         <v>L220554065</v>
       </c>
+      <c r="B63" t="str">
+        <f>IFERROR(LEFT(系統!C64,FIND("(",系統!C64)-1),系統!C64)</f>
+        <v>莊睿庭</v>
+      </c>
       <c r="C63" t="str">
         <f>系統!D64</f>
         <v>鳳凰營業處</v>
@@ -3121,6 +3305,10 @@
         <f>系統!E65</f>
         <v>A226071646</v>
       </c>
+      <c r="B64" t="str">
+        <f>IFERROR(LEFT(系統!C65,FIND("(",系統!C65)-1),系統!C65)</f>
+        <v>陳怜妤</v>
+      </c>
       <c r="C64" t="str">
         <f>系統!D65</f>
         <v>鳳凰營業處</v>
@@ -3131,6 +3319,10 @@
         <f>系統!E66</f>
         <v>Q123674119</v>
       </c>
+      <c r="B65" t="str">
+        <f>IFERROR(LEFT(系統!C66,FIND("(",系統!C66)-1),系統!C66)</f>
+        <v>黃浡承</v>
+      </c>
       <c r="C65" t="str">
         <f>系統!D66</f>
         <v>鳳凰營業處</v>
@@ -3141,6 +3333,10 @@
         <f>系統!E67</f>
         <v>A227257140</v>
       </c>
+      <c r="B66" t="str">
+        <f>IFERROR(LEFT(系統!C67,FIND("(",系統!C67)-1),系統!C67)</f>
+        <v>賴佩珍</v>
+      </c>
       <c r="C66" t="str">
         <f>系統!D67</f>
         <v>鳳凰營業處</v>
@@ -3151,6 +3347,10 @@
         <f>系統!E68</f>
         <v>P223555825</v>
       </c>
+      <c r="B67" t="str">
+        <f>IFERROR(LEFT(系統!C68,FIND("(",系統!C68)-1),系統!C68)</f>
+        <v>林泫琋</v>
+      </c>
       <c r="C67" t="str">
         <f>系統!D68</f>
         <v>鳳凰營業處</v>
@@ -3161,6 +3361,10 @@
         <f>系統!E69</f>
         <v>F228505455</v>
       </c>
+      <c r="B68" t="str">
+        <f>IFERROR(LEFT(系統!C69,FIND("(",系統!C69)-1),系統!C69)</f>
+        <v>葉俐伶</v>
+      </c>
       <c r="C68" t="str">
         <f>系統!D69</f>
         <v>鳳凰營業處</v>
@@ -3171,6 +3375,10 @@
         <f>系統!E70</f>
         <v>B221922676</v>
       </c>
+      <c r="B69" t="str">
+        <f>IFERROR(LEFT(系統!C70,FIND("(",系統!C70)-1),系統!C70)</f>
+        <v>侯宗萱</v>
+      </c>
       <c r="C69" t="str">
         <f>系統!D70</f>
         <v>鳳凰營業處</v>
@@ -3181,6 +3389,10 @@
         <f>系統!E71</f>
         <v>G122534762</v>
       </c>
+      <c r="B70" t="str">
+        <f>IFERROR(LEFT(系統!C71,FIND("(",系統!C71)-1),系統!C71)</f>
+        <v>陳宥任</v>
+      </c>
       <c r="C70" t="str">
         <f>系統!D71</f>
         <v>鳳凰營業處</v>
@@ -3191,6 +3403,10 @@
         <f>系統!E72</f>
         <v>A225415840</v>
       </c>
+      <c r="B71" t="str">
+        <f>IFERROR(LEFT(系統!C72,FIND("(",系統!C72)-1),系統!C72)</f>
+        <v>黃韻竹</v>
+      </c>
       <c r="C71" t="str">
         <f>系統!D72</f>
         <v>鳳凰營業處</v>
@@ -3201,6 +3417,10 @@
         <f>系統!E73</f>
         <v>N124159057</v>
       </c>
+      <c r="B72" t="str">
+        <f>IFERROR(LEFT(系統!C73,FIND("(",系統!C73)-1),系統!C73)</f>
+        <v>鄧士明</v>
+      </c>
       <c r="C72" t="str">
         <f>系統!D73</f>
         <v>鳳凰營業處</v>
@@ -3211,6 +3431,10 @@
         <f>系統!E74</f>
         <v>A226564388</v>
       </c>
+      <c r="B73" t="str">
+        <f>IFERROR(LEFT(系統!C74,FIND("(",系統!C74)-1),系統!C74)</f>
+        <v>曾宜婕</v>
+      </c>
       <c r="C73" t="str">
         <f>系統!D74</f>
         <v>鳳凰營業處</v>
@@ -3221,6 +3445,10 @@
         <f>系統!E75</f>
         <v>S120140707</v>
       </c>
+      <c r="B74" t="str">
+        <f>IFERROR(LEFT(系統!C75,FIND("(",系統!C75)-1),系統!C75)</f>
+        <v>蔡富川</v>
+      </c>
       <c r="C74" t="str">
         <f>系統!D75</f>
         <v>鳳凰營業處</v>
@@ -3231,6 +3459,10 @@
         <f>系統!E76</f>
         <v>X220154028</v>
       </c>
+      <c r="B75" t="str">
+        <f>IFERROR(LEFT(系統!C76,FIND("(",系統!C76)-1),系統!C76)</f>
+        <v>王琇瑛</v>
+      </c>
       <c r="C75" t="str">
         <f>系統!D76</f>
         <v>鳳凰營業處</v>
@@ -3241,6 +3473,10 @@
         <f>系統!E77</f>
         <v>M220657982</v>
       </c>
+      <c r="B76" t="str">
+        <f>IFERROR(LEFT(系統!C77,FIND("(",系統!C77)-1),系統!C77)</f>
+        <v>林華真</v>
+      </c>
       <c r="C76" t="str">
         <f>系統!D77</f>
         <v>鳳凰營業處</v>
@@ -3251,6 +3487,10 @@
         <f>系統!E78</f>
         <v>A126337754</v>
       </c>
+      <c r="B77" t="str">
+        <f>IFERROR(LEFT(系統!C78,FIND("(",系統!C78)-1),系統!C78)</f>
+        <v>林忠毅</v>
+      </c>
       <c r="C77" t="str">
         <f>系統!D78</f>
         <v>鳳凰營業處</v>
@@ -3261,6 +3501,10 @@
         <f>系統!E79</f>
         <v>H222824317</v>
       </c>
+      <c r="B78" t="str">
+        <f>IFERROR(LEFT(系統!C79,FIND("(",系統!C79)-1),系統!C79)</f>
+        <v>許妍羚</v>
+      </c>
       <c r="C78" t="str">
         <f>系統!D79</f>
         <v>鳳凰營業處</v>
@@ -3271,6 +3515,10 @@
         <f>系統!E80</f>
         <v>A200111869</v>
       </c>
+      <c r="B79" t="str">
+        <f>IFERROR(LEFT(系統!C80,FIND("(",系統!C80)-1),系統!C80)</f>
+        <v>余廖春子</v>
+      </c>
       <c r="C79" t="str">
         <f>系統!D80</f>
         <v>鳳凰營業處</v>
@@ -3281,6 +3529,10 @@
         <f>系統!E81</f>
         <v>Q123146414</v>
       </c>
+      <c r="B80" t="str">
+        <f>IFERROR(LEFT(系統!C81,FIND("(",系統!C81)-1),系統!C81)</f>
+        <v>張偉哲</v>
+      </c>
       <c r="C80" t="str">
         <f>系統!D81</f>
         <v>鳳凰營業處</v>
@@ -3291,6 +3543,10 @@
         <f>系統!E82</f>
         <v>A122825566</v>
       </c>
+      <c r="B81" t="str">
+        <f>IFERROR(LEFT(系統!C82,FIND("(",系統!C82)-1),系統!C82)</f>
+        <v>胡晴緹</v>
+      </c>
       <c r="C81" t="str">
         <f>系統!D82</f>
         <v>鳳凰營業處</v>
@@ -3301,6 +3557,10 @@
         <f>系統!E83</f>
         <v>H102147040</v>
       </c>
+      <c r="B82" t="str">
+        <f>IFERROR(LEFT(系統!C83,FIND("(",系統!C83)-1),系統!C83)</f>
+        <v>劉瑞品</v>
+      </c>
       <c r="C82" t="str">
         <f>系統!D83</f>
         <v>鳳凰營業處</v>
@@ -3311,6 +3571,10 @@
         <f>系統!E84</f>
         <v>F126209670</v>
       </c>
+      <c r="B83" t="str">
+        <f>IFERROR(LEFT(系統!C84,FIND("(",系統!C84)-1),系統!C84)</f>
+        <v>張子丰</v>
+      </c>
       <c r="C83" t="str">
         <f>系統!D84</f>
         <v>鳳凰營業處</v>
@@ -3321,6 +3585,10 @@
         <f>系統!E85</f>
         <v>C120594864</v>
       </c>
+      <c r="B84" t="str">
+        <f>IFERROR(LEFT(系統!C85,FIND("(",系統!C85)-1),系統!C85)</f>
+        <v>王瑞騰</v>
+      </c>
       <c r="C84" t="str">
         <f>系統!D85</f>
         <v>鳳凰營業處</v>
@@ -3331,6 +3599,10 @@
         <f>系統!E86</f>
         <v>C120789345</v>
       </c>
+      <c r="B85" t="str">
+        <f>IFERROR(LEFT(系統!C86,FIND("(",系統!C86)-1),系統!C86)</f>
+        <v>徐誠憶</v>
+      </c>
       <c r="C85" t="str">
         <f>系統!D86</f>
         <v>鳳凰營業處</v>
@@ -3341,6 +3613,10 @@
         <f>系統!E87</f>
         <v>A221850656</v>
       </c>
+      <c r="B86" t="str">
+        <f>IFERROR(LEFT(系統!C87,FIND("(",系統!C87)-1),系統!C87)</f>
+        <v>林豈妏</v>
+      </c>
       <c r="C86" t="str">
         <f>系統!D87</f>
         <v>鳳凰營業處</v>
@@ -3351,6 +3627,10 @@
         <f>系統!E88</f>
         <v>E221033300</v>
       </c>
+      <c r="B87" t="str">
+        <f>IFERROR(LEFT(系統!C88,FIND("(",系統!C88)-1),系統!C88)</f>
+        <v>蔡宜汶</v>
+      </c>
       <c r="C87" t="str">
         <f>系統!D88</f>
         <v>鳳凰營業處</v>
@@ -3361,6 +3641,10 @@
         <f>系統!E89</f>
         <v>C120486929</v>
       </c>
+      <c r="B88" t="str">
+        <f>IFERROR(LEFT(系統!C89,FIND("(",系統!C89)-1),系統!C89)</f>
+        <v>陳定濱</v>
+      </c>
       <c r="C88" t="str">
         <f>系統!D89</f>
         <v>鳳凰營業處</v>
@@ -3371,6 +3655,10 @@
         <f>系統!E90</f>
         <v>C200163641</v>
       </c>
+      <c r="B89" t="str">
+        <f>IFERROR(LEFT(系統!C90,FIND("(",系統!C90)-1),系統!C90)</f>
+        <v>高美麗</v>
+      </c>
       <c r="C89" t="str">
         <f>系統!D90</f>
         <v>鳳凰營業處</v>
@@ -3381,6 +3669,10 @@
         <f>系統!E91</f>
         <v>C220814345</v>
       </c>
+      <c r="B90" t="str">
+        <f>IFERROR(LEFT(系統!C91,FIND("(",系統!C91)-1),系統!C91)</f>
+        <v>林惠子</v>
+      </c>
       <c r="C90" t="str">
         <f>系統!D91</f>
         <v>鳳凰營業處</v>
@@ -3391,6 +3683,10 @@
         <f>系統!E92</f>
         <v>M220650170</v>
       </c>
+      <c r="B91" t="str">
+        <f>IFERROR(LEFT(系統!C92,FIND("(",系統!C92)-1),系統!C92)</f>
+        <v>林雅芳</v>
+      </c>
       <c r="C91" t="str">
         <f>系統!D92</f>
         <v>鳳凰營業處</v>
@@ -3401,6 +3697,10 @@
         <f>系統!E93</f>
         <v>T200502464</v>
       </c>
+      <c r="B92" t="str">
+        <f>IFERROR(LEFT(系統!C93,FIND("(",系統!C93)-1),系統!C93)</f>
+        <v>蔡胡錦霞</v>
+      </c>
       <c r="C92" t="str">
         <f>系統!D93</f>
         <v>鳳凰營業處</v>
@@ -3411,6 +3711,10 @@
         <f>系統!E94</f>
         <v>R223261624</v>
       </c>
+      <c r="B93" t="str">
+        <f>IFERROR(LEFT(系統!C94,FIND("(",系統!C94)-1),系統!C94)</f>
+        <v>吳庭筠</v>
+      </c>
       <c r="C93" t="str">
         <f>系統!D94</f>
         <v>鳳凰營業處</v>
@@ -3421,6 +3725,10 @@
         <f>系統!E95</f>
         <v>J221830965</v>
       </c>
+      <c r="B94" t="str">
+        <f>IFERROR(LEFT(系統!C95,FIND("(",系統!C95)-1),系統!C95)</f>
+        <v>楊容琳</v>
+      </c>
       <c r="C94" t="str">
         <f>系統!D95</f>
         <v>鳳凰營業處</v>
@@ -3431,6 +3739,10 @@
         <f>系統!E96</f>
         <v>G221860292</v>
       </c>
+      <c r="B95" t="str">
+        <f>IFERROR(LEFT(系統!C96,FIND("(",系統!C96)-1),系統!C96)</f>
+        <v>陳思妤</v>
+      </c>
       <c r="C95" t="str">
         <f>系統!D96</f>
         <v>鳳凰營業處</v>
@@ -3441,6 +3753,10 @@
         <f>系統!E97</f>
         <v>F224878393</v>
       </c>
+      <c r="B96" t="str">
+        <f>IFERROR(LEFT(系統!C97,FIND("(",系統!C97)-1),系統!C97)</f>
+        <v>張豑云</v>
+      </c>
       <c r="C96" t="str">
         <f>系統!D97</f>
         <v>鳳凰營業處</v>
@@ -3451,6 +3767,10 @@
         <f>系統!E98</f>
         <v>H220075469</v>
       </c>
+      <c r="B97" t="str">
+        <f>IFERROR(LEFT(系統!C98,FIND("(",系統!C98)-1),系統!C98)</f>
+        <v>游劍羽</v>
+      </c>
       <c r="C97" t="str">
         <f>系統!D98</f>
         <v>鳳凰營業處</v>
@@ -3461,6 +3781,10 @@
         <f>系統!E99</f>
         <v>F229043309</v>
       </c>
+      <c r="B98" t="str">
+        <f>IFERROR(LEFT(系統!C99,FIND("(",系統!C99)-1),系統!C99)</f>
+        <v>施如耘</v>
+      </c>
       <c r="C98" t="str">
         <f>系統!D99</f>
         <v>鳳凰營業處</v>
@@ -3471,6 +3795,10 @@
         <f>系統!E100</f>
         <v>H202277518</v>
       </c>
+      <c r="B99" t="str">
+        <f>IFERROR(LEFT(系統!C100,FIND("(",系統!C100)-1),系統!C100)</f>
+        <v>江許月娥</v>
+      </c>
       <c r="C99" t="str">
         <f>系統!D100</f>
         <v>鳳凰營業處</v>
@@ -3481,6 +3809,10 @@
         <f>系統!E101</f>
         <v>A122023277</v>
       </c>
+      <c r="B100" t="str">
+        <f>IFERROR(LEFT(系統!C101,FIND("(",系統!C101)-1),系統!C101)</f>
+        <v>鄭玉章</v>
+      </c>
       <c r="C100" t="str">
         <f>系統!D101</f>
         <v>卓越營業處</v>
@@ -3491,6 +3823,10 @@
         <f>系統!E102</f>
         <v>A223236207</v>
       </c>
+      <c r="B101" t="str">
+        <f>IFERROR(LEFT(系統!C102,FIND("(",系統!C102)-1),系統!C102)</f>
+        <v>柯沛涵</v>
+      </c>
       <c r="C101" t="str">
         <f>系統!D102</f>
         <v>卓越營業處</v>
@@ -3501,6 +3837,10 @@
         <f>系統!E103</f>
         <v>A222207051</v>
       </c>
+      <c r="B102" t="str">
+        <f>IFERROR(LEFT(系統!C103,FIND("(",系統!C103)-1),系統!C103)</f>
+        <v>陳文琴</v>
+      </c>
       <c r="C102" t="str">
         <f>系統!D103</f>
         <v>卓越營業處</v>
@@ -3511,6 +3851,10 @@
         <f>系統!E104</f>
         <v>S121213094</v>
       </c>
+      <c r="B103" t="str">
+        <f>IFERROR(LEFT(系統!C104,FIND("(",系統!C104)-1),系統!C104)</f>
+        <v>鄭宗安</v>
+      </c>
       <c r="C103" t="str">
         <f>系統!D104</f>
         <v>鄭宗安營業處</v>
@@ -3521,6 +3865,10 @@
         <f>系統!E105</f>
         <v>AG120381227</v>
       </c>
+      <c r="B104" t="str">
+        <f>IFERROR(LEFT(系統!C105,FIND("(",系統!C105)-1),系統!C105)</f>
+        <v>謝守席</v>
+      </c>
       <c r="C104" t="str">
         <f>系統!D105</f>
         <v>鄭宗安營業處</v>
@@ -3531,6 +3879,10 @@
         <f>系統!E106</f>
         <v>A121486225</v>
       </c>
+      <c r="B105" t="str">
+        <f>IFERROR(LEFT(系統!C106,FIND("(",系統!C106)-1),系統!C106)</f>
+        <v>吳文昆</v>
+      </c>
       <c r="C105" t="str">
         <f>系統!D106</f>
         <v>鄭宗安營業處</v>
@@ -3541,6 +3893,10 @@
         <f>系統!E107</f>
         <v>H120183286</v>
       </c>
+      <c r="B106" t="str">
+        <f>IFERROR(LEFT(系統!C107,FIND("(",系統!C107)-1),系統!C107)</f>
+        <v>陳逸政</v>
+      </c>
       <c r="C106" t="str">
         <f>系統!D107</f>
         <v>鄭宗安營業處</v>
@@ -3551,6 +3907,10 @@
         <f>系統!E108</f>
         <v>G220792017</v>
       </c>
+      <c r="B107" t="str">
+        <f>IFERROR(LEFT(系統!C108,FIND("(",系統!C108)-1),系統!C108)</f>
+        <v>張美珠</v>
+      </c>
       <c r="C107" t="str">
         <f>系統!D108</f>
         <v>鄭宗安營業處</v>
@@ -3561,6 +3921,10 @@
         <f>系統!E109</f>
         <v>A221764557</v>
       </c>
+      <c r="B108" t="str">
+        <f>IFERROR(LEFT(系統!C109,FIND("(",系統!C109)-1),系統!C109)</f>
+        <v>王藝臻</v>
+      </c>
       <c r="C108" t="str">
         <f>系統!D109</f>
         <v>儷寶營業處</v>
@@ -3571,6 +3935,10 @@
         <f>系統!E110</f>
         <v>E120516906</v>
       </c>
+      <c r="B109" t="str">
+        <f>IFERROR(LEFT(系統!C110,FIND("(",系統!C110)-1),系統!C110)</f>
+        <v>施華生</v>
+      </c>
       <c r="C109" t="str">
         <f>系統!D110</f>
         <v>儷寶營業處</v>
@@ -3581,6 +3949,10 @@
         <f>系統!E111</f>
         <v>Q220525120</v>
       </c>
+      <c r="B110" t="str">
+        <f>IFERROR(LEFT(系統!C111,FIND("(",系統!C111)-1),系統!C111)</f>
+        <v>蕭婕鎂</v>
+      </c>
       <c r="C110" t="str">
         <f>系統!D111</f>
         <v>儷寶營業處</v>
@@ -3591,6 +3963,10 @@
         <f>系統!E112</f>
         <v>F220233343</v>
       </c>
+      <c r="B111" t="str">
+        <f>IFERROR(LEFT(系統!C112,FIND("(",系統!C112)-1),系統!C112)</f>
+        <v>吳連娣</v>
+      </c>
       <c r="C111" t="str">
         <f>系統!D112</f>
         <v>儷寶營業處</v>
@@ -3601,6 +3977,10 @@
         <f>系統!E113</f>
         <v>Q220631865</v>
       </c>
+      <c r="B112" t="str">
+        <f>IFERROR(LEFT(系統!C113,FIND("(",系統!C113)-1),系統!C113)</f>
+        <v>柳秋梅</v>
+      </c>
       <c r="C112" t="str">
         <f>系統!D113</f>
         <v>儷寶營業處</v>
@@ -3611,6 +3991,10 @@
         <f>系統!E114</f>
         <v>E221166662</v>
       </c>
+      <c r="B113" t="str">
+        <f>IFERROR(LEFT(系統!C114,FIND("(",系統!C114)-1),系統!C114)</f>
+        <v>張品竹</v>
+      </c>
       <c r="C113" t="str">
         <f>系統!D114</f>
         <v>利百佳營業處</v>
@@ -3621,6 +4005,10 @@
         <f>系統!E115</f>
         <v>C120217728</v>
       </c>
+      <c r="B114" t="str">
+        <f>IFERROR(LEFT(系統!C115,FIND("(",系統!C115)-1),系統!C115)</f>
+        <v>莊讚祥</v>
+      </c>
       <c r="C114" t="str">
         <f>系統!D115</f>
         <v>利百佳營業處</v>
@@ -3631,6 +4019,10 @@
         <f>系統!E116</f>
         <v>F126403598</v>
       </c>
+      <c r="B115" t="str">
+        <f>IFERROR(LEFT(系統!C116,FIND("(",系統!C116)-1),系統!C116)</f>
+        <v>陳韋滔</v>
+      </c>
       <c r="C115" t="str">
         <f>系統!D116</f>
         <v>星啓方舟營業處</v>
@@ -3641,6 +4033,10 @@
         <f>系統!E117</f>
         <v>F127709919</v>
       </c>
+      <c r="B116" t="str">
+        <f>IFERROR(LEFT(系統!C117,FIND("(",系統!C117)-1),系統!C117)</f>
+        <v>林忠衡</v>
+      </c>
       <c r="C116" t="str">
         <f>系統!D117</f>
         <v>星啓方舟營業處</v>
@@ -3651,6 +4047,10 @@
         <f>系統!E118</f>
         <v>N125483605</v>
       </c>
+      <c r="B117" t="str">
+        <f>IFERROR(LEFT(系統!C118,FIND("(",系統!C118)-1),系統!C118)</f>
+        <v>賴彥碩</v>
+      </c>
       <c r="C117" t="str">
         <f>系統!D118</f>
         <v>星啓方舟營業處</v>
@@ -3661,6 +4061,10 @@
         <f>系統!E119</f>
         <v>0</v>
       </c>
+      <c r="B118" t="str">
+        <f>IFERROR(LEFT(系統!C119,FIND("(",系統!C119)-1),系統!C119)</f>
+        <v>公司直銷</v>
+      </c>
       <c r="C118" t="str">
         <f>系統!D119</f>
         <v>營業處</v>
@@ -3671,6 +4075,10 @@
         <f>系統!E120</f>
         <v>0</v>
       </c>
+      <c r="B119">
+        <f>IFERROR(LEFT(系統!C120,FIND("(",系統!C120)-1),系統!C120)</f>
+        <v>0</v>
+      </c>
       <c r="C119">
         <f>系統!D120</f>
         <v>0</v>
@@ -3681,6 +4089,10 @@
         <f>系統!E121</f>
         <v>0</v>
       </c>
+      <c r="B120">
+        <f>IFERROR(LEFT(系統!C121,FIND("(",系統!C121)-1),系統!C121)</f>
+        <v>0</v>
+      </c>
       <c r="C120">
         <f>系統!D121</f>
         <v>0</v>
@@ -3691,6 +4103,10 @@
         <f>系統!E122</f>
         <v>0</v>
       </c>
+      <c r="B121">
+        <f>IFERROR(LEFT(系統!C122,FIND("(",系統!C122)-1),系統!C122)</f>
+        <v>0</v>
+      </c>
       <c r="C121">
         <f>系統!D122</f>
         <v>0</v>
@@ -3701,6 +4117,10 @@
         <f>系統!E123</f>
         <v>0</v>
       </c>
+      <c r="B122">
+        <f>IFERROR(LEFT(系統!C123,FIND("(",系統!C123)-1),系統!C123)</f>
+        <v>0</v>
+      </c>
       <c r="C122">
         <f>系統!D123</f>
         <v>0</v>
@@ -3711,6 +4131,10 @@
         <f>系統!E124</f>
         <v>0</v>
       </c>
+      <c r="B123">
+        <f>IFERROR(LEFT(系統!C124,FIND("(",系統!C124)-1),系統!C124)</f>
+        <v>0</v>
+      </c>
       <c r="C123">
         <f>系統!D124</f>
         <v>0</v>
@@ -3721,6 +4145,10 @@
         <f>系統!E125</f>
         <v>0</v>
       </c>
+      <c r="B124">
+        <f>IFERROR(LEFT(系統!C125,FIND("(",系統!C125)-1),系統!C125)</f>
+        <v>0</v>
+      </c>
       <c r="C124">
         <f>系統!D125</f>
         <v>0</v>
@@ -3731,6 +4159,10 @@
         <f>系統!E126</f>
         <v>0</v>
       </c>
+      <c r="B125">
+        <f>IFERROR(LEFT(系統!C126,FIND("(",系統!C126)-1),系統!C126)</f>
+        <v>0</v>
+      </c>
       <c r="C125">
         <f>系統!D126</f>
         <v>0</v>
@@ -3741,6 +4173,10 @@
         <f>系統!E127</f>
         <v>0</v>
       </c>
+      <c r="B126">
+        <f>IFERROR(LEFT(系統!C127,FIND("(",系統!C127)-1),系統!C127)</f>
+        <v>0</v>
+      </c>
       <c r="C126">
         <f>系統!D127</f>
         <v>0</v>
@@ -3751,6 +4187,10 @@
         <f>系統!E128</f>
         <v>0</v>
       </c>
+      <c r="B127">
+        <f>IFERROR(LEFT(系統!C128,FIND("(",系統!C128)-1),系統!C128)</f>
+        <v>0</v>
+      </c>
       <c r="C127">
         <f>系統!D128</f>
         <v>0</v>
@@ -3761,6 +4201,10 @@
         <f>系統!E129</f>
         <v>0</v>
       </c>
+      <c r="B128">
+        <f>IFERROR(LEFT(系統!C129,FIND("(",系統!C129)-1),系統!C129)</f>
+        <v>0</v>
+      </c>
       <c r="C128">
         <f>系統!D129</f>
         <v>0</v>
@@ -3771,6 +4215,10 @@
         <f>系統!E130</f>
         <v>0</v>
       </c>
+      <c r="B129">
+        <f>IFERROR(LEFT(系統!C130,FIND("(",系統!C130)-1),系統!C130)</f>
+        <v>0</v>
+      </c>
       <c r="C129">
         <f>系統!D130</f>
         <v>0</v>
@@ -3781,6 +4229,10 @@
         <f>系統!E131</f>
         <v>0</v>
       </c>
+      <c r="B130">
+        <f>IFERROR(LEFT(系統!C131,FIND("(",系統!C131)-1),系統!C131)</f>
+        <v>0</v>
+      </c>
       <c r="C130">
         <f>系統!D131</f>
         <v>0</v>
@@ -3791,6 +4243,10 @@
         <f>系統!E132</f>
         <v>0</v>
       </c>
+      <c r="B131">
+        <f>IFERROR(LEFT(系統!C132,FIND("(",系統!C132)-1),系統!C132)</f>
+        <v>0</v>
+      </c>
       <c r="C131">
         <f>系統!D132</f>
         <v>0</v>
@@ -3801,6 +4257,10 @@
         <f>系統!E133</f>
         <v>0</v>
       </c>
+      <c r="B132">
+        <f>IFERROR(LEFT(系統!C133,FIND("(",系統!C133)-1),系統!C133)</f>
+        <v>0</v>
+      </c>
       <c r="C132">
         <f>系統!D133</f>
         <v>0</v>
@@ -3811,6 +4271,10 @@
         <f>系統!E134</f>
         <v>0</v>
       </c>
+      <c r="B133">
+        <f>IFERROR(LEFT(系統!C134,FIND("(",系統!C134)-1),系統!C134)</f>
+        <v>0</v>
+      </c>
       <c r="C133">
         <f>系統!D134</f>
         <v>0</v>
@@ -3821,6 +4285,10 @@
         <f>系統!E135</f>
         <v>0</v>
       </c>
+      <c r="B134">
+        <f>IFERROR(LEFT(系統!C135,FIND("(",系統!C135)-1),系統!C135)</f>
+        <v>0</v>
+      </c>
       <c r="C134">
         <f>系統!D135</f>
         <v>0</v>
@@ -3831,6 +4299,10 @@
         <f>系統!E136</f>
         <v>0</v>
       </c>
+      <c r="B135">
+        <f>IFERROR(LEFT(系統!C136,FIND("(",系統!C136)-1),系統!C136)</f>
+        <v>0</v>
+      </c>
       <c r="C135">
         <f>系統!D136</f>
         <v>0</v>
@@ -3841,6 +4313,10 @@
         <f>系統!E137</f>
         <v>0</v>
       </c>
+      <c r="B136">
+        <f>IFERROR(LEFT(系統!C137,FIND("(",系統!C137)-1),系統!C137)</f>
+        <v>0</v>
+      </c>
       <c r="C136">
         <f>系統!D137</f>
         <v>0</v>
@@ -3851,6 +4327,10 @@
         <f>系統!E138</f>
         <v>0</v>
       </c>
+      <c r="B137">
+        <f>IFERROR(LEFT(系統!C138,FIND("(",系統!C138)-1),系統!C138)</f>
+        <v>0</v>
+      </c>
       <c r="C137">
         <f>系統!D138</f>
         <v>0</v>
@@ -3861,6 +4341,10 @@
         <f>系統!E139</f>
         <v>0</v>
       </c>
+      <c r="B138">
+        <f>IFERROR(LEFT(系統!C139,FIND("(",系統!C139)-1),系統!C139)</f>
+        <v>0</v>
+      </c>
       <c r="C138">
         <f>系統!D139</f>
         <v>0</v>
@@ -3871,6 +4355,10 @@
         <f>系統!E140</f>
         <v>0</v>
       </c>
+      <c r="B139">
+        <f>IFERROR(LEFT(系統!C140,FIND("(",系統!C140)-1),系統!C140)</f>
+        <v>0</v>
+      </c>
       <c r="C139">
         <f>系統!D140</f>
         <v>0</v>
@@ -3881,6 +4369,10 @@
         <f>系統!E141</f>
         <v>0</v>
       </c>
+      <c r="B140">
+        <f>IFERROR(LEFT(系統!C141,FIND("(",系統!C141)-1),系統!C141)</f>
+        <v>0</v>
+      </c>
       <c r="C140">
         <f>系統!D141</f>
         <v>0</v>
@@ -3891,6 +4383,10 @@
         <f>系統!E142</f>
         <v>0</v>
       </c>
+      <c r="B141">
+        <f>IFERROR(LEFT(系統!C142,FIND("(",系統!C142)-1),系統!C142)</f>
+        <v>0</v>
+      </c>
       <c r="C141">
         <f>系統!D142</f>
         <v>0</v>
@@ -3901,6 +4397,10 @@
         <f>系統!E143</f>
         <v>0</v>
       </c>
+      <c r="B142">
+        <f>IFERROR(LEFT(系統!C143,FIND("(",系統!C143)-1),系統!C143)</f>
+        <v>0</v>
+      </c>
       <c r="C142">
         <f>系統!D143</f>
         <v>0</v>
@@ -3911,6 +4411,10 @@
         <f>系統!E144</f>
         <v>0</v>
       </c>
+      <c r="B143">
+        <f>IFERROR(LEFT(系統!C144,FIND("(",系統!C144)-1),系統!C144)</f>
+        <v>0</v>
+      </c>
       <c r="C143">
         <f>系統!D144</f>
         <v>0</v>
@@ -3919,6 +4423,10 @@
     <row r="144" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A144">
         <f>系統!E145</f>
+        <v>0</v>
+      </c>
+      <c r="B144">
+        <f>IFERROR(LEFT(系統!C145,FIND("(",系統!C145)-1),系統!C145)</f>
         <v>0</v>
       </c>
       <c r="C144">

--- a/my_app/在職業務名單.xlsx
+++ b/my_app/在職業務名單.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1143" uniqueCount="671">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1481" uniqueCount="782">
   <si>
     <t>業務身份證字號</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2041,6 +2041,339 @@
   </si>
   <si>
     <t>2025/10/21  17:07:04</t>
+  </si>
+  <si>
+    <t>城鄉</t>
+  </si>
+  <si>
+    <t>寶金雲</t>
+  </si>
+  <si>
+    <t>網天下</t>
+  </si>
+  <si>
+    <t>張程鈞</t>
+  </si>
+  <si>
+    <t>城鄉-王F122</t>
+  </si>
+  <si>
+    <t>黃Q22</t>
+  </si>
+  <si>
+    <t>于懷垣</t>
+  </si>
+  <si>
+    <t>唐自立</t>
+  </si>
+  <si>
+    <t>何自如</t>
+  </si>
+  <si>
+    <t>林家如</t>
+  </si>
+  <si>
+    <t>黃國瑋</t>
+  </si>
+  <si>
+    <t>黃睿埁</t>
+  </si>
+  <si>
+    <t>林濬煬</t>
+  </si>
+  <si>
+    <t>陳欣佑</t>
+  </si>
+  <si>
+    <t>李志平</t>
+  </si>
+  <si>
+    <t>周富揚</t>
+  </si>
+  <si>
+    <t>沈志偉</t>
+  </si>
+  <si>
+    <t>林樹臏</t>
+  </si>
+  <si>
+    <t>邱奕瑋</t>
+  </si>
+  <si>
+    <t>謝長祐</t>
+  </si>
+  <si>
+    <t>王儷餘</t>
+  </si>
+  <si>
+    <t>余語瑩</t>
+  </si>
+  <si>
+    <t>呂淑清</t>
+  </si>
+  <si>
+    <t>郭美惠</t>
+  </si>
+  <si>
+    <t>陳亭潔</t>
+  </si>
+  <si>
+    <t>陳賢傑</t>
+  </si>
+  <si>
+    <t>林溢恩</t>
+  </si>
+  <si>
+    <t>余欣佳</t>
+  </si>
+  <si>
+    <t>施憬諭</t>
+  </si>
+  <si>
+    <t>蕭慧珍</t>
+  </si>
+  <si>
+    <t>江明怡</t>
+  </si>
+  <si>
+    <t>郭安皎</t>
+  </si>
+  <si>
+    <t>黃琬翎</t>
+  </si>
+  <si>
+    <t>賴芳延</t>
+  </si>
+  <si>
+    <t>鍾茹伝</t>
+  </si>
+  <si>
+    <t>王淑芳</t>
+  </si>
+  <si>
+    <t>施沛綺</t>
+  </si>
+  <si>
+    <t>劉育誠</t>
+  </si>
+  <si>
+    <t>倪美臻</t>
+  </si>
+  <si>
+    <t>張琦瑛</t>
+  </si>
+  <si>
+    <t>潘慈筠</t>
+  </si>
+  <si>
+    <t>蔡蕙芯</t>
+  </si>
+  <si>
+    <t>郭安人</t>
+  </si>
+  <si>
+    <t>田慶堂</t>
+  </si>
+  <si>
+    <t>秦培淞</t>
+  </si>
+  <si>
+    <t>簡衣妘</t>
+  </si>
+  <si>
+    <t>黃建誠</t>
+  </si>
+  <si>
+    <t>阮笠凌</t>
+  </si>
+  <si>
+    <t>張家菁</t>
+  </si>
+  <si>
+    <t>許建甫</t>
+  </si>
+  <si>
+    <t>曠力誠</t>
+  </si>
+  <si>
+    <t>余聰惠</t>
+  </si>
+  <si>
+    <t>林尚安</t>
+  </si>
+  <si>
+    <t>蕭茜翎</t>
+  </si>
+  <si>
+    <t>林美雲</t>
+  </si>
+  <si>
+    <t>林毅華</t>
+  </si>
+  <si>
+    <t>莊睿庭</t>
+  </si>
+  <si>
+    <t>陳怜妤</t>
+  </si>
+  <si>
+    <t>黃浡承</t>
+  </si>
+  <si>
+    <t>賴佩珍</t>
+  </si>
+  <si>
+    <t>林泫琋</t>
+  </si>
+  <si>
+    <t>葉俐伶</t>
+  </si>
+  <si>
+    <t>侯宗萱</t>
+  </si>
+  <si>
+    <t>陳宥任</t>
+  </si>
+  <si>
+    <t>黃韻竹</t>
+  </si>
+  <si>
+    <t>鄧士明</t>
+  </si>
+  <si>
+    <t>曾宜婕</t>
+  </si>
+  <si>
+    <t>蔡富川</t>
+  </si>
+  <si>
+    <t>王琇瑛</t>
+  </si>
+  <si>
+    <t>林華真</t>
+  </si>
+  <si>
+    <t>林忠毅</t>
+  </si>
+  <si>
+    <t>許妍羚</t>
+  </si>
+  <si>
+    <t>余廖春子</t>
+  </si>
+  <si>
+    <t>張偉哲</t>
+  </si>
+  <si>
+    <t>胡晴緹</t>
+  </si>
+  <si>
+    <t>劉瑞品</t>
+  </si>
+  <si>
+    <t>張子丰</t>
+  </si>
+  <si>
+    <t>王瑞騰</t>
+  </si>
+  <si>
+    <t>徐誠憶</t>
+  </si>
+  <si>
+    <t>林豈妏</t>
+  </si>
+  <si>
+    <t>蔡宜汶</t>
+  </si>
+  <si>
+    <t>陳定濱</t>
+  </si>
+  <si>
+    <t>高美麗</t>
+  </si>
+  <si>
+    <t>林惠子</t>
+  </si>
+  <si>
+    <t>林雅芳</t>
+  </si>
+  <si>
+    <t>蔡胡錦霞</t>
+  </si>
+  <si>
+    <t>吳庭筠</t>
+  </si>
+  <si>
+    <t>楊容琳</t>
+  </si>
+  <si>
+    <t>陳思妤</t>
+  </si>
+  <si>
+    <t>張豑云</t>
+  </si>
+  <si>
+    <t>游劍羽</t>
+  </si>
+  <si>
+    <t>施如耘</t>
+  </si>
+  <si>
+    <t>江許月娥</t>
+  </si>
+  <si>
+    <t>鄭玉章</t>
+  </si>
+  <si>
+    <t>柯沛涵</t>
+  </si>
+  <si>
+    <t>陳文琴</t>
+  </si>
+  <si>
+    <t>鄭宗安</t>
+  </si>
+  <si>
+    <t>謝守席</t>
+  </si>
+  <si>
+    <t>吳文昆</t>
+  </si>
+  <si>
+    <t>陳逸政</t>
+  </si>
+  <si>
+    <t>張美珠</t>
+  </si>
+  <si>
+    <t>王藝臻</t>
+  </si>
+  <si>
+    <t>施華生</t>
+  </si>
+  <si>
+    <t>蕭婕鎂</t>
+  </si>
+  <si>
+    <t>吳連娣</t>
+  </si>
+  <si>
+    <t>柳秋梅</t>
+  </si>
+  <si>
+    <t>張品竹</t>
+  </si>
+  <si>
+    <t>莊讚祥</t>
+  </si>
+  <si>
+    <t>陳韋滔</t>
+  </si>
+  <si>
+    <t>林忠衡</t>
+  </si>
+  <si>
+    <t>賴彥碩</t>
   </si>
 </sst>
 </file>
@@ -2411,7 +2744,7 @@
   <dimension ref="A1:C144"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
-      <selection activeCell="B144" sqref="B144"/>
+      <selection activeCell="C112" sqref="C112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.149999999999999" x14ac:dyDescent="0.45"/>
@@ -2434,2003 +2767,1574 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2">
-        <f>系統!E3</f>
-        <v>0</v>
-      </c>
-      <c r="B2" t="str">
-        <f>IFERROR(LEFT(系統!C3,FIND("(",系統!C3)-1),系統!C3)</f>
-        <v>和珮筠</v>
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>16</v>
       </c>
       <c r="C2">
-        <f>系統!D3</f>
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3">
-        <f>系統!E4</f>
-        <v>0</v>
-      </c>
-      <c r="B3" t="str">
-        <f>IFERROR(LEFT(系統!C4,FIND("(",系統!C4)-1),系統!C4)</f>
-        <v>何亞倫</v>
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>20</v>
       </c>
       <c r="C3">
-        <f>系統!D4</f>
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4">
-        <f>系統!E5</f>
-        <v>0</v>
-      </c>
-      <c r="B4" t="str">
-        <f>IFERROR(LEFT(系統!C5,FIND("(",系統!C5)-1),系統!C5)</f>
-        <v>劉家僑</v>
+        <v>0</v>
+      </c>
+      <c r="B4" t="s">
+        <v>22</v>
       </c>
       <c r="C4">
-        <f>系統!D5</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5">
-        <f>系統!E6</f>
-        <v>0</v>
-      </c>
-      <c r="B5" t="str">
-        <f>IFERROR(LEFT(系統!C6,FIND("(",系統!C6)-1),系統!C6)</f>
-        <v>鄭家楹</v>
+        <v>0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
       </c>
       <c r="C5">
-        <f>系統!D6</f>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6">
-        <f>系統!E7</f>
-        <v>0</v>
-      </c>
-      <c r="B6" t="str">
-        <f>IFERROR(LEFT(系統!C7,FIND("(",系統!C7)-1),系統!C7)</f>
-        <v>鍾美蓮</v>
+        <v>0</v>
+      </c>
+      <c r="B6" t="s">
+        <v>26</v>
       </c>
       <c r="C6">
-        <f>系統!D7</f>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A7">
-        <f>系統!E8</f>
-        <v>0</v>
-      </c>
-      <c r="B7" t="str">
-        <f>IFERROR(LEFT(系統!C8,FIND("(",系統!C8)-1),系統!C8)</f>
-        <v>城鄉</v>
-      </c>
-      <c r="C7" t="str">
-        <f>系統!D8</f>
-        <v>城鄉營業處</v>
+        <v>0</v>
+      </c>
+      <c r="B7" t="s">
+        <v>671</v>
+      </c>
+      <c r="C7" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A8">
-        <f>系統!E9</f>
-        <v>0</v>
-      </c>
-      <c r="B8" t="str">
-        <f>IFERROR(LEFT(系統!C9,FIND("(",系統!C9)-1),系統!C9)</f>
-        <v>寶金雲</v>
-      </c>
-      <c r="C8" t="str">
-        <f>系統!D9</f>
-        <v>城鄉營業處</v>
+        <v>0</v>
+      </c>
+      <c r="B8" t="s">
+        <v>672</v>
+      </c>
+      <c r="C8" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A9" t="str">
-        <f>系統!E10</f>
-        <v>50984933</v>
-      </c>
-      <c r="B9" t="str">
-        <f>IFERROR(LEFT(系統!C10,FIND("(",系統!C10)-1),系統!C10)</f>
-        <v>網天下</v>
-      </c>
-      <c r="C9" t="str">
-        <f>系統!D10</f>
-        <v>城鄉營業處</v>
+      <c r="A9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9" t="s">
+        <v>673</v>
+      </c>
+      <c r="C9" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A10" t="str">
-        <f>系統!E11</f>
-        <v>A127897384</v>
-      </c>
-      <c r="B10" t="str">
-        <f>IFERROR(LEFT(系統!C11,FIND("(",系統!C11)-1),系統!C11)</f>
-        <v>張程鈞</v>
-      </c>
-      <c r="C10" t="str">
-        <f>系統!D11</f>
-        <v>城鄉營業處</v>
+      <c r="A10" t="s">
+        <v>47</v>
+      </c>
+      <c r="B10" t="s">
+        <v>674</v>
+      </c>
+      <c r="C10" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A11" t="str">
-        <f>系統!E12</f>
-        <v>F122773697</v>
-      </c>
-      <c r="B11" t="str">
-        <f>IFERROR(LEFT(系統!C12,FIND("(",系統!C12)-1),系統!C12)</f>
-        <v>城鄉-王F122</v>
-      </c>
-      <c r="C11" t="str">
-        <f>系統!D12</f>
-        <v>城鄉營業處</v>
+      <c r="A11" t="s">
+        <v>53</v>
+      </c>
+      <c r="B11" t="s">
+        <v>675</v>
+      </c>
+      <c r="C11" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A12" t="str">
-        <f>系統!E13</f>
-        <v>Q220639487</v>
-      </c>
-      <c r="B12" t="str">
-        <f>IFERROR(LEFT(系統!C13,FIND("(",系統!C13)-1),系統!C13)</f>
-        <v>黃Q22</v>
-      </c>
-      <c r="C12" t="str">
-        <f>系統!D13</f>
-        <v>城鄉營業處</v>
+      <c r="A12" t="s">
+        <v>59</v>
+      </c>
+      <c r="B12" t="s">
+        <v>676</v>
+      </c>
+      <c r="C12" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A13" t="str">
-        <f>系統!E14</f>
-        <v>F123571875</v>
-      </c>
-      <c r="B13" t="str">
-        <f>IFERROR(LEFT(系統!C14,FIND("(",系統!C14)-1),系統!C14)</f>
-        <v>于懷垣</v>
-      </c>
-      <c r="C13" t="str">
-        <f>系統!D14</f>
-        <v>鳳凰營業處</v>
+      <c r="A13" t="s">
+        <v>66</v>
+      </c>
+      <c r="B13" t="s">
+        <v>677</v>
+      </c>
+      <c r="C13" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A14" t="str">
-        <f>系統!E15</f>
-        <v>F224930389</v>
-      </c>
-      <c r="B14" t="str">
-        <f>IFERROR(LEFT(系統!C15,FIND("(",系統!C15)-1),系統!C15)</f>
-        <v>唐自立</v>
-      </c>
-      <c r="C14" t="str">
-        <f>系統!D15</f>
-        <v>鳳凰營業處</v>
+      <c r="A14" t="s">
+        <v>71</v>
+      </c>
+      <c r="B14" t="s">
+        <v>678</v>
+      </c>
+      <c r="C14" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A15" t="str">
-        <f>系統!E16</f>
-        <v>H222978552</v>
-      </c>
-      <c r="B15" t="str">
-        <f>IFERROR(LEFT(系統!C16,FIND("(",系統!C16)-1),系統!C16)</f>
-        <v>何自如</v>
-      </c>
-      <c r="C15" t="str">
-        <f>系統!D16</f>
-        <v>鳳凰營業處</v>
+      <c r="A15" t="s">
+        <v>77</v>
+      </c>
+      <c r="B15" t="s">
+        <v>679</v>
+      </c>
+      <c r="C15" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A16" t="str">
-        <f>系統!E17</f>
-        <v>F225081698</v>
-      </c>
-      <c r="B16" t="str">
-        <f>IFERROR(LEFT(系統!C17,FIND("(",系統!C17)-1),系統!C17)</f>
-        <v>林家如</v>
-      </c>
-      <c r="C16" t="str">
-        <f>系統!D17</f>
-        <v>鳳凰營業處</v>
+      <c r="A16" t="s">
+        <v>84</v>
+      </c>
+      <c r="B16" t="s">
+        <v>680</v>
+      </c>
+      <c r="C16" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A17" t="str">
-        <f>系統!E18</f>
-        <v>W100351192</v>
-      </c>
-      <c r="B17" t="str">
-        <f>IFERROR(LEFT(系統!C18,FIND("(",系統!C18)-1),系統!C18)</f>
-        <v>黃國瑋</v>
-      </c>
-      <c r="C17" t="str">
-        <f>系統!D18</f>
-        <v>鳳凰營業處</v>
+      <c r="A17" t="s">
+        <v>90</v>
+      </c>
+      <c r="B17" t="s">
+        <v>681</v>
+      </c>
+      <c r="C17" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A18" t="str">
-        <f>系統!E19</f>
-        <v>H220714765</v>
-      </c>
-      <c r="B18" t="str">
-        <f>IFERROR(LEFT(系統!C19,FIND("(",系統!C19)-1),系統!C19)</f>
-        <v>黃睿埁</v>
-      </c>
-      <c r="C18" t="str">
-        <f>系統!D19</f>
-        <v>鳳凰營業處</v>
+      <c r="A18" t="s">
+        <v>96</v>
+      </c>
+      <c r="B18" t="s">
+        <v>682</v>
+      </c>
+      <c r="C18" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A19" t="str">
-        <f>系統!E20</f>
-        <v>F123794583</v>
-      </c>
-      <c r="B19" t="str">
-        <f>IFERROR(LEFT(系統!C20,FIND("(",系統!C20)-1),系統!C20)</f>
-        <v>林濬煬</v>
-      </c>
-      <c r="C19" t="str">
-        <f>系統!D20</f>
-        <v>鳳凰營業處</v>
+      <c r="A19" t="s">
+        <v>102</v>
+      </c>
+      <c r="B19" t="s">
+        <v>683</v>
+      </c>
+      <c r="C19" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A20" t="str">
-        <f>系統!E21</f>
-        <v>V220907556</v>
-      </c>
-      <c r="B20" t="str">
-        <f>IFERROR(LEFT(系統!C21,FIND("(",系統!C21)-1),系統!C21)</f>
-        <v>陳欣佑</v>
-      </c>
-      <c r="C20" t="str">
-        <f>系統!D21</f>
-        <v>鳳凰營業處</v>
+      <c r="A20" t="s">
+        <v>109</v>
+      </c>
+      <c r="B20" t="s">
+        <v>684</v>
+      </c>
+      <c r="C20" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A21" t="str">
-        <f>系統!E22</f>
-        <v>J120381541</v>
-      </c>
-      <c r="B21" t="str">
-        <f>IFERROR(LEFT(系統!C22,FIND("(",系統!C22)-1),系統!C22)</f>
-        <v>李志平</v>
-      </c>
-      <c r="C21" t="str">
-        <f>系統!D22</f>
-        <v>鳳凰營業處</v>
+      <c r="A21" t="s">
+        <v>114</v>
+      </c>
+      <c r="B21" t="s">
+        <v>685</v>
+      </c>
+      <c r="C21" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A22" t="str">
-        <f>系統!E23</f>
-        <v>F126199599</v>
-      </c>
-      <c r="B22" t="str">
-        <f>IFERROR(LEFT(系統!C23,FIND("(",系統!C23)-1),系統!C23)</f>
-        <v>周富揚</v>
-      </c>
-      <c r="C22" t="str">
-        <f>系統!D23</f>
-        <v>鳳凰營業處</v>
+      <c r="A22" t="s">
+        <v>121</v>
+      </c>
+      <c r="B22" t="s">
+        <v>686</v>
+      </c>
+      <c r="C22" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A23" t="str">
-        <f>系統!E24</f>
-        <v>A123307361</v>
-      </c>
-      <c r="B23" t="str">
-        <f>IFERROR(LEFT(系統!C24,FIND("(",系統!C24)-1),系統!C24)</f>
-        <v>沈志偉</v>
-      </c>
-      <c r="C23" t="str">
-        <f>系統!D24</f>
-        <v>鳳凰營業處</v>
+      <c r="A23" t="s">
+        <v>128</v>
+      </c>
+      <c r="B23" t="s">
+        <v>687</v>
+      </c>
+      <c r="C23" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A24" t="str">
-        <f>系統!E25</f>
-        <v>F120762187</v>
-      </c>
-      <c r="B24" t="str">
-        <f>IFERROR(LEFT(系統!C25,FIND("(",系統!C25)-1),系統!C25)</f>
-        <v>林樹臏</v>
-      </c>
-      <c r="C24" t="str">
-        <f>系統!D25</f>
-        <v>鳳凰營業處</v>
+      <c r="A24" t="s">
+        <v>134</v>
+      </c>
+      <c r="B24" t="s">
+        <v>688</v>
+      </c>
+      <c r="C24" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A25" t="str">
-        <f>系統!E26</f>
-        <v>A127808378</v>
-      </c>
-      <c r="B25" t="str">
-        <f>IFERROR(LEFT(系統!C26,FIND("(",系統!C26)-1),系統!C26)</f>
-        <v>邱奕瑋</v>
-      </c>
-      <c r="C25" t="str">
-        <f>系統!D26</f>
-        <v>鳳凰營業處</v>
+      <c r="A25" t="s">
+        <v>139</v>
+      </c>
+      <c r="B25" t="s">
+        <v>689</v>
+      </c>
+      <c r="C25" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A26" t="str">
-        <f>系統!E27</f>
-        <v>A128337412</v>
-      </c>
-      <c r="B26" t="str">
-        <f>IFERROR(LEFT(系統!C27,FIND("(",系統!C27)-1),系統!C27)</f>
-        <v>謝長祐</v>
-      </c>
-      <c r="C26" t="str">
-        <f>系統!D27</f>
-        <v>鳳凰營業處</v>
+      <c r="A26" t="s">
+        <v>144</v>
+      </c>
+      <c r="B26" t="s">
+        <v>690</v>
+      </c>
+      <c r="C26" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A27" t="str">
-        <f>系統!E28</f>
-        <v>F226133182</v>
-      </c>
-      <c r="B27" t="str">
-        <f>IFERROR(LEFT(系統!C28,FIND("(",系統!C28)-1),系統!C28)</f>
-        <v>王儷餘</v>
-      </c>
-      <c r="C27" t="str">
-        <f>系統!D28</f>
-        <v>鳳凰營業處</v>
+      <c r="A27" t="s">
+        <v>149</v>
+      </c>
+      <c r="B27" t="s">
+        <v>691</v>
+      </c>
+      <c r="C27" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A28" t="str">
-        <f>系統!E29</f>
-        <v>A224643466</v>
-      </c>
-      <c r="B28" t="str">
-        <f>IFERROR(LEFT(系統!C29,FIND("(",系統!C29)-1),系統!C29)</f>
-        <v>余語瑩</v>
-      </c>
-      <c r="C28" t="str">
-        <f>系統!D29</f>
-        <v>鳳凰營業處</v>
+      <c r="A28" t="s">
+        <v>158</v>
+      </c>
+      <c r="B28" t="s">
+        <v>692</v>
+      </c>
+      <c r="C28" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A29" t="str">
-        <f>系統!E30</f>
-        <v>F226676557</v>
-      </c>
-      <c r="B29" t="str">
-        <f>IFERROR(LEFT(系統!C30,FIND("(",系統!C30)-1),系統!C30)</f>
-        <v>呂淑清</v>
-      </c>
-      <c r="C29" t="str">
-        <f>系統!D30</f>
-        <v>鳳凰營業處</v>
+      <c r="A29" t="s">
+        <v>163</v>
+      </c>
+      <c r="B29" t="s">
+        <v>693</v>
+      </c>
+      <c r="C29" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A30" t="str">
-        <f>系統!E31</f>
-        <v>A223101754</v>
-      </c>
-      <c r="B30" t="str">
-        <f>IFERROR(LEFT(系統!C31,FIND("(",系統!C31)-1),系統!C31)</f>
-        <v>郭美惠</v>
-      </c>
-      <c r="C30" t="str">
-        <f>系統!D31</f>
-        <v>鳳凰營業處</v>
+      <c r="A30" t="s">
+        <v>168</v>
+      </c>
+      <c r="B30" t="s">
+        <v>694</v>
+      </c>
+      <c r="C30" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A31" t="str">
-        <f>系統!E32</f>
-        <v>K220990749</v>
-      </c>
-      <c r="B31" t="str">
-        <f>IFERROR(LEFT(系統!C32,FIND("(",系統!C32)-1),系統!C32)</f>
-        <v>陳亭潔</v>
-      </c>
-      <c r="C31" t="str">
-        <f>系統!D32</f>
-        <v>鳳凰營業處</v>
+      <c r="A31" t="s">
+        <v>174</v>
+      </c>
+      <c r="B31" t="s">
+        <v>695</v>
+      </c>
+      <c r="C31" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A32" t="str">
-        <f>系統!E33</f>
-        <v>F102898184</v>
-      </c>
-      <c r="B32" t="str">
-        <f>IFERROR(LEFT(系統!C33,FIND("(",系統!C33)-1),系統!C33)</f>
-        <v>陳賢傑</v>
-      </c>
-      <c r="C32" t="str">
-        <f>系統!D33</f>
-        <v>鳳凰營業處</v>
+      <c r="A32" t="s">
+        <v>180</v>
+      </c>
+      <c r="B32" t="s">
+        <v>696</v>
+      </c>
+      <c r="C32" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A33" t="str">
-        <f>系統!E34</f>
-        <v>A127034305</v>
-      </c>
-      <c r="B33" t="str">
-        <f>IFERROR(LEFT(系統!C34,FIND("(",系統!C34)-1),系統!C34)</f>
-        <v>林溢恩</v>
-      </c>
-      <c r="C33" t="str">
-        <f>系統!D34</f>
-        <v>鳳凰營業處</v>
+      <c r="A33" t="s">
+        <v>186</v>
+      </c>
+      <c r="B33" t="s">
+        <v>697</v>
+      </c>
+      <c r="C33" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A34" t="str">
-        <f>系統!E35</f>
-        <v>A227368362</v>
-      </c>
-      <c r="B34" t="str">
-        <f>IFERROR(LEFT(系統!C35,FIND("(",系統!C35)-1),系統!C35)</f>
-        <v>余欣佳</v>
-      </c>
-      <c r="C34" t="str">
-        <f>系統!D35</f>
-        <v>鳳凰營業處</v>
+      <c r="A34" t="s">
+        <v>192</v>
+      </c>
+      <c r="B34" t="s">
+        <v>698</v>
+      </c>
+      <c r="C34" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A35" t="str">
-        <f>系統!E36</f>
-        <v>A127487379</v>
-      </c>
-      <c r="B35" t="str">
-        <f>IFERROR(LEFT(系統!C36,FIND("(",系統!C36)-1),系統!C36)</f>
-        <v>施憬諭</v>
-      </c>
-      <c r="C35" t="str">
-        <f>系統!D36</f>
-        <v>鳳凰營業處</v>
+      <c r="A35" t="s">
+        <v>197</v>
+      </c>
+      <c r="B35" t="s">
+        <v>699</v>
+      </c>
+      <c r="C35" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A36" t="str">
-        <f>系統!E37</f>
-        <v>T221873511</v>
-      </c>
-      <c r="B36" t="str">
-        <f>IFERROR(LEFT(系統!C37,FIND("(",系統!C37)-1),系統!C37)</f>
-        <v>蕭慧珍</v>
-      </c>
-      <c r="C36" t="str">
-        <f>系統!D37</f>
-        <v>鳳凰營業處</v>
+      <c r="A36" t="s">
+        <v>203</v>
+      </c>
+      <c r="B36" t="s">
+        <v>700</v>
+      </c>
+      <c r="C36" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A37" t="str">
-        <f>系統!E38</f>
-        <v>H220650711</v>
-      </c>
-      <c r="B37" t="str">
-        <f>IFERROR(LEFT(系統!C38,FIND("(",系統!C38)-1),系統!C38)</f>
-        <v>江明怡</v>
-      </c>
-      <c r="C37" t="str">
-        <f>系統!D38</f>
-        <v>鳳凰營業處</v>
+      <c r="A37" t="s">
+        <v>209</v>
+      </c>
+      <c r="B37" t="s">
+        <v>701</v>
+      </c>
+      <c r="C37" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A38" t="str">
-        <f>系統!E39</f>
-        <v>A227457631</v>
-      </c>
-      <c r="B38" t="str">
-        <f>IFERROR(LEFT(系統!C39,FIND("(",系統!C39)-1),系統!C39)</f>
-        <v>郭安皎</v>
-      </c>
-      <c r="C38" t="str">
-        <f>系統!D39</f>
-        <v>鳳凰營業處</v>
+      <c r="A38" t="s">
+        <v>214</v>
+      </c>
+      <c r="B38" t="s">
+        <v>702</v>
+      </c>
+      <c r="C38" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A39" t="str">
-        <f>系統!E40</f>
-        <v>S224502661</v>
-      </c>
-      <c r="B39" t="str">
-        <f>IFERROR(LEFT(系統!C40,FIND("(",系統!C40)-1),系統!C40)</f>
-        <v>黃琬翎</v>
-      </c>
-      <c r="C39" t="str">
-        <f>系統!D40</f>
-        <v>鳳凰營業處</v>
+      <c r="A39" t="s">
+        <v>220</v>
+      </c>
+      <c r="B39" t="s">
+        <v>703</v>
+      </c>
+      <c r="C39" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A40" t="str">
-        <f>系統!E41</f>
-        <v>F123406328</v>
-      </c>
-      <c r="B40" t="str">
-        <f>IFERROR(LEFT(系統!C41,FIND("(",系統!C41)-1),系統!C41)</f>
-        <v>賴芳延</v>
-      </c>
-      <c r="C40" t="str">
-        <f>系統!D41</f>
-        <v>鳳凰營業處</v>
+      <c r="A40" t="s">
+        <v>225</v>
+      </c>
+      <c r="B40" t="s">
+        <v>704</v>
+      </c>
+      <c r="C40" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A41" t="str">
-        <f>系統!E42</f>
-        <v>P201665028</v>
-      </c>
-      <c r="B41" t="str">
-        <f>IFERROR(LEFT(系統!C42,FIND("(",系統!C42)-1),系統!C42)</f>
-        <v>鍾茹伝</v>
-      </c>
-      <c r="C41" t="str">
-        <f>系統!D42</f>
-        <v>鳳凰營業處</v>
+      <c r="A41" t="s">
+        <v>230</v>
+      </c>
+      <c r="B41" t="s">
+        <v>705</v>
+      </c>
+      <c r="C41" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A42" t="str">
-        <f>系統!E43</f>
-        <v>N223078573</v>
-      </c>
-      <c r="B42" t="str">
-        <f>IFERROR(LEFT(系統!C43,FIND("(",系統!C43)-1),系統!C43)</f>
-        <v>王淑芳</v>
-      </c>
-      <c r="C42" t="str">
-        <f>系統!D43</f>
-        <v>鳳凰營業處</v>
+      <c r="A42" t="s">
+        <v>236</v>
+      </c>
+      <c r="B42" t="s">
+        <v>706</v>
+      </c>
+      <c r="C42" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A43" t="str">
-        <f>系統!E44</f>
-        <v>J220017879</v>
-      </c>
-      <c r="B43" t="str">
-        <f>IFERROR(LEFT(系統!C44,FIND("(",系統!C44)-1),系統!C44)</f>
-        <v>施沛綺</v>
-      </c>
-      <c r="C43" t="str">
-        <f>系統!D44</f>
-        <v>鳳凰營業處</v>
+      <c r="A43" t="s">
+        <v>241</v>
+      </c>
+      <c r="B43" t="s">
+        <v>707</v>
+      </c>
+      <c r="C43" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A44" t="str">
-        <f>系統!E45</f>
-        <v>L123000464</v>
-      </c>
-      <c r="B44" t="str">
-        <f>IFERROR(LEFT(系統!C45,FIND("(",系統!C45)-1),系統!C45)</f>
-        <v>劉育誠</v>
-      </c>
-      <c r="C44" t="str">
-        <f>系統!D45</f>
-        <v>鳳凰營業處</v>
+      <c r="A44" t="s">
+        <v>247</v>
+      </c>
+      <c r="B44" t="s">
+        <v>708</v>
+      </c>
+      <c r="C44" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A45" t="str">
-        <f>系統!E46</f>
-        <v>H221818584</v>
-      </c>
-      <c r="B45" t="str">
-        <f>IFERROR(LEFT(系統!C46,FIND("(",系統!C46)-1),系統!C46)</f>
-        <v>倪美臻</v>
-      </c>
-      <c r="C45" t="str">
-        <f>系統!D46</f>
-        <v>鳳凰營業處</v>
+      <c r="A45" t="s">
+        <v>254</v>
+      </c>
+      <c r="B45" t="s">
+        <v>709</v>
+      </c>
+      <c r="C45" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A46" t="str">
-        <f>系統!E47</f>
-        <v>K220325840</v>
-      </c>
-      <c r="B46" t="str">
-        <f>IFERROR(LEFT(系統!C47,FIND("(",系統!C47)-1),系統!C47)</f>
-        <v>張琦瑛</v>
-      </c>
-      <c r="C46" t="str">
-        <f>系統!D47</f>
-        <v>鳳凰營業處</v>
+      <c r="A46" t="s">
+        <v>260</v>
+      </c>
+      <c r="B46" t="s">
+        <v>710</v>
+      </c>
+      <c r="C46" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A47" t="str">
-        <f>系統!E48</f>
-        <v>S222293203</v>
-      </c>
-      <c r="B47" t="str">
-        <f>IFERROR(LEFT(系統!C48,FIND("(",系統!C48)-1),系統!C48)</f>
-        <v>潘慈筠</v>
-      </c>
-      <c r="C47" t="str">
-        <f>系統!D48</f>
-        <v>鳳凰營業處</v>
+      <c r="A47" t="s">
+        <v>266</v>
+      </c>
+      <c r="B47" t="s">
+        <v>711</v>
+      </c>
+      <c r="C47" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A48" t="str">
-        <f>系統!E49</f>
-        <v>L225390909</v>
-      </c>
-      <c r="B48" t="str">
-        <f>IFERROR(LEFT(系統!C49,FIND("(",系統!C49)-1),系統!C49)</f>
-        <v>蔡蕙芯</v>
-      </c>
-      <c r="C48" t="str">
-        <f>系統!D49</f>
-        <v>鳳凰營業處</v>
+      <c r="A48" t="s">
+        <v>272</v>
+      </c>
+      <c r="B48" t="s">
+        <v>712</v>
+      </c>
+      <c r="C48" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A49" t="str">
-        <f>系統!E50</f>
-        <v>A124484278</v>
-      </c>
-      <c r="B49" t="str">
-        <f>IFERROR(LEFT(系統!C50,FIND("(",系統!C50)-1),系統!C50)</f>
-        <v>郭安人</v>
-      </c>
-      <c r="C49" t="str">
-        <f>系統!D50</f>
-        <v>鳳凰營業處</v>
+      <c r="A49" t="s">
+        <v>277</v>
+      </c>
+      <c r="B49" t="s">
+        <v>713</v>
+      </c>
+      <c r="C49" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A50" t="str">
-        <f>系統!E51</f>
-        <v>K120824757</v>
-      </c>
-      <c r="B50" t="str">
-        <f>IFERROR(LEFT(系統!C51,FIND("(",系統!C51)-1),系統!C51)</f>
-        <v>田慶堂</v>
-      </c>
-      <c r="C50" t="str">
-        <f>系統!D51</f>
-        <v>鳳凰營業處</v>
+      <c r="A50" t="s">
+        <v>282</v>
+      </c>
+      <c r="B50" t="s">
+        <v>714</v>
+      </c>
+      <c r="C50" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A51" t="str">
-        <f>系統!E52</f>
-        <v>F126607443</v>
-      </c>
-      <c r="B51" t="str">
-        <f>IFERROR(LEFT(系統!C52,FIND("(",系統!C52)-1),系統!C52)</f>
-        <v>秦培淞</v>
-      </c>
-      <c r="C51" t="str">
-        <f>系統!D52</f>
-        <v>鳳凰營業處</v>
+      <c r="A51" t="s">
+        <v>287</v>
+      </c>
+      <c r="B51" t="s">
+        <v>715</v>
+      </c>
+      <c r="C51" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A52" t="str">
-        <f>系統!E53</f>
-        <v>B221720958</v>
-      </c>
-      <c r="B52" t="str">
-        <f>IFERROR(LEFT(系統!C53,FIND("(",系統!C53)-1),系統!C53)</f>
-        <v>簡衣妘</v>
-      </c>
-      <c r="C52" t="str">
-        <f>系統!D53</f>
-        <v>鳳凰營業處</v>
+      <c r="A52" t="s">
+        <v>293</v>
+      </c>
+      <c r="B52" t="s">
+        <v>716</v>
+      </c>
+      <c r="C52" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A53" t="str">
-        <f>系統!E54</f>
-        <v>H124690693</v>
-      </c>
-      <c r="B53" t="str">
-        <f>IFERROR(LEFT(系統!C54,FIND("(",系統!C54)-1),系統!C54)</f>
-        <v>黃建誠</v>
-      </c>
-      <c r="C53" t="str">
-        <f>系統!D54</f>
-        <v>鳳凰營業處</v>
+      <c r="A53" t="s">
+        <v>299</v>
+      </c>
+      <c r="B53" t="s">
+        <v>717</v>
+      </c>
+      <c r="C53" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A54" t="str">
-        <f>系統!E55</f>
-        <v>F290037457</v>
-      </c>
-      <c r="B54" t="str">
-        <f>IFERROR(LEFT(系統!C55,FIND("(",系統!C55)-1),系統!C55)</f>
-        <v>阮笠凌</v>
-      </c>
-      <c r="C54" t="str">
-        <f>系統!D55</f>
-        <v>鳳凰營業處</v>
+      <c r="A54" t="s">
+        <v>306</v>
+      </c>
+      <c r="B54" t="s">
+        <v>718</v>
+      </c>
+      <c r="C54" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A55" t="str">
-        <f>系統!E56</f>
-        <v>F223458468</v>
-      </c>
-      <c r="B55" t="str">
-        <f>IFERROR(LEFT(系統!C56,FIND("(",系統!C56)-1),系統!C56)</f>
-        <v>張家菁</v>
-      </c>
-      <c r="C55" t="str">
-        <f>系統!D56</f>
-        <v>鳳凰營業處</v>
+      <c r="A55" t="s">
+        <v>311</v>
+      </c>
+      <c r="B55" t="s">
+        <v>719</v>
+      </c>
+      <c r="C55" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A56" t="str">
-        <f>系統!E57</f>
-        <v>A127259142</v>
-      </c>
-      <c r="B56" t="str">
-        <f>IFERROR(LEFT(系統!C57,FIND("(",系統!C57)-1),系統!C57)</f>
-        <v>許建甫</v>
-      </c>
-      <c r="C56" t="str">
-        <f>系統!D57</f>
-        <v>鳳凰營業處</v>
+      <c r="A56" t="s">
+        <v>316</v>
+      </c>
+      <c r="B56" t="s">
+        <v>720</v>
+      </c>
+      <c r="C56" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A57" t="str">
-        <f>系統!E58</f>
-        <v>V120456883</v>
-      </c>
-      <c r="B57" t="str">
-        <f>IFERROR(LEFT(系統!C58,FIND("(",系統!C58)-1),系統!C58)</f>
-        <v>曠力誠</v>
-      </c>
-      <c r="C57" t="str">
-        <f>系統!D58</f>
-        <v>鳳凰營業處</v>
+      <c r="A57" t="s">
+        <v>322</v>
+      </c>
+      <c r="B57" t="s">
+        <v>721</v>
+      </c>
+      <c r="C57" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A58" t="str">
-        <f>系統!E59</f>
-        <v>Q120705528</v>
-      </c>
-      <c r="B58" t="str">
-        <f>IFERROR(LEFT(系統!C59,FIND("(",系統!C59)-1),系統!C59)</f>
-        <v>余聰惠</v>
-      </c>
-      <c r="C58" t="str">
-        <f>系統!D59</f>
-        <v>鳳凰營業處</v>
+      <c r="A58" t="s">
+        <v>327</v>
+      </c>
+      <c r="B58" t="s">
+        <v>722</v>
+      </c>
+      <c r="C58" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A59" t="str">
-        <f>系統!E60</f>
-        <v>F800143304</v>
-      </c>
-      <c r="B59" t="str">
-        <f>IFERROR(LEFT(系統!C60,FIND("(",系統!C60)-1),系統!C60)</f>
-        <v>林尚安</v>
-      </c>
-      <c r="C59" t="str">
-        <f>系統!D60</f>
-        <v>鳳凰營業處</v>
+      <c r="A59" t="s">
+        <v>333</v>
+      </c>
+      <c r="B59" t="s">
+        <v>723</v>
+      </c>
+      <c r="C59" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A60" t="str">
-        <f>系統!E61</f>
-        <v>N223343020</v>
-      </c>
-      <c r="B60" t="str">
-        <f>IFERROR(LEFT(系統!C61,FIND("(",系統!C61)-1),系統!C61)</f>
-        <v>蕭茜翎</v>
-      </c>
-      <c r="C60" t="str">
-        <f>系統!D61</f>
-        <v>鳳凰營業處</v>
+      <c r="A60" t="s">
+        <v>339</v>
+      </c>
+      <c r="B60" t="s">
+        <v>724</v>
+      </c>
+      <c r="C60" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A61" t="str">
-        <f>系統!E62</f>
-        <v>A220844734</v>
-      </c>
-      <c r="B61" t="str">
-        <f>IFERROR(LEFT(系統!C62,FIND("(",系統!C62)-1),系統!C62)</f>
-        <v>林美雲</v>
-      </c>
-      <c r="C61" t="str">
-        <f>系統!D62</f>
-        <v>鳳凰營業處</v>
+      <c r="A61" t="s">
+        <v>343</v>
+      </c>
+      <c r="B61" t="s">
+        <v>725</v>
+      </c>
+      <c r="C61" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A62" t="str">
-        <f>系統!E63</f>
-        <v>A225113716</v>
-      </c>
-      <c r="B62" t="str">
-        <f>IFERROR(LEFT(系統!C63,FIND("(",系統!C63)-1),系統!C63)</f>
-        <v>林毅華</v>
-      </c>
-      <c r="C62" t="str">
-        <f>系統!D63</f>
-        <v>鳳凰營業處</v>
+      <c r="A62" t="s">
+        <v>348</v>
+      </c>
+      <c r="B62" t="s">
+        <v>726</v>
+      </c>
+      <c r="C62" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A63" t="str">
-        <f>系統!E64</f>
-        <v>L220554065</v>
-      </c>
-      <c r="B63" t="str">
-        <f>IFERROR(LEFT(系統!C64,FIND("(",系統!C64)-1),系統!C64)</f>
-        <v>莊睿庭</v>
-      </c>
-      <c r="C63" t="str">
-        <f>系統!D64</f>
-        <v>鳳凰營業處</v>
+      <c r="A63" t="s">
+        <v>352</v>
+      </c>
+      <c r="B63" t="s">
+        <v>727</v>
+      </c>
+      <c r="C63" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A64" t="str">
-        <f>系統!E65</f>
-        <v>A226071646</v>
-      </c>
-      <c r="B64" t="str">
-        <f>IFERROR(LEFT(系統!C65,FIND("(",系統!C65)-1),系統!C65)</f>
-        <v>陳怜妤</v>
-      </c>
-      <c r="C64" t="str">
-        <f>系統!D65</f>
-        <v>鳳凰營業處</v>
+      <c r="A64" t="s">
+        <v>357</v>
+      </c>
+      <c r="B64" t="s">
+        <v>728</v>
+      </c>
+      <c r="C64" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A65" t="str">
-        <f>系統!E66</f>
-        <v>Q123674119</v>
-      </c>
-      <c r="B65" t="str">
-        <f>IFERROR(LEFT(系統!C66,FIND("(",系統!C66)-1),系統!C66)</f>
-        <v>黃浡承</v>
-      </c>
-      <c r="C65" t="str">
-        <f>系統!D66</f>
-        <v>鳳凰營業處</v>
+      <c r="A65" t="s">
+        <v>362</v>
+      </c>
+      <c r="B65" t="s">
+        <v>729</v>
+      </c>
+      <c r="C65" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A66" t="str">
-        <f>系統!E67</f>
-        <v>A227257140</v>
-      </c>
-      <c r="B66" t="str">
-        <f>IFERROR(LEFT(系統!C67,FIND("(",系統!C67)-1),系統!C67)</f>
-        <v>賴佩珍</v>
-      </c>
-      <c r="C66" t="str">
-        <f>系統!D67</f>
-        <v>鳳凰營業處</v>
+      <c r="A66" t="s">
+        <v>368</v>
+      </c>
+      <c r="B66" t="s">
+        <v>730</v>
+      </c>
+      <c r="C66" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A67" t="str">
-        <f>系統!E68</f>
-        <v>P223555825</v>
-      </c>
-      <c r="B67" t="str">
-        <f>IFERROR(LEFT(系統!C68,FIND("(",系統!C68)-1),系統!C68)</f>
-        <v>林泫琋</v>
-      </c>
-      <c r="C67" t="str">
-        <f>系統!D68</f>
-        <v>鳳凰營業處</v>
+      <c r="A67" t="s">
+        <v>374</v>
+      </c>
+      <c r="B67" t="s">
+        <v>731</v>
+      </c>
+      <c r="C67" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A68" t="str">
-        <f>系統!E69</f>
-        <v>F228505455</v>
-      </c>
-      <c r="B68" t="str">
-        <f>IFERROR(LEFT(系統!C69,FIND("(",系統!C69)-1),系統!C69)</f>
-        <v>葉俐伶</v>
-      </c>
-      <c r="C68" t="str">
-        <f>系統!D69</f>
-        <v>鳳凰營業處</v>
+      <c r="A68" t="s">
+        <v>380</v>
+      </c>
+      <c r="B68" t="s">
+        <v>732</v>
+      </c>
+      <c r="C68" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A69" t="str">
-        <f>系統!E70</f>
-        <v>B221922676</v>
-      </c>
-      <c r="B69" t="str">
-        <f>IFERROR(LEFT(系統!C70,FIND("(",系統!C70)-1),系統!C70)</f>
-        <v>侯宗萱</v>
-      </c>
-      <c r="C69" t="str">
-        <f>系統!D70</f>
-        <v>鳳凰營業處</v>
+      <c r="A69" t="s">
+        <v>387</v>
+      </c>
+      <c r="B69" t="s">
+        <v>733</v>
+      </c>
+      <c r="C69" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A70" t="str">
-        <f>系統!E71</f>
-        <v>G122534762</v>
-      </c>
-      <c r="B70" t="str">
-        <f>IFERROR(LEFT(系統!C71,FIND("(",系統!C71)-1),系統!C71)</f>
-        <v>陳宥任</v>
-      </c>
-      <c r="C70" t="str">
-        <f>系統!D71</f>
-        <v>鳳凰營業處</v>
+      <c r="A70" t="s">
+        <v>392</v>
+      </c>
+      <c r="B70" t="s">
+        <v>734</v>
+      </c>
+      <c r="C70" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A71" t="str">
-        <f>系統!E72</f>
-        <v>A225415840</v>
-      </c>
-      <c r="B71" t="str">
-        <f>IFERROR(LEFT(系統!C72,FIND("(",系統!C72)-1),系統!C72)</f>
-        <v>黃韻竹</v>
-      </c>
-      <c r="C71" t="str">
-        <f>系統!D72</f>
-        <v>鳳凰營業處</v>
+      <c r="A71" t="s">
+        <v>397</v>
+      </c>
+      <c r="B71" t="s">
+        <v>735</v>
+      </c>
+      <c r="C71" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A72" t="str">
-        <f>系統!E73</f>
-        <v>N124159057</v>
-      </c>
-      <c r="B72" t="str">
-        <f>IFERROR(LEFT(系統!C73,FIND("(",系統!C73)-1),系統!C73)</f>
-        <v>鄧士明</v>
-      </c>
-      <c r="C72" t="str">
-        <f>系統!D73</f>
-        <v>鳳凰營業處</v>
+      <c r="A72" t="s">
+        <v>403</v>
+      </c>
+      <c r="B72" t="s">
+        <v>736</v>
+      </c>
+      <c r="C72" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A73" t="str">
-        <f>系統!E74</f>
-        <v>A226564388</v>
-      </c>
-      <c r="B73" t="str">
-        <f>IFERROR(LEFT(系統!C74,FIND("(",系統!C74)-1),系統!C74)</f>
-        <v>曾宜婕</v>
-      </c>
-      <c r="C73" t="str">
-        <f>系統!D74</f>
-        <v>鳳凰營業處</v>
+      <c r="A73" t="s">
+        <v>408</v>
+      </c>
+      <c r="B73" t="s">
+        <v>737</v>
+      </c>
+      <c r="C73" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A74" t="str">
-        <f>系統!E75</f>
-        <v>S120140707</v>
-      </c>
-      <c r="B74" t="str">
-        <f>IFERROR(LEFT(系統!C75,FIND("(",系統!C75)-1),系統!C75)</f>
-        <v>蔡富川</v>
-      </c>
-      <c r="C74" t="str">
-        <f>系統!D75</f>
-        <v>鳳凰營業處</v>
+      <c r="A74" t="s">
+        <v>413</v>
+      </c>
+      <c r="B74" t="s">
+        <v>738</v>
+      </c>
+      <c r="C74" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A75" t="str">
-        <f>系統!E76</f>
-        <v>X220154028</v>
-      </c>
-      <c r="B75" t="str">
-        <f>IFERROR(LEFT(系統!C76,FIND("(",系統!C76)-1),系統!C76)</f>
-        <v>王琇瑛</v>
-      </c>
-      <c r="C75" t="str">
-        <f>系統!D76</f>
-        <v>鳳凰營業處</v>
+      <c r="A75" t="s">
+        <v>418</v>
+      </c>
+      <c r="B75" t="s">
+        <v>739</v>
+      </c>
+      <c r="C75" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A76" t="str">
-        <f>系統!E77</f>
-        <v>M220657982</v>
-      </c>
-      <c r="B76" t="str">
-        <f>IFERROR(LEFT(系統!C77,FIND("(",系統!C77)-1),系統!C77)</f>
-        <v>林華真</v>
-      </c>
-      <c r="C76" t="str">
-        <f>系統!D77</f>
-        <v>鳳凰營業處</v>
+      <c r="A76" t="s">
+        <v>424</v>
+      </c>
+      <c r="B76" t="s">
+        <v>740</v>
+      </c>
+      <c r="C76" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A77" t="str">
-        <f>系統!E78</f>
-        <v>A126337754</v>
-      </c>
-      <c r="B77" t="str">
-        <f>IFERROR(LEFT(系統!C78,FIND("(",系統!C78)-1),系統!C78)</f>
-        <v>林忠毅</v>
-      </c>
-      <c r="C77" t="str">
-        <f>系統!D78</f>
-        <v>鳳凰營業處</v>
+      <c r="A77" t="s">
+        <v>430</v>
+      </c>
+      <c r="B77" t="s">
+        <v>741</v>
+      </c>
+      <c r="C77" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A78" t="str">
-        <f>系統!E79</f>
-        <v>H222824317</v>
-      </c>
-      <c r="B78" t="str">
-        <f>IFERROR(LEFT(系統!C79,FIND("(",系統!C79)-1),系統!C79)</f>
-        <v>許妍羚</v>
-      </c>
-      <c r="C78" t="str">
-        <f>系統!D79</f>
-        <v>鳳凰營業處</v>
+      <c r="A78" t="s">
+        <v>437</v>
+      </c>
+      <c r="B78" t="s">
+        <v>742</v>
+      </c>
+      <c r="C78" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A79" t="str">
-        <f>系統!E80</f>
-        <v>A200111869</v>
-      </c>
-      <c r="B79" t="str">
-        <f>IFERROR(LEFT(系統!C80,FIND("(",系統!C80)-1),系統!C80)</f>
-        <v>余廖春子</v>
-      </c>
-      <c r="C79" t="str">
-        <f>系統!D80</f>
-        <v>鳳凰營業處</v>
+      <c r="A79" t="s">
+        <v>443</v>
+      </c>
+      <c r="B79" t="s">
+        <v>743</v>
+      </c>
+      <c r="C79" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A80" t="str">
-        <f>系統!E81</f>
-        <v>Q123146414</v>
-      </c>
-      <c r="B80" t="str">
-        <f>IFERROR(LEFT(系統!C81,FIND("(",系統!C81)-1),系統!C81)</f>
-        <v>張偉哲</v>
-      </c>
-      <c r="C80" t="str">
-        <f>系統!D81</f>
-        <v>鳳凰營業處</v>
+      <c r="A80" t="s">
+        <v>449</v>
+      </c>
+      <c r="B80" t="s">
+        <v>744</v>
+      </c>
+      <c r="C80" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A81" t="str">
-        <f>系統!E82</f>
-        <v>A122825566</v>
-      </c>
-      <c r="B81" t="str">
-        <f>IFERROR(LEFT(系統!C82,FIND("(",系統!C82)-1),系統!C82)</f>
-        <v>胡晴緹</v>
-      </c>
-      <c r="C81" t="str">
-        <f>系統!D82</f>
-        <v>鳳凰營業處</v>
+      <c r="A81" t="s">
+        <v>455</v>
+      </c>
+      <c r="B81" t="s">
+        <v>745</v>
+      </c>
+      <c r="C81" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A82" t="str">
-        <f>系統!E83</f>
-        <v>H102147040</v>
-      </c>
-      <c r="B82" t="str">
-        <f>IFERROR(LEFT(系統!C83,FIND("(",系統!C83)-1),系統!C83)</f>
-        <v>劉瑞品</v>
-      </c>
-      <c r="C82" t="str">
-        <f>系統!D83</f>
-        <v>鳳凰營業處</v>
+      <c r="A82" t="s">
+        <v>460</v>
+      </c>
+      <c r="B82" t="s">
+        <v>746</v>
+      </c>
+      <c r="C82" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A83" t="str">
-        <f>系統!E84</f>
-        <v>F126209670</v>
-      </c>
-      <c r="B83" t="str">
-        <f>IFERROR(LEFT(系統!C84,FIND("(",系統!C84)-1),系統!C84)</f>
-        <v>張子丰</v>
-      </c>
-      <c r="C83" t="str">
-        <f>系統!D84</f>
-        <v>鳳凰營業處</v>
+      <c r="A83" t="s">
+        <v>466</v>
+      </c>
+      <c r="B83" t="s">
+        <v>747</v>
+      </c>
+      <c r="C83" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A84" t="str">
-        <f>系統!E85</f>
-        <v>C120594864</v>
-      </c>
-      <c r="B84" t="str">
-        <f>IFERROR(LEFT(系統!C85,FIND("(",系統!C85)-1),系統!C85)</f>
-        <v>王瑞騰</v>
-      </c>
-      <c r="C84" t="str">
-        <f>系統!D85</f>
-        <v>鳳凰營業處</v>
+      <c r="A84" t="s">
+        <v>472</v>
+      </c>
+      <c r="B84" t="s">
+        <v>748</v>
+      </c>
+      <c r="C84" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A85" t="str">
-        <f>系統!E86</f>
-        <v>C120789345</v>
-      </c>
-      <c r="B85" t="str">
-        <f>IFERROR(LEFT(系統!C86,FIND("(",系統!C86)-1),系統!C86)</f>
-        <v>徐誠憶</v>
-      </c>
-      <c r="C85" t="str">
-        <f>系統!D86</f>
-        <v>鳳凰營業處</v>
+      <c r="A85" t="s">
+        <v>477</v>
+      </c>
+      <c r="B85" t="s">
+        <v>749</v>
+      </c>
+      <c r="C85" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A86" t="str">
-        <f>系統!E87</f>
-        <v>A221850656</v>
-      </c>
-      <c r="B86" t="str">
-        <f>IFERROR(LEFT(系統!C87,FIND("(",系統!C87)-1),系統!C87)</f>
-        <v>林豈妏</v>
-      </c>
-      <c r="C86" t="str">
-        <f>系統!D87</f>
-        <v>鳳凰營業處</v>
+      <c r="A86" t="s">
+        <v>483</v>
+      </c>
+      <c r="B86" t="s">
+        <v>750</v>
+      </c>
+      <c r="C86" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A87" t="str">
-        <f>系統!E88</f>
-        <v>E221033300</v>
-      </c>
-      <c r="B87" t="str">
-        <f>IFERROR(LEFT(系統!C88,FIND("(",系統!C88)-1),系統!C88)</f>
-        <v>蔡宜汶</v>
-      </c>
-      <c r="C87" t="str">
-        <f>系統!D88</f>
-        <v>鳳凰營業處</v>
+      <c r="A87" t="s">
+        <v>489</v>
+      </c>
+      <c r="B87" t="s">
+        <v>751</v>
+      </c>
+      <c r="C87" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A88" t="str">
-        <f>系統!E89</f>
-        <v>C120486929</v>
-      </c>
-      <c r="B88" t="str">
-        <f>IFERROR(LEFT(系統!C89,FIND("(",系統!C89)-1),系統!C89)</f>
-        <v>陳定濱</v>
-      </c>
-      <c r="C88" t="str">
-        <f>系統!D89</f>
-        <v>鳳凰營業處</v>
+      <c r="A88" t="s">
+        <v>496</v>
+      </c>
+      <c r="B88" t="s">
+        <v>752</v>
+      </c>
+      <c r="C88" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A89" t="str">
-        <f>系統!E90</f>
-        <v>C200163641</v>
-      </c>
-      <c r="B89" t="str">
-        <f>IFERROR(LEFT(系統!C90,FIND("(",系統!C90)-1),系統!C90)</f>
-        <v>高美麗</v>
-      </c>
-      <c r="C89" t="str">
-        <f>系統!D90</f>
-        <v>鳳凰營業處</v>
+      <c r="A89" t="s">
+        <v>502</v>
+      </c>
+      <c r="B89" t="s">
+        <v>753</v>
+      </c>
+      <c r="C89" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A90" t="str">
-        <f>系統!E91</f>
-        <v>C220814345</v>
-      </c>
-      <c r="B90" t="str">
-        <f>IFERROR(LEFT(系統!C91,FIND("(",系統!C91)-1),系統!C91)</f>
-        <v>林惠子</v>
-      </c>
-      <c r="C90" t="str">
-        <f>系統!D91</f>
-        <v>鳳凰營業處</v>
+      <c r="A90" t="s">
+        <v>508</v>
+      </c>
+      <c r="B90" t="s">
+        <v>754</v>
+      </c>
+      <c r="C90" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A91" t="str">
-        <f>系統!E92</f>
-        <v>M220650170</v>
-      </c>
-      <c r="B91" t="str">
-        <f>IFERROR(LEFT(系統!C92,FIND("(",系統!C92)-1),系統!C92)</f>
-        <v>林雅芳</v>
-      </c>
-      <c r="C91" t="str">
-        <f>系統!D92</f>
-        <v>鳳凰營業處</v>
+      <c r="A91" t="s">
+        <v>514</v>
+      </c>
+      <c r="B91" t="s">
+        <v>755</v>
+      </c>
+      <c r="C91" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A92" t="str">
-        <f>系統!E93</f>
-        <v>T200502464</v>
-      </c>
-      <c r="B92" t="str">
-        <f>IFERROR(LEFT(系統!C93,FIND("(",系統!C93)-1),系統!C93)</f>
-        <v>蔡胡錦霞</v>
-      </c>
-      <c r="C92" t="str">
-        <f>系統!D93</f>
-        <v>鳳凰營業處</v>
+      <c r="A92" t="s">
+        <v>520</v>
+      </c>
+      <c r="B92" t="s">
+        <v>756</v>
+      </c>
+      <c r="C92" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A93" t="str">
-        <f>系統!E94</f>
-        <v>R223261624</v>
-      </c>
-      <c r="B93" t="str">
-        <f>IFERROR(LEFT(系統!C94,FIND("(",系統!C94)-1),系統!C94)</f>
-        <v>吳庭筠</v>
-      </c>
-      <c r="C93" t="str">
-        <f>系統!D94</f>
-        <v>鳳凰營業處</v>
+      <c r="A93" t="s">
+        <v>526</v>
+      </c>
+      <c r="B93" t="s">
+        <v>757</v>
+      </c>
+      <c r="C93" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A94" t="str">
-        <f>系統!E95</f>
-        <v>J221830965</v>
-      </c>
-      <c r="B94" t="str">
-        <f>IFERROR(LEFT(系統!C95,FIND("(",系統!C95)-1),系統!C95)</f>
-        <v>楊容琳</v>
-      </c>
-      <c r="C94" t="str">
-        <f>系統!D95</f>
-        <v>鳳凰營業處</v>
+      <c r="A94" t="s">
+        <v>532</v>
+      </c>
+      <c r="B94" t="s">
+        <v>758</v>
+      </c>
+      <c r="C94" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A95" t="str">
-        <f>系統!E96</f>
-        <v>G221860292</v>
-      </c>
-      <c r="B95" t="str">
-        <f>IFERROR(LEFT(系統!C96,FIND("(",系統!C96)-1),系統!C96)</f>
-        <v>陳思妤</v>
-      </c>
-      <c r="C95" t="str">
-        <f>系統!D96</f>
-        <v>鳳凰營業處</v>
+      <c r="A95" t="s">
+        <v>539</v>
+      </c>
+      <c r="B95" t="s">
+        <v>759</v>
+      </c>
+      <c r="C95" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A96" t="str">
-        <f>系統!E97</f>
-        <v>F224878393</v>
-      </c>
-      <c r="B96" t="str">
-        <f>IFERROR(LEFT(系統!C97,FIND("(",系統!C97)-1),系統!C97)</f>
-        <v>張豑云</v>
-      </c>
-      <c r="C96" t="str">
-        <f>系統!D97</f>
-        <v>鳳凰營業處</v>
+      <c r="A96" t="s">
+        <v>544</v>
+      </c>
+      <c r="B96" t="s">
+        <v>760</v>
+      </c>
+      <c r="C96" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A97" t="str">
-        <f>系統!E98</f>
-        <v>H220075469</v>
-      </c>
-      <c r="B97" t="str">
-        <f>IFERROR(LEFT(系統!C98,FIND("(",系統!C98)-1),系統!C98)</f>
-        <v>游劍羽</v>
-      </c>
-      <c r="C97" t="str">
-        <f>系統!D98</f>
-        <v>鳳凰營業處</v>
+      <c r="A97" t="s">
+        <v>548</v>
+      </c>
+      <c r="B97" t="s">
+        <v>761</v>
+      </c>
+      <c r="C97" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A98" t="str">
-        <f>系統!E99</f>
-        <v>F229043309</v>
-      </c>
-      <c r="B98" t="str">
-        <f>IFERROR(LEFT(系統!C99,FIND("(",系統!C99)-1),系統!C99)</f>
-        <v>施如耘</v>
-      </c>
-      <c r="C98" t="str">
-        <f>系統!D99</f>
-        <v>鳳凰營業處</v>
+      <c r="A98" t="s">
+        <v>554</v>
+      </c>
+      <c r="B98" t="s">
+        <v>762</v>
+      </c>
+      <c r="C98" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A99" t="str">
-        <f>系統!E100</f>
-        <v>H202277518</v>
-      </c>
-      <c r="B99" t="str">
-        <f>IFERROR(LEFT(系統!C100,FIND("(",系統!C100)-1),系統!C100)</f>
-        <v>江許月娥</v>
-      </c>
-      <c r="C99" t="str">
-        <f>系統!D100</f>
-        <v>鳳凰營業處</v>
+      <c r="A99" t="s">
+        <v>559</v>
+      </c>
+      <c r="B99" t="s">
+        <v>763</v>
+      </c>
+      <c r="C99" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A100" t="str">
-        <f>系統!E101</f>
-        <v>A122023277</v>
-      </c>
-      <c r="B100" t="str">
-        <f>IFERROR(LEFT(系統!C101,FIND("(",系統!C101)-1),系統!C101)</f>
-        <v>鄭玉章</v>
-      </c>
-      <c r="C100" t="str">
-        <f>系統!D101</f>
-        <v>卓越營業處</v>
+      <c r="A100" t="s">
+        <v>566</v>
+      </c>
+      <c r="B100" t="s">
+        <v>764</v>
+      </c>
+      <c r="C100" t="s">
+        <v>565</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A101" t="str">
-        <f>系統!E102</f>
-        <v>A223236207</v>
-      </c>
-      <c r="B101" t="str">
-        <f>IFERROR(LEFT(系統!C102,FIND("(",系統!C102)-1),系統!C102)</f>
-        <v>柯沛涵</v>
-      </c>
-      <c r="C101" t="str">
-        <f>系統!D102</f>
-        <v>卓越營業處</v>
+      <c r="A101" t="s">
+        <v>571</v>
+      </c>
+      <c r="B101" t="s">
+        <v>765</v>
+      </c>
+      <c r="C101" t="s">
+        <v>565</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A102" t="str">
-        <f>系統!E103</f>
-        <v>A222207051</v>
-      </c>
-      <c r="B102" t="str">
-        <f>IFERROR(LEFT(系統!C103,FIND("(",系統!C103)-1),系統!C103)</f>
-        <v>陳文琴</v>
-      </c>
-      <c r="C102" t="str">
-        <f>系統!D103</f>
-        <v>卓越營業處</v>
+      <c r="A102" t="s">
+        <v>577</v>
+      </c>
+      <c r="B102" t="s">
+        <v>766</v>
+      </c>
+      <c r="C102" t="s">
+        <v>565</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A103" t="str">
-        <f>系統!E104</f>
-        <v>S121213094</v>
-      </c>
-      <c r="B103" t="str">
-        <f>IFERROR(LEFT(系統!C104,FIND("(",系統!C104)-1),系統!C104)</f>
-        <v>鄭宗安</v>
-      </c>
-      <c r="C103" t="str">
-        <f>系統!D104</f>
-        <v>鄭宗安營業處</v>
+      <c r="A103" t="s">
+        <v>584</v>
+      </c>
+      <c r="B103" t="s">
+        <v>767</v>
+      </c>
+      <c r="C103" t="s">
+        <v>583</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A104" t="str">
-        <f>系統!E105</f>
-        <v>AG120381227</v>
-      </c>
-      <c r="B104" t="str">
-        <f>IFERROR(LEFT(系統!C105,FIND("(",系統!C105)-1),系統!C105)</f>
-        <v>謝守席</v>
-      </c>
-      <c r="C104" t="str">
-        <f>系統!D105</f>
-        <v>鄭宗安營業處</v>
+      <c r="A104" t="s">
+        <v>589</v>
+      </c>
+      <c r="B104" t="s">
+        <v>768</v>
+      </c>
+      <c r="C104" t="s">
+        <v>583</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A105" t="str">
-        <f>系統!E106</f>
-        <v>A121486225</v>
-      </c>
-      <c r="B105" t="str">
-        <f>IFERROR(LEFT(系統!C106,FIND("(",系統!C106)-1),系統!C106)</f>
-        <v>吳文昆</v>
-      </c>
-      <c r="C105" t="str">
-        <f>系統!D106</f>
-        <v>鄭宗安營業處</v>
+      <c r="A105" t="s">
+        <v>594</v>
+      </c>
+      <c r="B105" t="s">
+        <v>769</v>
+      </c>
+      <c r="C105" t="s">
+        <v>583</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A106" t="str">
-        <f>系統!E107</f>
-        <v>H120183286</v>
-      </c>
-      <c r="B106" t="str">
-        <f>IFERROR(LEFT(系統!C107,FIND("(",系統!C107)-1),系統!C107)</f>
-        <v>陳逸政</v>
-      </c>
-      <c r="C106" t="str">
-        <f>系統!D107</f>
-        <v>鄭宗安營業處</v>
+      <c r="A106" t="s">
+        <v>600</v>
+      </c>
+      <c r="B106" t="s">
+        <v>770</v>
+      </c>
+      <c r="C106" t="s">
+        <v>583</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A107" t="str">
-        <f>系統!E108</f>
-        <v>G220792017</v>
-      </c>
-      <c r="B107" t="str">
-        <f>IFERROR(LEFT(系統!C108,FIND("(",系統!C108)-1),系統!C108)</f>
-        <v>張美珠</v>
-      </c>
-      <c r="C107" t="str">
-        <f>系統!D108</f>
-        <v>鄭宗安營業處</v>
+      <c r="A107" t="s">
+        <v>606</v>
+      </c>
+      <c r="B107" t="s">
+        <v>771</v>
+      </c>
+      <c r="C107" t="s">
+        <v>583</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A108" t="str">
-        <f>系統!E109</f>
-        <v>A221764557</v>
-      </c>
-      <c r="B108" t="str">
-        <f>IFERROR(LEFT(系統!C109,FIND("(",系統!C109)-1),系統!C109)</f>
-        <v>王藝臻</v>
-      </c>
-      <c r="C108" t="str">
-        <f>系統!D109</f>
-        <v>儷寶營業處</v>
+      <c r="A108" t="s">
+        <v>613</v>
+      </c>
+      <c r="B108" t="s">
+        <v>772</v>
+      </c>
+      <c r="C108" t="s">
+        <v>612</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A109" t="str">
-        <f>系統!E110</f>
-        <v>E120516906</v>
-      </c>
-      <c r="B109" t="str">
-        <f>IFERROR(LEFT(系統!C110,FIND("(",系統!C110)-1),系統!C110)</f>
-        <v>施華生</v>
-      </c>
-      <c r="C109" t="str">
-        <f>系統!D110</f>
-        <v>儷寶營業處</v>
+      <c r="A109" t="s">
+        <v>618</v>
+      </c>
+      <c r="B109" t="s">
+        <v>773</v>
+      </c>
+      <c r="C109" t="s">
+        <v>612</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A110" t="str">
-        <f>系統!E111</f>
-        <v>Q220525120</v>
-      </c>
-      <c r="B110" t="str">
-        <f>IFERROR(LEFT(系統!C111,FIND("(",系統!C111)-1),系統!C111)</f>
-        <v>蕭婕鎂</v>
-      </c>
-      <c r="C110" t="str">
-        <f>系統!D111</f>
-        <v>儷寶營業處</v>
+      <c r="A110" t="s">
+        <v>624</v>
+      </c>
+      <c r="B110" t="s">
+        <v>774</v>
+      </c>
+      <c r="C110" t="s">
+        <v>612</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A111" t="str">
-        <f>系統!E112</f>
-        <v>F220233343</v>
-      </c>
-      <c r="B111" t="str">
-        <f>IFERROR(LEFT(系統!C112,FIND("(",系統!C112)-1),系統!C112)</f>
-        <v>吳連娣</v>
-      </c>
-      <c r="C111" t="str">
-        <f>系統!D112</f>
-        <v>儷寶營業處</v>
+      <c r="A111" t="s">
+        <v>630</v>
+      </c>
+      <c r="B111" t="s">
+        <v>775</v>
+      </c>
+      <c r="C111" t="s">
+        <v>612</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A112" t="str">
-        <f>系統!E113</f>
-        <v>Q220631865</v>
-      </c>
-      <c r="B112" t="str">
-        <f>IFERROR(LEFT(系統!C113,FIND("(",系統!C113)-1),系統!C113)</f>
-        <v>柳秋梅</v>
-      </c>
-      <c r="C112" t="str">
-        <f>系統!D113</f>
-        <v>儷寶營業處</v>
+      <c r="A112" t="s">
+        <v>635</v>
+      </c>
+      <c r="B112" t="s">
+        <v>776</v>
+      </c>
+      <c r="C112" t="s">
+        <v>612</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A113" t="str">
-        <f>系統!E114</f>
-        <v>E221166662</v>
-      </c>
-      <c r="B113" t="str">
-        <f>IFERROR(LEFT(系統!C114,FIND("(",系統!C114)-1),系統!C114)</f>
-        <v>張品竹</v>
-      </c>
-      <c r="C113" t="str">
-        <f>系統!D114</f>
-        <v>利百佳營業處</v>
+      <c r="A113" t="s">
+        <v>641</v>
+      </c>
+      <c r="B113" t="s">
+        <v>777</v>
+      </c>
+      <c r="C113" t="s">
+        <v>640</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A114" t="str">
-        <f>系統!E115</f>
-        <v>C120217728</v>
-      </c>
-      <c r="B114" t="str">
-        <f>IFERROR(LEFT(系統!C115,FIND("(",系統!C115)-1),系統!C115)</f>
-        <v>莊讚祥</v>
-      </c>
-      <c r="C114" t="str">
-        <f>系統!D115</f>
-        <v>利百佳營業處</v>
+      <c r="A114" t="s">
+        <v>647</v>
+      </c>
+      <c r="B114" t="s">
+        <v>778</v>
+      </c>
+      <c r="C114" t="s">
+        <v>640</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A115" t="str">
-        <f>系統!E116</f>
-        <v>F126403598</v>
-      </c>
-      <c r="B115" t="str">
-        <f>IFERROR(LEFT(系統!C116,FIND("(",系統!C116)-1),系統!C116)</f>
-        <v>陳韋滔</v>
-      </c>
-      <c r="C115" t="str">
-        <f>系統!D116</f>
-        <v>星啓方舟營業處</v>
+      <c r="A115" t="s">
+        <v>654</v>
+      </c>
+      <c r="B115" t="s">
+        <v>779</v>
+      </c>
+      <c r="C115" t="s">
+        <v>653</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A116" t="str">
-        <f>系統!E117</f>
-        <v>F127709919</v>
-      </c>
-      <c r="B116" t="str">
-        <f>IFERROR(LEFT(系統!C117,FIND("(",系統!C117)-1),系統!C117)</f>
-        <v>林忠衡</v>
-      </c>
-      <c r="C116" t="str">
-        <f>系統!D117</f>
-        <v>星啓方舟營業處</v>
+      <c r="A116" t="s">
+        <v>659</v>
+      </c>
+      <c r="B116" t="s">
+        <v>780</v>
+      </c>
+      <c r="C116" t="s">
+        <v>653</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A117" t="str">
-        <f>系統!E118</f>
-        <v>N125483605</v>
-      </c>
-      <c r="B117" t="str">
-        <f>IFERROR(LEFT(系統!C118,FIND("(",系統!C118)-1),系統!C118)</f>
-        <v>賴彥碩</v>
-      </c>
-      <c r="C117" t="str">
-        <f>系統!D118</f>
-        <v>星啓方舟營業處</v>
+      <c r="A117" t="s">
+        <v>665</v>
+      </c>
+      <c r="B117" t="s">
+        <v>781</v>
+      </c>
+      <c r="C117" t="s">
+        <v>653</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A118">
-        <f>系統!E119</f>
-        <v>0</v>
-      </c>
-      <c r="B118" t="str">
-        <f>IFERROR(LEFT(系統!C119,FIND("(",系統!C119)-1),系統!C119)</f>
-        <v>公司直銷</v>
-      </c>
-      <c r="C118" t="str">
-        <f>系統!D119</f>
-        <v>營業處</v>
+        <v>0</v>
+      </c>
+      <c r="B118" t="s">
+        <v>668</v>
+      </c>
+      <c r="C118" t="s">
+        <v>669</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A119">
-        <f>系統!E120</f>
         <v>0</v>
       </c>
       <c r="B119">
-        <f>IFERROR(LEFT(系統!C120,FIND("(",系統!C120)-1),系統!C120)</f>
         <v>0</v>
       </c>
       <c r="C119">
-        <f>系統!D120</f>
         <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A120">
-        <f>系統!E121</f>
         <v>0</v>
       </c>
       <c r="B120">
-        <f>IFERROR(LEFT(系統!C121,FIND("(",系統!C121)-1),系統!C121)</f>
         <v>0</v>
       </c>
       <c r="C120">
-        <f>系統!D121</f>
         <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A121">
-        <f>系統!E122</f>
         <v>0</v>
       </c>
       <c r="B121">
-        <f>IFERROR(LEFT(系統!C122,FIND("(",系統!C122)-1),系統!C122)</f>
         <v>0</v>
       </c>
       <c r="C121">
-        <f>系統!D122</f>
         <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A122">
-        <f>系統!E123</f>
         <v>0</v>
       </c>
       <c r="B122">
-        <f>IFERROR(LEFT(系統!C123,FIND("(",系統!C123)-1),系統!C123)</f>
         <v>0</v>
       </c>
       <c r="C122">
-        <f>系統!D123</f>
         <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A123">
-        <f>系統!E124</f>
         <v>0</v>
       </c>
       <c r="B123">
-        <f>IFERROR(LEFT(系統!C124,FIND("(",系統!C124)-1),系統!C124)</f>
         <v>0</v>
       </c>
       <c r="C123">
-        <f>系統!D124</f>
         <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A124">
-        <f>系統!E125</f>
         <v>0</v>
       </c>
       <c r="B124">
-        <f>IFERROR(LEFT(系統!C125,FIND("(",系統!C125)-1),系統!C125)</f>
         <v>0</v>
       </c>
       <c r="C124">
-        <f>系統!D125</f>
         <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A125">
-        <f>系統!E126</f>
         <v>0</v>
       </c>
       <c r="B125">
-        <f>IFERROR(LEFT(系統!C126,FIND("(",系統!C126)-1),系統!C126)</f>
         <v>0</v>
       </c>
       <c r="C125">
-        <f>系統!D126</f>
         <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A126">
-        <f>系統!E127</f>
         <v>0</v>
       </c>
       <c r="B126">
-        <f>IFERROR(LEFT(系統!C127,FIND("(",系統!C127)-1),系統!C127)</f>
         <v>0</v>
       </c>
       <c r="C126">
-        <f>系統!D127</f>
         <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A127">
-        <f>系統!E128</f>
         <v>0</v>
       </c>
       <c r="B127">
-        <f>IFERROR(LEFT(系統!C128,FIND("(",系統!C128)-1),系統!C128)</f>
         <v>0</v>
       </c>
       <c r="C127">
-        <f>系統!D128</f>
         <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A128">
-        <f>系統!E129</f>
         <v>0</v>
       </c>
       <c r="B128">
-        <f>IFERROR(LEFT(系統!C129,FIND("(",系統!C129)-1),系統!C129)</f>
         <v>0</v>
       </c>
       <c r="C128">
-        <f>系統!D129</f>
         <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A129">
-        <f>系統!E130</f>
         <v>0</v>
       </c>
       <c r="B129">
-        <f>IFERROR(LEFT(系統!C130,FIND("(",系統!C130)-1),系統!C130)</f>
         <v>0</v>
       </c>
       <c r="C129">
-        <f>系統!D130</f>
         <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A130">
-        <f>系統!E131</f>
         <v>0</v>
       </c>
       <c r="B130">
-        <f>IFERROR(LEFT(系統!C131,FIND("(",系統!C131)-1),系統!C131)</f>
         <v>0</v>
       </c>
       <c r="C130">
-        <f>系統!D131</f>
         <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A131">
-        <f>系統!E132</f>
         <v>0</v>
       </c>
       <c r="B131">
-        <f>IFERROR(LEFT(系統!C132,FIND("(",系統!C132)-1),系統!C132)</f>
         <v>0</v>
       </c>
       <c r="C131">
-        <f>系統!D132</f>
         <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A132">
-        <f>系統!E133</f>
         <v>0</v>
       </c>
       <c r="B132">
-        <f>IFERROR(LEFT(系統!C133,FIND("(",系統!C133)-1),系統!C133)</f>
         <v>0</v>
       </c>
       <c r="C132">
-        <f>系統!D133</f>
         <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A133">
-        <f>系統!E134</f>
         <v>0</v>
       </c>
       <c r="B133">
-        <f>IFERROR(LEFT(系統!C134,FIND("(",系統!C134)-1),系統!C134)</f>
         <v>0</v>
       </c>
       <c r="C133">
-        <f>系統!D134</f>
         <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A134">
-        <f>系統!E135</f>
         <v>0</v>
       </c>
       <c r="B134">
-        <f>IFERROR(LEFT(系統!C135,FIND("(",系統!C135)-1),系統!C135)</f>
         <v>0</v>
       </c>
       <c r="C134">
-        <f>系統!D135</f>
         <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A135">
-        <f>系統!E136</f>
         <v>0</v>
       </c>
       <c r="B135">
-        <f>IFERROR(LEFT(系統!C136,FIND("(",系統!C136)-1),系統!C136)</f>
         <v>0</v>
       </c>
       <c r="C135">
-        <f>系統!D136</f>
         <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A136">
-        <f>系統!E137</f>
         <v>0</v>
       </c>
       <c r="B136">
-        <f>IFERROR(LEFT(系統!C137,FIND("(",系統!C137)-1),系統!C137)</f>
         <v>0</v>
       </c>
       <c r="C136">
-        <f>系統!D137</f>
         <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A137">
-        <f>系統!E138</f>
         <v>0</v>
       </c>
       <c r="B137">
-        <f>IFERROR(LEFT(系統!C138,FIND("(",系統!C138)-1),系統!C138)</f>
         <v>0</v>
       </c>
       <c r="C137">
-        <f>系統!D138</f>
         <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A138">
-        <f>系統!E139</f>
         <v>0</v>
       </c>
       <c r="B138">
-        <f>IFERROR(LEFT(系統!C139,FIND("(",系統!C139)-1),系統!C139)</f>
         <v>0</v>
       </c>
       <c r="C138">
-        <f>系統!D139</f>
         <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A139">
-        <f>系統!E140</f>
         <v>0</v>
       </c>
       <c r="B139">
-        <f>IFERROR(LEFT(系統!C140,FIND("(",系統!C140)-1),系統!C140)</f>
         <v>0</v>
       </c>
       <c r="C139">
-        <f>系統!D140</f>
         <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A140">
-        <f>系統!E141</f>
         <v>0</v>
       </c>
       <c r="B140">
-        <f>IFERROR(LEFT(系統!C141,FIND("(",系統!C141)-1),系統!C141)</f>
         <v>0</v>
       </c>
       <c r="C140">
-        <f>系統!D141</f>
         <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A141">
-        <f>系統!E142</f>
         <v>0</v>
       </c>
       <c r="B141">
-        <f>IFERROR(LEFT(系統!C142,FIND("(",系統!C142)-1),系統!C142)</f>
         <v>0</v>
       </c>
       <c r="C141">
-        <f>系統!D142</f>
         <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A142">
-        <f>系統!E143</f>
         <v>0</v>
       </c>
       <c r="B142">
-        <f>IFERROR(LEFT(系統!C143,FIND("(",系統!C143)-1),系統!C143)</f>
         <v>0</v>
       </c>
       <c r="C142">
-        <f>系統!D143</f>
         <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A143">
-        <f>系統!E144</f>
         <v>0</v>
       </c>
       <c r="B143">
-        <f>IFERROR(LEFT(系統!C144,FIND("(",系統!C144)-1),系統!C144)</f>
         <v>0</v>
       </c>
       <c r="C143">
-        <f>系統!D144</f>
         <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A144">
-        <f>系統!E145</f>
         <v>0</v>
       </c>
       <c r="B144">
-        <f>IFERROR(LEFT(系統!C145,FIND("(",系統!C145)-1),系統!C145)</f>
         <v>0</v>
       </c>
       <c r="C144">
-        <f>系統!D145</f>
         <v>0</v>
       </c>
     </row>

--- a/my_app/在職業務名單.xlsx
+++ b/my_app/在職業務名單.xlsx
@@ -13,7 +13,7 @@
   </bookViews>
   <sheets>
     <sheet name="名單" sheetId="1" r:id="rId1"/>
-    <sheet name="系統" sheetId="2" state="hidden" r:id="rId2"/>
+    <sheet name="系統" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1481" uniqueCount="782">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1143" uniqueCount="671">
   <si>
     <t>業務身份證字號</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2041,339 +2041,6 @@
   </si>
   <si>
     <t>2025/10/21  17:07:04</t>
-  </si>
-  <si>
-    <t>城鄉</t>
-  </si>
-  <si>
-    <t>寶金雲</t>
-  </si>
-  <si>
-    <t>網天下</t>
-  </si>
-  <si>
-    <t>張程鈞</t>
-  </si>
-  <si>
-    <t>城鄉-王F122</t>
-  </si>
-  <si>
-    <t>黃Q22</t>
-  </si>
-  <si>
-    <t>于懷垣</t>
-  </si>
-  <si>
-    <t>唐自立</t>
-  </si>
-  <si>
-    <t>何自如</t>
-  </si>
-  <si>
-    <t>林家如</t>
-  </si>
-  <si>
-    <t>黃國瑋</t>
-  </si>
-  <si>
-    <t>黃睿埁</t>
-  </si>
-  <si>
-    <t>林濬煬</t>
-  </si>
-  <si>
-    <t>陳欣佑</t>
-  </si>
-  <si>
-    <t>李志平</t>
-  </si>
-  <si>
-    <t>周富揚</t>
-  </si>
-  <si>
-    <t>沈志偉</t>
-  </si>
-  <si>
-    <t>林樹臏</t>
-  </si>
-  <si>
-    <t>邱奕瑋</t>
-  </si>
-  <si>
-    <t>謝長祐</t>
-  </si>
-  <si>
-    <t>王儷餘</t>
-  </si>
-  <si>
-    <t>余語瑩</t>
-  </si>
-  <si>
-    <t>呂淑清</t>
-  </si>
-  <si>
-    <t>郭美惠</t>
-  </si>
-  <si>
-    <t>陳亭潔</t>
-  </si>
-  <si>
-    <t>陳賢傑</t>
-  </si>
-  <si>
-    <t>林溢恩</t>
-  </si>
-  <si>
-    <t>余欣佳</t>
-  </si>
-  <si>
-    <t>施憬諭</t>
-  </si>
-  <si>
-    <t>蕭慧珍</t>
-  </si>
-  <si>
-    <t>江明怡</t>
-  </si>
-  <si>
-    <t>郭安皎</t>
-  </si>
-  <si>
-    <t>黃琬翎</t>
-  </si>
-  <si>
-    <t>賴芳延</t>
-  </si>
-  <si>
-    <t>鍾茹伝</t>
-  </si>
-  <si>
-    <t>王淑芳</t>
-  </si>
-  <si>
-    <t>施沛綺</t>
-  </si>
-  <si>
-    <t>劉育誠</t>
-  </si>
-  <si>
-    <t>倪美臻</t>
-  </si>
-  <si>
-    <t>張琦瑛</t>
-  </si>
-  <si>
-    <t>潘慈筠</t>
-  </si>
-  <si>
-    <t>蔡蕙芯</t>
-  </si>
-  <si>
-    <t>郭安人</t>
-  </si>
-  <si>
-    <t>田慶堂</t>
-  </si>
-  <si>
-    <t>秦培淞</t>
-  </si>
-  <si>
-    <t>簡衣妘</t>
-  </si>
-  <si>
-    <t>黃建誠</t>
-  </si>
-  <si>
-    <t>阮笠凌</t>
-  </si>
-  <si>
-    <t>張家菁</t>
-  </si>
-  <si>
-    <t>許建甫</t>
-  </si>
-  <si>
-    <t>曠力誠</t>
-  </si>
-  <si>
-    <t>余聰惠</t>
-  </si>
-  <si>
-    <t>林尚安</t>
-  </si>
-  <si>
-    <t>蕭茜翎</t>
-  </si>
-  <si>
-    <t>林美雲</t>
-  </si>
-  <si>
-    <t>林毅華</t>
-  </si>
-  <si>
-    <t>莊睿庭</t>
-  </si>
-  <si>
-    <t>陳怜妤</t>
-  </si>
-  <si>
-    <t>黃浡承</t>
-  </si>
-  <si>
-    <t>賴佩珍</t>
-  </si>
-  <si>
-    <t>林泫琋</t>
-  </si>
-  <si>
-    <t>葉俐伶</t>
-  </si>
-  <si>
-    <t>侯宗萱</t>
-  </si>
-  <si>
-    <t>陳宥任</t>
-  </si>
-  <si>
-    <t>黃韻竹</t>
-  </si>
-  <si>
-    <t>鄧士明</t>
-  </si>
-  <si>
-    <t>曾宜婕</t>
-  </si>
-  <si>
-    <t>蔡富川</t>
-  </si>
-  <si>
-    <t>王琇瑛</t>
-  </si>
-  <si>
-    <t>林華真</t>
-  </si>
-  <si>
-    <t>林忠毅</t>
-  </si>
-  <si>
-    <t>許妍羚</t>
-  </si>
-  <si>
-    <t>余廖春子</t>
-  </si>
-  <si>
-    <t>張偉哲</t>
-  </si>
-  <si>
-    <t>胡晴緹</t>
-  </si>
-  <si>
-    <t>劉瑞品</t>
-  </si>
-  <si>
-    <t>張子丰</t>
-  </si>
-  <si>
-    <t>王瑞騰</t>
-  </si>
-  <si>
-    <t>徐誠憶</t>
-  </si>
-  <si>
-    <t>林豈妏</t>
-  </si>
-  <si>
-    <t>蔡宜汶</t>
-  </si>
-  <si>
-    <t>陳定濱</t>
-  </si>
-  <si>
-    <t>高美麗</t>
-  </si>
-  <si>
-    <t>林惠子</t>
-  </si>
-  <si>
-    <t>林雅芳</t>
-  </si>
-  <si>
-    <t>蔡胡錦霞</t>
-  </si>
-  <si>
-    <t>吳庭筠</t>
-  </si>
-  <si>
-    <t>楊容琳</t>
-  </si>
-  <si>
-    <t>陳思妤</t>
-  </si>
-  <si>
-    <t>張豑云</t>
-  </si>
-  <si>
-    <t>游劍羽</t>
-  </si>
-  <si>
-    <t>施如耘</t>
-  </si>
-  <si>
-    <t>江許月娥</t>
-  </si>
-  <si>
-    <t>鄭玉章</t>
-  </si>
-  <si>
-    <t>柯沛涵</t>
-  </si>
-  <si>
-    <t>陳文琴</t>
-  </si>
-  <si>
-    <t>鄭宗安</t>
-  </si>
-  <si>
-    <t>謝守席</t>
-  </si>
-  <si>
-    <t>吳文昆</t>
-  </si>
-  <si>
-    <t>陳逸政</t>
-  </si>
-  <si>
-    <t>張美珠</t>
-  </si>
-  <si>
-    <t>王藝臻</t>
-  </si>
-  <si>
-    <t>施華生</t>
-  </si>
-  <si>
-    <t>蕭婕鎂</t>
-  </si>
-  <si>
-    <t>吳連娣</t>
-  </si>
-  <si>
-    <t>柳秋梅</t>
-  </si>
-  <si>
-    <t>張品竹</t>
-  </si>
-  <si>
-    <t>莊讚祥</t>
-  </si>
-  <si>
-    <t>陳韋滔</t>
-  </si>
-  <si>
-    <t>林忠衡</t>
-  </si>
-  <si>
-    <t>賴彥碩</t>
   </si>
 </sst>
 </file>
@@ -2743,8 +2410,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C144"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
-      <selection activeCell="C112" sqref="C112"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.149999999999999" x14ac:dyDescent="0.45"/>
@@ -2767,1574 +2434,2003 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>16</v>
+        <f>系統!E3</f>
+        <v>0</v>
+      </c>
+      <c r="B2" t="str">
+        <f>IFERROR(LEFT(系統!C3,FIND("(",系統!C3)-1),系統!C3)</f>
+        <v>和珮筠</v>
       </c>
       <c r="C2">
+        <f>系統!D3</f>
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3">
-        <v>0</v>
-      </c>
-      <c r="B3" t="s">
-        <v>20</v>
+        <f>系統!E4</f>
+        <v>0</v>
+      </c>
+      <c r="B3" t="str">
+        <f>IFERROR(LEFT(系統!C4,FIND("(",系統!C4)-1),系統!C4)</f>
+        <v>何亞倫</v>
       </c>
       <c r="C3">
+        <f>系統!D4</f>
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4">
-        <v>0</v>
-      </c>
-      <c r="B4" t="s">
-        <v>22</v>
+        <f>系統!E5</f>
+        <v>0</v>
+      </c>
+      <c r="B4" t="str">
+        <f>IFERROR(LEFT(系統!C5,FIND("(",系統!C5)-1),系統!C5)</f>
+        <v>劉家僑</v>
       </c>
       <c r="C4">
+        <f>系統!D5</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5">
-        <v>0</v>
-      </c>
-      <c r="B5" t="s">
-        <v>24</v>
+        <f>系統!E6</f>
+        <v>0</v>
+      </c>
+      <c r="B5" t="str">
+        <f>IFERROR(LEFT(系統!C6,FIND("(",系統!C6)-1),系統!C6)</f>
+        <v>鄭家楹</v>
       </c>
       <c r="C5">
+        <f>系統!D6</f>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6">
-        <v>0</v>
-      </c>
-      <c r="B6" t="s">
-        <v>26</v>
+        <f>系統!E7</f>
+        <v>0</v>
+      </c>
+      <c r="B6" t="str">
+        <f>IFERROR(LEFT(系統!C7,FIND("(",系統!C7)-1),系統!C7)</f>
+        <v>鍾美蓮</v>
       </c>
       <c r="C6">
+        <f>系統!D7</f>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A7">
-        <v>0</v>
-      </c>
-      <c r="B7" t="s">
-        <v>671</v>
-      </c>
-      <c r="C7" t="s">
-        <v>30</v>
+        <f>系統!E8</f>
+        <v>0</v>
+      </c>
+      <c r="B7" t="str">
+        <f>IFERROR(LEFT(系統!C8,FIND("(",系統!C8)-1),系統!C8)</f>
+        <v>城鄉</v>
+      </c>
+      <c r="C7" t="str">
+        <f>系統!D8</f>
+        <v>城鄉營業處</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A8">
-        <v>0</v>
-      </c>
-      <c r="B8" t="s">
-        <v>672</v>
-      </c>
-      <c r="C8" t="s">
-        <v>30</v>
+        <f>系統!E9</f>
+        <v>0</v>
+      </c>
+      <c r="B8" t="str">
+        <f>IFERROR(LEFT(系統!C9,FIND("(",系統!C9)-1),系統!C9)</f>
+        <v>寶金雲</v>
+      </c>
+      <c r="C8" t="str">
+        <f>系統!D9</f>
+        <v>城鄉營業處</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A9" t="s">
-        <v>41</v>
-      </c>
-      <c r="B9" t="s">
-        <v>673</v>
-      </c>
-      <c r="C9" t="s">
-        <v>30</v>
+      <c r="A9" t="str">
+        <f>系統!E10</f>
+        <v>50984933</v>
+      </c>
+      <c r="B9" t="str">
+        <f>IFERROR(LEFT(系統!C10,FIND("(",系統!C10)-1),系統!C10)</f>
+        <v>網天下</v>
+      </c>
+      <c r="C9" t="str">
+        <f>系統!D10</f>
+        <v>城鄉營業處</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A10" t="s">
-        <v>47</v>
-      </c>
-      <c r="B10" t="s">
-        <v>674</v>
-      </c>
-      <c r="C10" t="s">
-        <v>30</v>
+      <c r="A10" t="str">
+        <f>系統!E11</f>
+        <v>A127897384</v>
+      </c>
+      <c r="B10" t="str">
+        <f>IFERROR(LEFT(系統!C11,FIND("(",系統!C11)-1),系統!C11)</f>
+        <v>張程鈞</v>
+      </c>
+      <c r="C10" t="str">
+        <f>系統!D11</f>
+        <v>城鄉營業處</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A11" t="s">
-        <v>53</v>
-      </c>
-      <c r="B11" t="s">
-        <v>675</v>
-      </c>
-      <c r="C11" t="s">
-        <v>30</v>
+      <c r="A11" t="str">
+        <f>系統!E12</f>
+        <v>F122773697</v>
+      </c>
+      <c r="B11" t="str">
+        <f>IFERROR(LEFT(系統!C12,FIND("(",系統!C12)-1),系統!C12)</f>
+        <v>城鄉-王F122</v>
+      </c>
+      <c r="C11" t="str">
+        <f>系統!D12</f>
+        <v>城鄉營業處</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A12" t="s">
-        <v>59</v>
-      </c>
-      <c r="B12" t="s">
-        <v>676</v>
-      </c>
-      <c r="C12" t="s">
-        <v>30</v>
+      <c r="A12" t="str">
+        <f>系統!E13</f>
+        <v>Q220639487</v>
+      </c>
+      <c r="B12" t="str">
+        <f>IFERROR(LEFT(系統!C13,FIND("(",系統!C13)-1),系統!C13)</f>
+        <v>黃Q22</v>
+      </c>
+      <c r="C12" t="str">
+        <f>系統!D13</f>
+        <v>城鄉營業處</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A13" t="s">
-        <v>66</v>
-      </c>
-      <c r="B13" t="s">
-        <v>677</v>
-      </c>
-      <c r="C13" t="s">
-        <v>65</v>
+      <c r="A13" t="str">
+        <f>系統!E14</f>
+        <v>F123571875</v>
+      </c>
+      <c r="B13" t="str">
+        <f>IFERROR(LEFT(系統!C14,FIND("(",系統!C14)-1),系統!C14)</f>
+        <v>于懷垣</v>
+      </c>
+      <c r="C13" t="str">
+        <f>系統!D14</f>
+        <v>鳳凰營業處</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A14" t="s">
-        <v>71</v>
-      </c>
-      <c r="B14" t="s">
-        <v>678</v>
-      </c>
-      <c r="C14" t="s">
-        <v>65</v>
+      <c r="A14" t="str">
+        <f>系統!E15</f>
+        <v>F224930389</v>
+      </c>
+      <c r="B14" t="str">
+        <f>IFERROR(LEFT(系統!C15,FIND("(",系統!C15)-1),系統!C15)</f>
+        <v>唐自立</v>
+      </c>
+      <c r="C14" t="str">
+        <f>系統!D15</f>
+        <v>鳳凰營業處</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A15" t="s">
-        <v>77</v>
-      </c>
-      <c r="B15" t="s">
-        <v>679</v>
-      </c>
-      <c r="C15" t="s">
-        <v>65</v>
+      <c r="A15" t="str">
+        <f>系統!E16</f>
+        <v>H222978552</v>
+      </c>
+      <c r="B15" t="str">
+        <f>IFERROR(LEFT(系統!C16,FIND("(",系統!C16)-1),系統!C16)</f>
+        <v>何自如</v>
+      </c>
+      <c r="C15" t="str">
+        <f>系統!D16</f>
+        <v>鳳凰營業處</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A16" t="s">
-        <v>84</v>
-      </c>
-      <c r="B16" t="s">
-        <v>680</v>
-      </c>
-      <c r="C16" t="s">
-        <v>65</v>
+      <c r="A16" t="str">
+        <f>系統!E17</f>
+        <v>F225081698</v>
+      </c>
+      <c r="B16" t="str">
+        <f>IFERROR(LEFT(系統!C17,FIND("(",系統!C17)-1),系統!C17)</f>
+        <v>林家如</v>
+      </c>
+      <c r="C16" t="str">
+        <f>系統!D17</f>
+        <v>鳳凰營業處</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A17" t="s">
-        <v>90</v>
-      </c>
-      <c r="B17" t="s">
-        <v>681</v>
-      </c>
-      <c r="C17" t="s">
-        <v>65</v>
+      <c r="A17" t="str">
+        <f>系統!E18</f>
+        <v>W100351192</v>
+      </c>
+      <c r="B17" t="str">
+        <f>IFERROR(LEFT(系統!C18,FIND("(",系統!C18)-1),系統!C18)</f>
+        <v>黃國瑋</v>
+      </c>
+      <c r="C17" t="str">
+        <f>系統!D18</f>
+        <v>鳳凰營業處</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A18" t="s">
-        <v>96</v>
-      </c>
-      <c r="B18" t="s">
-        <v>682</v>
-      </c>
-      <c r="C18" t="s">
-        <v>65</v>
+      <c r="A18" t="str">
+        <f>系統!E19</f>
+        <v>H220714765</v>
+      </c>
+      <c r="B18" t="str">
+        <f>IFERROR(LEFT(系統!C19,FIND("(",系統!C19)-1),系統!C19)</f>
+        <v>黃睿埁</v>
+      </c>
+      <c r="C18" t="str">
+        <f>系統!D19</f>
+        <v>鳳凰營業處</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A19" t="s">
-        <v>102</v>
-      </c>
-      <c r="B19" t="s">
-        <v>683</v>
-      </c>
-      <c r="C19" t="s">
-        <v>65</v>
+      <c r="A19" t="str">
+        <f>系統!E20</f>
+        <v>F123794583</v>
+      </c>
+      <c r="B19" t="str">
+        <f>IFERROR(LEFT(系統!C20,FIND("(",系統!C20)-1),系統!C20)</f>
+        <v>林濬煬</v>
+      </c>
+      <c r="C19" t="str">
+        <f>系統!D20</f>
+        <v>鳳凰營業處</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A20" t="s">
-        <v>109</v>
-      </c>
-      <c r="B20" t="s">
-        <v>684</v>
-      </c>
-      <c r="C20" t="s">
-        <v>65</v>
+      <c r="A20" t="str">
+        <f>系統!E21</f>
+        <v>V220907556</v>
+      </c>
+      <c r="B20" t="str">
+        <f>IFERROR(LEFT(系統!C21,FIND("(",系統!C21)-1),系統!C21)</f>
+        <v>陳欣佑</v>
+      </c>
+      <c r="C20" t="str">
+        <f>系統!D21</f>
+        <v>鳳凰營業處</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A21" t="s">
-        <v>114</v>
-      </c>
-      <c r="B21" t="s">
-        <v>685</v>
-      </c>
-      <c r="C21" t="s">
-        <v>65</v>
+      <c r="A21" t="str">
+        <f>系統!E22</f>
+        <v>J120381541</v>
+      </c>
+      <c r="B21" t="str">
+        <f>IFERROR(LEFT(系統!C22,FIND("(",系統!C22)-1),系統!C22)</f>
+        <v>李志平</v>
+      </c>
+      <c r="C21" t="str">
+        <f>系統!D22</f>
+        <v>鳳凰營業處</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A22" t="s">
-        <v>121</v>
-      </c>
-      <c r="B22" t="s">
-        <v>686</v>
-      </c>
-      <c r="C22" t="s">
-        <v>65</v>
+      <c r="A22" t="str">
+        <f>系統!E23</f>
+        <v>F126199599</v>
+      </c>
+      <c r="B22" t="str">
+        <f>IFERROR(LEFT(系統!C23,FIND("(",系統!C23)-1),系統!C23)</f>
+        <v>周富揚</v>
+      </c>
+      <c r="C22" t="str">
+        <f>系統!D23</f>
+        <v>鳳凰營業處</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A23" t="s">
-        <v>128</v>
-      </c>
-      <c r="B23" t="s">
-        <v>687</v>
-      </c>
-      <c r="C23" t="s">
-        <v>65</v>
+      <c r="A23" t="str">
+        <f>系統!E24</f>
+        <v>A123307361</v>
+      </c>
+      <c r="B23" t="str">
+        <f>IFERROR(LEFT(系統!C24,FIND("(",系統!C24)-1),系統!C24)</f>
+        <v>沈志偉</v>
+      </c>
+      <c r="C23" t="str">
+        <f>系統!D24</f>
+        <v>鳳凰營業處</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A24" t="s">
-        <v>134</v>
-      </c>
-      <c r="B24" t="s">
-        <v>688</v>
-      </c>
-      <c r="C24" t="s">
-        <v>65</v>
+      <c r="A24" t="str">
+        <f>系統!E25</f>
+        <v>F120762187</v>
+      </c>
+      <c r="B24" t="str">
+        <f>IFERROR(LEFT(系統!C25,FIND("(",系統!C25)-1),系統!C25)</f>
+        <v>林樹臏</v>
+      </c>
+      <c r="C24" t="str">
+        <f>系統!D25</f>
+        <v>鳳凰營業處</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A25" t="s">
-        <v>139</v>
-      </c>
-      <c r="B25" t="s">
-        <v>689</v>
-      </c>
-      <c r="C25" t="s">
-        <v>65</v>
+      <c r="A25" t="str">
+        <f>系統!E26</f>
+        <v>A127808378</v>
+      </c>
+      <c r="B25" t="str">
+        <f>IFERROR(LEFT(系統!C26,FIND("(",系統!C26)-1),系統!C26)</f>
+        <v>邱奕瑋</v>
+      </c>
+      <c r="C25" t="str">
+        <f>系統!D26</f>
+        <v>鳳凰營業處</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A26" t="s">
-        <v>144</v>
-      </c>
-      <c r="B26" t="s">
-        <v>690</v>
-      </c>
-      <c r="C26" t="s">
-        <v>65</v>
+      <c r="A26" t="str">
+        <f>系統!E27</f>
+        <v>A128337412</v>
+      </c>
+      <c r="B26" t="str">
+        <f>IFERROR(LEFT(系統!C27,FIND("(",系統!C27)-1),系統!C27)</f>
+        <v>謝長祐</v>
+      </c>
+      <c r="C26" t="str">
+        <f>系統!D27</f>
+        <v>鳳凰營業處</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A27" t="s">
-        <v>149</v>
-      </c>
-      <c r="B27" t="s">
-        <v>691</v>
-      </c>
-      <c r="C27" t="s">
-        <v>65</v>
+      <c r="A27" t="str">
+        <f>系統!E28</f>
+        <v>F226133182</v>
+      </c>
+      <c r="B27" t="str">
+        <f>IFERROR(LEFT(系統!C28,FIND("(",系統!C28)-1),系統!C28)</f>
+        <v>王儷餘</v>
+      </c>
+      <c r="C27" t="str">
+        <f>系統!D28</f>
+        <v>鳳凰營業處</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A28" t="s">
-        <v>158</v>
-      </c>
-      <c r="B28" t="s">
-        <v>692</v>
-      </c>
-      <c r="C28" t="s">
-        <v>65</v>
+      <c r="A28" t="str">
+        <f>系統!E29</f>
+        <v>A224643466</v>
+      </c>
+      <c r="B28" t="str">
+        <f>IFERROR(LEFT(系統!C29,FIND("(",系統!C29)-1),系統!C29)</f>
+        <v>余語瑩</v>
+      </c>
+      <c r="C28" t="str">
+        <f>系統!D29</f>
+        <v>鳳凰營業處</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A29" t="s">
-        <v>163</v>
-      </c>
-      <c r="B29" t="s">
-        <v>693</v>
-      </c>
-      <c r="C29" t="s">
-        <v>65</v>
+      <c r="A29" t="str">
+        <f>系統!E30</f>
+        <v>F226676557</v>
+      </c>
+      <c r="B29" t="str">
+        <f>IFERROR(LEFT(系統!C30,FIND("(",系統!C30)-1),系統!C30)</f>
+        <v>呂淑清</v>
+      </c>
+      <c r="C29" t="str">
+        <f>系統!D30</f>
+        <v>鳳凰營業處</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A30" t="s">
-        <v>168</v>
-      </c>
-      <c r="B30" t="s">
-        <v>694</v>
-      </c>
-      <c r="C30" t="s">
-        <v>65</v>
+      <c r="A30" t="str">
+        <f>系統!E31</f>
+        <v>A223101754</v>
+      </c>
+      <c r="B30" t="str">
+        <f>IFERROR(LEFT(系統!C31,FIND("(",系統!C31)-1),系統!C31)</f>
+        <v>郭美惠</v>
+      </c>
+      <c r="C30" t="str">
+        <f>系統!D31</f>
+        <v>鳳凰營業處</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A31" t="s">
-        <v>174</v>
-      </c>
-      <c r="B31" t="s">
-        <v>695</v>
-      </c>
-      <c r="C31" t="s">
-        <v>65</v>
+      <c r="A31" t="str">
+        <f>系統!E32</f>
+        <v>K220990749</v>
+      </c>
+      <c r="B31" t="str">
+        <f>IFERROR(LEFT(系統!C32,FIND("(",系統!C32)-1),系統!C32)</f>
+        <v>陳亭潔</v>
+      </c>
+      <c r="C31" t="str">
+        <f>系統!D32</f>
+        <v>鳳凰營業處</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A32" t="s">
-        <v>180</v>
-      </c>
-      <c r="B32" t="s">
-        <v>696</v>
-      </c>
-      <c r="C32" t="s">
-        <v>65</v>
+      <c r="A32" t="str">
+        <f>系統!E33</f>
+        <v>F102898184</v>
+      </c>
+      <c r="B32" t="str">
+        <f>IFERROR(LEFT(系統!C33,FIND("(",系統!C33)-1),系統!C33)</f>
+        <v>陳賢傑</v>
+      </c>
+      <c r="C32" t="str">
+        <f>系統!D33</f>
+        <v>鳳凰營業處</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A33" t="s">
-        <v>186</v>
-      </c>
-      <c r="B33" t="s">
-        <v>697</v>
-      </c>
-      <c r="C33" t="s">
-        <v>65</v>
+      <c r="A33" t="str">
+        <f>系統!E34</f>
+        <v>A127034305</v>
+      </c>
+      <c r="B33" t="str">
+        <f>IFERROR(LEFT(系統!C34,FIND("(",系統!C34)-1),系統!C34)</f>
+        <v>林溢恩</v>
+      </c>
+      <c r="C33" t="str">
+        <f>系統!D34</f>
+        <v>鳳凰營業處</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A34" t="s">
-        <v>192</v>
-      </c>
-      <c r="B34" t="s">
-        <v>698</v>
-      </c>
-      <c r="C34" t="s">
-        <v>65</v>
+      <c r="A34" t="str">
+        <f>系統!E35</f>
+        <v>A227368362</v>
+      </c>
+      <c r="B34" t="str">
+        <f>IFERROR(LEFT(系統!C35,FIND("(",系統!C35)-1),系統!C35)</f>
+        <v>余欣佳</v>
+      </c>
+      <c r="C34" t="str">
+        <f>系統!D35</f>
+        <v>鳳凰營業處</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A35" t="s">
-        <v>197</v>
-      </c>
-      <c r="B35" t="s">
-        <v>699</v>
-      </c>
-      <c r="C35" t="s">
-        <v>65</v>
+      <c r="A35" t="str">
+        <f>系統!E36</f>
+        <v>A127487379</v>
+      </c>
+      <c r="B35" t="str">
+        <f>IFERROR(LEFT(系統!C36,FIND("(",系統!C36)-1),系統!C36)</f>
+        <v>施憬諭</v>
+      </c>
+      <c r="C35" t="str">
+        <f>系統!D36</f>
+        <v>鳳凰營業處</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A36" t="s">
-        <v>203</v>
-      </c>
-      <c r="B36" t="s">
-        <v>700</v>
-      </c>
-      <c r="C36" t="s">
-        <v>65</v>
+      <c r="A36" t="str">
+        <f>系統!E37</f>
+        <v>T221873511</v>
+      </c>
+      <c r="B36" t="str">
+        <f>IFERROR(LEFT(系統!C37,FIND("(",系統!C37)-1),系統!C37)</f>
+        <v>蕭慧珍</v>
+      </c>
+      <c r="C36" t="str">
+        <f>系統!D37</f>
+        <v>鳳凰營業處</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A37" t="s">
-        <v>209</v>
-      </c>
-      <c r="B37" t="s">
-        <v>701</v>
-      </c>
-      <c r="C37" t="s">
-        <v>65</v>
+      <c r="A37" t="str">
+        <f>系統!E38</f>
+        <v>H220650711</v>
+      </c>
+      <c r="B37" t="str">
+        <f>IFERROR(LEFT(系統!C38,FIND("(",系統!C38)-1),系統!C38)</f>
+        <v>江明怡</v>
+      </c>
+      <c r="C37" t="str">
+        <f>系統!D38</f>
+        <v>鳳凰營業處</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A38" t="s">
-        <v>214</v>
-      </c>
-      <c r="B38" t="s">
-        <v>702</v>
-      </c>
-      <c r="C38" t="s">
-        <v>65</v>
+      <c r="A38" t="str">
+        <f>系統!E39</f>
+        <v>A227457631</v>
+      </c>
+      <c r="B38" t="str">
+        <f>IFERROR(LEFT(系統!C39,FIND("(",系統!C39)-1),系統!C39)</f>
+        <v>郭安皎</v>
+      </c>
+      <c r="C38" t="str">
+        <f>系統!D39</f>
+        <v>鳳凰營業處</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A39" t="s">
-        <v>220</v>
-      </c>
-      <c r="B39" t="s">
-        <v>703</v>
-      </c>
-      <c r="C39" t="s">
-        <v>65</v>
+      <c r="A39" t="str">
+        <f>系統!E40</f>
+        <v>S224502661</v>
+      </c>
+      <c r="B39" t="str">
+        <f>IFERROR(LEFT(系統!C40,FIND("(",系統!C40)-1),系統!C40)</f>
+        <v>黃琬翎</v>
+      </c>
+      <c r="C39" t="str">
+        <f>系統!D40</f>
+        <v>鳳凰營業處</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A40" t="s">
-        <v>225</v>
-      </c>
-      <c r="B40" t="s">
-        <v>704</v>
-      </c>
-      <c r="C40" t="s">
-        <v>65</v>
+      <c r="A40" t="str">
+        <f>系統!E41</f>
+        <v>F123406328</v>
+      </c>
+      <c r="B40" t="str">
+        <f>IFERROR(LEFT(系統!C41,FIND("(",系統!C41)-1),系統!C41)</f>
+        <v>賴芳延</v>
+      </c>
+      <c r="C40" t="str">
+        <f>系統!D41</f>
+        <v>鳳凰營業處</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A41" t="s">
-        <v>230</v>
-      </c>
-      <c r="B41" t="s">
-        <v>705</v>
-      </c>
-      <c r="C41" t="s">
-        <v>65</v>
+      <c r="A41" t="str">
+        <f>系統!E42</f>
+        <v>P201665028</v>
+      </c>
+      <c r="B41" t="str">
+        <f>IFERROR(LEFT(系統!C42,FIND("(",系統!C42)-1),系統!C42)</f>
+        <v>鍾茹伝</v>
+      </c>
+      <c r="C41" t="str">
+        <f>系統!D42</f>
+        <v>鳳凰營業處</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A42" t="s">
-        <v>236</v>
-      </c>
-      <c r="B42" t="s">
-        <v>706</v>
-      </c>
-      <c r="C42" t="s">
-        <v>65</v>
+      <c r="A42" t="str">
+        <f>系統!E43</f>
+        <v>N223078573</v>
+      </c>
+      <c r="B42" t="str">
+        <f>IFERROR(LEFT(系統!C43,FIND("(",系統!C43)-1),系統!C43)</f>
+        <v>王淑芳</v>
+      </c>
+      <c r="C42" t="str">
+        <f>系統!D43</f>
+        <v>鳳凰營業處</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A43" t="s">
-        <v>241</v>
-      </c>
-      <c r="B43" t="s">
-        <v>707</v>
-      </c>
-      <c r="C43" t="s">
-        <v>65</v>
+      <c r="A43" t="str">
+        <f>系統!E44</f>
+        <v>J220017879</v>
+      </c>
+      <c r="B43" t="str">
+        <f>IFERROR(LEFT(系統!C44,FIND("(",系統!C44)-1),系統!C44)</f>
+        <v>施沛綺</v>
+      </c>
+      <c r="C43" t="str">
+        <f>系統!D44</f>
+        <v>鳳凰營業處</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A44" t="s">
-        <v>247</v>
-      </c>
-      <c r="B44" t="s">
-        <v>708</v>
-      </c>
-      <c r="C44" t="s">
-        <v>65</v>
+      <c r="A44" t="str">
+        <f>系統!E45</f>
+        <v>L123000464</v>
+      </c>
+      <c r="B44" t="str">
+        <f>IFERROR(LEFT(系統!C45,FIND("(",系統!C45)-1),系統!C45)</f>
+        <v>劉育誠</v>
+      </c>
+      <c r="C44" t="str">
+        <f>系統!D45</f>
+        <v>鳳凰營業處</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A45" t="s">
-        <v>254</v>
-      </c>
-      <c r="B45" t="s">
-        <v>709</v>
-      </c>
-      <c r="C45" t="s">
-        <v>65</v>
+      <c r="A45" t="str">
+        <f>系統!E46</f>
+        <v>H221818584</v>
+      </c>
+      <c r="B45" t="str">
+        <f>IFERROR(LEFT(系統!C46,FIND("(",系統!C46)-1),系統!C46)</f>
+        <v>倪美臻</v>
+      </c>
+      <c r="C45" t="str">
+        <f>系統!D46</f>
+        <v>鳳凰營業處</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A46" t="s">
-        <v>260</v>
-      </c>
-      <c r="B46" t="s">
-        <v>710</v>
-      </c>
-      <c r="C46" t="s">
-        <v>65</v>
+      <c r="A46" t="str">
+        <f>系統!E47</f>
+        <v>K220325840</v>
+      </c>
+      <c r="B46" t="str">
+        <f>IFERROR(LEFT(系統!C47,FIND("(",系統!C47)-1),系統!C47)</f>
+        <v>張琦瑛</v>
+      </c>
+      <c r="C46" t="str">
+        <f>系統!D47</f>
+        <v>鳳凰營業處</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A47" t="s">
-        <v>266</v>
-      </c>
-      <c r="B47" t="s">
-        <v>711</v>
-      </c>
-      <c r="C47" t="s">
-        <v>65</v>
+      <c r="A47" t="str">
+        <f>系統!E48</f>
+        <v>S222293203</v>
+      </c>
+      <c r="B47" t="str">
+        <f>IFERROR(LEFT(系統!C48,FIND("(",系統!C48)-1),系統!C48)</f>
+        <v>潘慈筠</v>
+      </c>
+      <c r="C47" t="str">
+        <f>系統!D48</f>
+        <v>鳳凰營業處</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A48" t="s">
-        <v>272</v>
-      </c>
-      <c r="B48" t="s">
-        <v>712</v>
-      </c>
-      <c r="C48" t="s">
-        <v>65</v>
+      <c r="A48" t="str">
+        <f>系統!E49</f>
+        <v>L225390909</v>
+      </c>
+      <c r="B48" t="str">
+        <f>IFERROR(LEFT(系統!C49,FIND("(",系統!C49)-1),系統!C49)</f>
+        <v>蔡蕙芯</v>
+      </c>
+      <c r="C48" t="str">
+        <f>系統!D49</f>
+        <v>鳳凰營業處</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A49" t="s">
-        <v>277</v>
-      </c>
-      <c r="B49" t="s">
-        <v>713</v>
-      </c>
-      <c r="C49" t="s">
-        <v>65</v>
+      <c r="A49" t="str">
+        <f>系統!E50</f>
+        <v>A124484278</v>
+      </c>
+      <c r="B49" t="str">
+        <f>IFERROR(LEFT(系統!C50,FIND("(",系統!C50)-1),系統!C50)</f>
+        <v>郭安人</v>
+      </c>
+      <c r="C49" t="str">
+        <f>系統!D50</f>
+        <v>鳳凰營業處</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A50" t="s">
-        <v>282</v>
-      </c>
-      <c r="B50" t="s">
-        <v>714</v>
-      </c>
-      <c r="C50" t="s">
-        <v>65</v>
+      <c r="A50" t="str">
+        <f>系統!E51</f>
+        <v>K120824757</v>
+      </c>
+      <c r="B50" t="str">
+        <f>IFERROR(LEFT(系統!C51,FIND("(",系統!C51)-1),系統!C51)</f>
+        <v>田慶堂</v>
+      </c>
+      <c r="C50" t="str">
+        <f>系統!D51</f>
+        <v>鳳凰營業處</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A51" t="s">
-        <v>287</v>
-      </c>
-      <c r="B51" t="s">
-        <v>715</v>
-      </c>
-      <c r="C51" t="s">
-        <v>65</v>
+      <c r="A51" t="str">
+        <f>系統!E52</f>
+        <v>F126607443</v>
+      </c>
+      <c r="B51" t="str">
+        <f>IFERROR(LEFT(系統!C52,FIND("(",系統!C52)-1),系統!C52)</f>
+        <v>秦培淞</v>
+      </c>
+      <c r="C51" t="str">
+        <f>系統!D52</f>
+        <v>鳳凰營業處</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A52" t="s">
-        <v>293</v>
-      </c>
-      <c r="B52" t="s">
-        <v>716</v>
-      </c>
-      <c r="C52" t="s">
-        <v>65</v>
+      <c r="A52" t="str">
+        <f>系統!E53</f>
+        <v>B221720958</v>
+      </c>
+      <c r="B52" t="str">
+        <f>IFERROR(LEFT(系統!C53,FIND("(",系統!C53)-1),系統!C53)</f>
+        <v>簡衣妘</v>
+      </c>
+      <c r="C52" t="str">
+        <f>系統!D53</f>
+        <v>鳳凰營業處</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A53" t="s">
-        <v>299</v>
-      </c>
-      <c r="B53" t="s">
-        <v>717</v>
-      </c>
-      <c r="C53" t="s">
-        <v>65</v>
+      <c r="A53" t="str">
+        <f>系統!E54</f>
+        <v>H124690693</v>
+      </c>
+      <c r="B53" t="str">
+        <f>IFERROR(LEFT(系統!C54,FIND("(",系統!C54)-1),系統!C54)</f>
+        <v>黃建誠</v>
+      </c>
+      <c r="C53" t="str">
+        <f>系統!D54</f>
+        <v>鳳凰營業處</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A54" t="s">
-        <v>306</v>
-      </c>
-      <c r="B54" t="s">
-        <v>718</v>
-      </c>
-      <c r="C54" t="s">
-        <v>65</v>
+      <c r="A54" t="str">
+        <f>系統!E55</f>
+        <v>F290037457</v>
+      </c>
+      <c r="B54" t="str">
+        <f>IFERROR(LEFT(系統!C55,FIND("(",系統!C55)-1),系統!C55)</f>
+        <v>阮笠凌</v>
+      </c>
+      <c r="C54" t="str">
+        <f>系統!D55</f>
+        <v>鳳凰營業處</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A55" t="s">
-        <v>311</v>
-      </c>
-      <c r="B55" t="s">
-        <v>719</v>
-      </c>
-      <c r="C55" t="s">
-        <v>65</v>
+      <c r="A55" t="str">
+        <f>系統!E56</f>
+        <v>F223458468</v>
+      </c>
+      <c r="B55" t="str">
+        <f>IFERROR(LEFT(系統!C56,FIND("(",系統!C56)-1),系統!C56)</f>
+        <v>張家菁</v>
+      </c>
+      <c r="C55" t="str">
+        <f>系統!D56</f>
+        <v>鳳凰營業處</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A56" t="s">
-        <v>316</v>
-      </c>
-      <c r="B56" t="s">
-        <v>720</v>
-      </c>
-      <c r="C56" t="s">
-        <v>65</v>
+      <c r="A56" t="str">
+        <f>系統!E57</f>
+        <v>A127259142</v>
+      </c>
+      <c r="B56" t="str">
+        <f>IFERROR(LEFT(系統!C57,FIND("(",系統!C57)-1),系統!C57)</f>
+        <v>許建甫</v>
+      </c>
+      <c r="C56" t="str">
+        <f>系統!D57</f>
+        <v>鳳凰營業處</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A57" t="s">
-        <v>322</v>
-      </c>
-      <c r="B57" t="s">
-        <v>721</v>
-      </c>
-      <c r="C57" t="s">
-        <v>65</v>
+      <c r="A57" t="str">
+        <f>系統!E58</f>
+        <v>V120456883</v>
+      </c>
+      <c r="B57" t="str">
+        <f>IFERROR(LEFT(系統!C58,FIND("(",系統!C58)-1),系統!C58)</f>
+        <v>曠力誠</v>
+      </c>
+      <c r="C57" t="str">
+        <f>系統!D58</f>
+        <v>鳳凰營業處</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A58" t="s">
-        <v>327</v>
-      </c>
-      <c r="B58" t="s">
-        <v>722</v>
-      </c>
-      <c r="C58" t="s">
-        <v>65</v>
+      <c r="A58" t="str">
+        <f>系統!E59</f>
+        <v>Q120705528</v>
+      </c>
+      <c r="B58" t="str">
+        <f>IFERROR(LEFT(系統!C59,FIND("(",系統!C59)-1),系統!C59)</f>
+        <v>余聰惠</v>
+      </c>
+      <c r="C58" t="str">
+        <f>系統!D59</f>
+        <v>鳳凰營業處</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A59" t="s">
-        <v>333</v>
-      </c>
-      <c r="B59" t="s">
-        <v>723</v>
-      </c>
-      <c r="C59" t="s">
-        <v>65</v>
+      <c r="A59" t="str">
+        <f>系統!E60</f>
+        <v>F800143304</v>
+      </c>
+      <c r="B59" t="str">
+        <f>IFERROR(LEFT(系統!C60,FIND("(",系統!C60)-1),系統!C60)</f>
+        <v>林尚安</v>
+      </c>
+      <c r="C59" t="str">
+        <f>系統!D60</f>
+        <v>鳳凰營業處</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A60" t="s">
-        <v>339</v>
-      </c>
-      <c r="B60" t="s">
-        <v>724</v>
-      </c>
-      <c r="C60" t="s">
-        <v>65</v>
+      <c r="A60" t="str">
+        <f>系統!E61</f>
+        <v>N223343020</v>
+      </c>
+      <c r="B60" t="str">
+        <f>IFERROR(LEFT(系統!C61,FIND("(",系統!C61)-1),系統!C61)</f>
+        <v>蕭茜翎</v>
+      </c>
+      <c r="C60" t="str">
+        <f>系統!D61</f>
+        <v>鳳凰營業處</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A61" t="s">
-        <v>343</v>
-      </c>
-      <c r="B61" t="s">
-        <v>725</v>
-      </c>
-      <c r="C61" t="s">
-        <v>65</v>
+      <c r="A61" t="str">
+        <f>系統!E62</f>
+        <v>A220844734</v>
+      </c>
+      <c r="B61" t="str">
+        <f>IFERROR(LEFT(系統!C62,FIND("(",系統!C62)-1),系統!C62)</f>
+        <v>林美雲</v>
+      </c>
+      <c r="C61" t="str">
+        <f>系統!D62</f>
+        <v>鳳凰營業處</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A62" t="s">
-        <v>348</v>
-      </c>
-      <c r="B62" t="s">
-        <v>726</v>
-      </c>
-      <c r="C62" t="s">
-        <v>65</v>
+      <c r="A62" t="str">
+        <f>系統!E63</f>
+        <v>A225113716</v>
+      </c>
+      <c r="B62" t="str">
+        <f>IFERROR(LEFT(系統!C63,FIND("(",系統!C63)-1),系統!C63)</f>
+        <v>林毅華</v>
+      </c>
+      <c r="C62" t="str">
+        <f>系統!D63</f>
+        <v>鳳凰營業處</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A63" t="s">
-        <v>352</v>
-      </c>
-      <c r="B63" t="s">
-        <v>727</v>
-      </c>
-      <c r="C63" t="s">
-        <v>65</v>
+      <c r="A63" t="str">
+        <f>系統!E64</f>
+        <v>L220554065</v>
+      </c>
+      <c r="B63" t="str">
+        <f>IFERROR(LEFT(系統!C64,FIND("(",系統!C64)-1),系統!C64)</f>
+        <v>莊睿庭</v>
+      </c>
+      <c r="C63" t="str">
+        <f>系統!D64</f>
+        <v>鳳凰營業處</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A64" t="s">
-        <v>357</v>
-      </c>
-      <c r="B64" t="s">
-        <v>728</v>
-      </c>
-      <c r="C64" t="s">
-        <v>65</v>
+      <c r="A64" t="str">
+        <f>系統!E65</f>
+        <v>A226071646</v>
+      </c>
+      <c r="B64" t="str">
+        <f>IFERROR(LEFT(系統!C65,FIND("(",系統!C65)-1),系統!C65)</f>
+        <v>陳怜妤</v>
+      </c>
+      <c r="C64" t="str">
+        <f>系統!D65</f>
+        <v>鳳凰營業處</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A65" t="s">
-        <v>362</v>
-      </c>
-      <c r="B65" t="s">
-        <v>729</v>
-      </c>
-      <c r="C65" t="s">
-        <v>65</v>
+      <c r="A65" t="str">
+        <f>系統!E66</f>
+        <v>Q123674119</v>
+      </c>
+      <c r="B65" t="str">
+        <f>IFERROR(LEFT(系統!C66,FIND("(",系統!C66)-1),系統!C66)</f>
+        <v>黃浡承</v>
+      </c>
+      <c r="C65" t="str">
+        <f>系統!D66</f>
+        <v>鳳凰營業處</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A66" t="s">
-        <v>368</v>
-      </c>
-      <c r="B66" t="s">
-        <v>730</v>
-      </c>
-      <c r="C66" t="s">
-        <v>65</v>
+      <c r="A66" t="str">
+        <f>系統!E67</f>
+        <v>A227257140</v>
+      </c>
+      <c r="B66" t="str">
+        <f>IFERROR(LEFT(系統!C67,FIND("(",系統!C67)-1),系統!C67)</f>
+        <v>賴佩珍</v>
+      </c>
+      <c r="C66" t="str">
+        <f>系統!D67</f>
+        <v>鳳凰營業處</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A67" t="s">
-        <v>374</v>
-      </c>
-      <c r="B67" t="s">
-        <v>731</v>
-      </c>
-      <c r="C67" t="s">
-        <v>65</v>
+      <c r="A67" t="str">
+        <f>系統!E68</f>
+        <v>P223555825</v>
+      </c>
+      <c r="B67" t="str">
+        <f>IFERROR(LEFT(系統!C68,FIND("(",系統!C68)-1),系統!C68)</f>
+        <v>林泫琋</v>
+      </c>
+      <c r="C67" t="str">
+        <f>系統!D68</f>
+        <v>鳳凰營業處</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A68" t="s">
-        <v>380</v>
-      </c>
-      <c r="B68" t="s">
-        <v>732</v>
-      </c>
-      <c r="C68" t="s">
-        <v>65</v>
+      <c r="A68" t="str">
+        <f>系統!E69</f>
+        <v>F228505455</v>
+      </c>
+      <c r="B68" t="str">
+        <f>IFERROR(LEFT(系統!C69,FIND("(",系統!C69)-1),系統!C69)</f>
+        <v>葉俐伶</v>
+      </c>
+      <c r="C68" t="str">
+        <f>系統!D69</f>
+        <v>鳳凰營業處</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A69" t="s">
-        <v>387</v>
-      </c>
-      <c r="B69" t="s">
-        <v>733</v>
-      </c>
-      <c r="C69" t="s">
-        <v>65</v>
+      <c r="A69" t="str">
+        <f>系統!E70</f>
+        <v>B221922676</v>
+      </c>
+      <c r="B69" t="str">
+        <f>IFERROR(LEFT(系統!C70,FIND("(",系統!C70)-1),系統!C70)</f>
+        <v>侯宗萱</v>
+      </c>
+      <c r="C69" t="str">
+        <f>系統!D70</f>
+        <v>鳳凰營業處</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A70" t="s">
-        <v>392</v>
-      </c>
-      <c r="B70" t="s">
-        <v>734</v>
-      </c>
-      <c r="C70" t="s">
-        <v>65</v>
+      <c r="A70" t="str">
+        <f>系統!E71</f>
+        <v>G122534762</v>
+      </c>
+      <c r="B70" t="str">
+        <f>IFERROR(LEFT(系統!C71,FIND("(",系統!C71)-1),系統!C71)</f>
+        <v>陳宥任</v>
+      </c>
+      <c r="C70" t="str">
+        <f>系統!D71</f>
+        <v>鳳凰營業處</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A71" t="s">
-        <v>397</v>
-      </c>
-      <c r="B71" t="s">
-        <v>735</v>
-      </c>
-      <c r="C71" t="s">
-        <v>65</v>
+      <c r="A71" t="str">
+        <f>系統!E72</f>
+        <v>A225415840</v>
+      </c>
+      <c r="B71" t="str">
+        <f>IFERROR(LEFT(系統!C72,FIND("(",系統!C72)-1),系統!C72)</f>
+        <v>黃韻竹</v>
+      </c>
+      <c r="C71" t="str">
+        <f>系統!D72</f>
+        <v>鳳凰營業處</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A72" t="s">
-        <v>403</v>
-      </c>
-      <c r="B72" t="s">
-        <v>736</v>
-      </c>
-      <c r="C72" t="s">
-        <v>65</v>
+      <c r="A72" t="str">
+        <f>系統!E73</f>
+        <v>N124159057</v>
+      </c>
+      <c r="B72" t="str">
+        <f>IFERROR(LEFT(系統!C73,FIND("(",系統!C73)-1),系統!C73)</f>
+        <v>鄧士明</v>
+      </c>
+      <c r="C72" t="str">
+        <f>系統!D73</f>
+        <v>鳳凰營業處</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A73" t="s">
-        <v>408</v>
-      </c>
-      <c r="B73" t="s">
-        <v>737</v>
-      </c>
-      <c r="C73" t="s">
-        <v>65</v>
+      <c r="A73" t="str">
+        <f>系統!E74</f>
+        <v>A226564388</v>
+      </c>
+      <c r="B73" t="str">
+        <f>IFERROR(LEFT(系統!C74,FIND("(",系統!C74)-1),系統!C74)</f>
+        <v>曾宜婕</v>
+      </c>
+      <c r="C73" t="str">
+        <f>系統!D74</f>
+        <v>鳳凰營業處</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A74" t="s">
-        <v>413</v>
-      </c>
-      <c r="B74" t="s">
-        <v>738</v>
-      </c>
-      <c r="C74" t="s">
-        <v>65</v>
+      <c r="A74" t="str">
+        <f>系統!E75</f>
+        <v>S120140707</v>
+      </c>
+      <c r="B74" t="str">
+        <f>IFERROR(LEFT(系統!C75,FIND("(",系統!C75)-1),系統!C75)</f>
+        <v>蔡富川</v>
+      </c>
+      <c r="C74" t="str">
+        <f>系統!D75</f>
+        <v>鳳凰營業處</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A75" t="s">
-        <v>418</v>
-      </c>
-      <c r="B75" t="s">
-        <v>739</v>
-      </c>
-      <c r="C75" t="s">
-        <v>65</v>
+      <c r="A75" t="str">
+        <f>系統!E76</f>
+        <v>X220154028</v>
+      </c>
+      <c r="B75" t="str">
+        <f>IFERROR(LEFT(系統!C76,FIND("(",系統!C76)-1),系統!C76)</f>
+        <v>王琇瑛</v>
+      </c>
+      <c r="C75" t="str">
+        <f>系統!D76</f>
+        <v>鳳凰營業處</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A76" t="s">
-        <v>424</v>
-      </c>
-      <c r="B76" t="s">
-        <v>740</v>
-      </c>
-      <c r="C76" t="s">
-        <v>65</v>
+      <c r="A76" t="str">
+        <f>系統!E77</f>
+        <v>M220657982</v>
+      </c>
+      <c r="B76" t="str">
+        <f>IFERROR(LEFT(系統!C77,FIND("(",系統!C77)-1),系統!C77)</f>
+        <v>林華真</v>
+      </c>
+      <c r="C76" t="str">
+        <f>系統!D77</f>
+        <v>鳳凰營業處</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A77" t="s">
-        <v>430</v>
-      </c>
-      <c r="B77" t="s">
-        <v>741</v>
-      </c>
-      <c r="C77" t="s">
-        <v>65</v>
+      <c r="A77" t="str">
+        <f>系統!E78</f>
+        <v>A126337754</v>
+      </c>
+      <c r="B77" t="str">
+        <f>IFERROR(LEFT(系統!C78,FIND("(",系統!C78)-1),系統!C78)</f>
+        <v>林忠毅</v>
+      </c>
+      <c r="C77" t="str">
+        <f>系統!D78</f>
+        <v>鳳凰營業處</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A78" t="s">
-        <v>437</v>
-      </c>
-      <c r="B78" t="s">
-        <v>742</v>
-      </c>
-      <c r="C78" t="s">
-        <v>65</v>
+      <c r="A78" t="str">
+        <f>系統!E79</f>
+        <v>H222824317</v>
+      </c>
+      <c r="B78" t="str">
+        <f>IFERROR(LEFT(系統!C79,FIND("(",系統!C79)-1),系統!C79)</f>
+        <v>許妍羚</v>
+      </c>
+      <c r="C78" t="str">
+        <f>系統!D79</f>
+        <v>鳳凰營業處</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A79" t="s">
-        <v>443</v>
-      </c>
-      <c r="B79" t="s">
-        <v>743</v>
-      </c>
-      <c r="C79" t="s">
-        <v>65</v>
+      <c r="A79" t="str">
+        <f>系統!E80</f>
+        <v>A200111869</v>
+      </c>
+      <c r="B79" t="str">
+        <f>IFERROR(LEFT(系統!C80,FIND("(",系統!C80)-1),系統!C80)</f>
+        <v>余廖春子</v>
+      </c>
+      <c r="C79" t="str">
+        <f>系統!D80</f>
+        <v>鳳凰營業處</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A80" t="s">
-        <v>449</v>
-      </c>
-      <c r="B80" t="s">
-        <v>744</v>
-      </c>
-      <c r="C80" t="s">
-        <v>65</v>
+      <c r="A80" t="str">
+        <f>系統!E81</f>
+        <v>Q123146414</v>
+      </c>
+      <c r="B80" t="str">
+        <f>IFERROR(LEFT(系統!C81,FIND("(",系統!C81)-1),系統!C81)</f>
+        <v>張偉哲</v>
+      </c>
+      <c r="C80" t="str">
+        <f>系統!D81</f>
+        <v>鳳凰營業處</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A81" t="s">
-        <v>455</v>
-      </c>
-      <c r="B81" t="s">
-        <v>745</v>
-      </c>
-      <c r="C81" t="s">
-        <v>65</v>
+      <c r="A81" t="str">
+        <f>系統!E82</f>
+        <v>A122825566</v>
+      </c>
+      <c r="B81" t="str">
+        <f>IFERROR(LEFT(系統!C82,FIND("(",系統!C82)-1),系統!C82)</f>
+        <v>胡晴緹</v>
+      </c>
+      <c r="C81" t="str">
+        <f>系統!D82</f>
+        <v>鳳凰營業處</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A82" t="s">
-        <v>460</v>
-      </c>
-      <c r="B82" t="s">
-        <v>746</v>
-      </c>
-      <c r="C82" t="s">
-        <v>65</v>
+      <c r="A82" t="str">
+        <f>系統!E83</f>
+        <v>H102147040</v>
+      </c>
+      <c r="B82" t="str">
+        <f>IFERROR(LEFT(系統!C83,FIND("(",系統!C83)-1),系統!C83)</f>
+        <v>劉瑞品</v>
+      </c>
+      <c r="C82" t="str">
+        <f>系統!D83</f>
+        <v>鳳凰營業處</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A83" t="s">
-        <v>466</v>
-      </c>
-      <c r="B83" t="s">
-        <v>747</v>
-      </c>
-      <c r="C83" t="s">
-        <v>65</v>
+      <c r="A83" t="str">
+        <f>系統!E84</f>
+        <v>F126209670</v>
+      </c>
+      <c r="B83" t="str">
+        <f>IFERROR(LEFT(系統!C84,FIND("(",系統!C84)-1),系統!C84)</f>
+        <v>張子丰</v>
+      </c>
+      <c r="C83" t="str">
+        <f>系統!D84</f>
+        <v>鳳凰營業處</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A84" t="s">
-        <v>472</v>
-      </c>
-      <c r="B84" t="s">
-        <v>748</v>
-      </c>
-      <c r="C84" t="s">
-        <v>65</v>
+      <c r="A84" t="str">
+        <f>系統!E85</f>
+        <v>C120594864</v>
+      </c>
+      <c r="B84" t="str">
+        <f>IFERROR(LEFT(系統!C85,FIND("(",系統!C85)-1),系統!C85)</f>
+        <v>王瑞騰</v>
+      </c>
+      <c r="C84" t="str">
+        <f>系統!D85</f>
+        <v>鳳凰營業處</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A85" t="s">
-        <v>477</v>
-      </c>
-      <c r="B85" t="s">
-        <v>749</v>
-      </c>
-      <c r="C85" t="s">
-        <v>65</v>
+      <c r="A85" t="str">
+        <f>系統!E86</f>
+        <v>C120789345</v>
+      </c>
+      <c r="B85" t="str">
+        <f>IFERROR(LEFT(系統!C86,FIND("(",系統!C86)-1),系統!C86)</f>
+        <v>徐誠憶</v>
+      </c>
+      <c r="C85" t="str">
+        <f>系統!D86</f>
+        <v>鳳凰營業處</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A86" t="s">
-        <v>483</v>
-      </c>
-      <c r="B86" t="s">
-        <v>750</v>
-      </c>
-      <c r="C86" t="s">
-        <v>65</v>
+      <c r="A86" t="str">
+        <f>系統!E87</f>
+        <v>A221850656</v>
+      </c>
+      <c r="B86" t="str">
+        <f>IFERROR(LEFT(系統!C87,FIND("(",系統!C87)-1),系統!C87)</f>
+        <v>林豈妏</v>
+      </c>
+      <c r="C86" t="str">
+        <f>系統!D87</f>
+        <v>鳳凰營業處</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A87" t="s">
-        <v>489</v>
-      </c>
-      <c r="B87" t="s">
-        <v>751</v>
-      </c>
-      <c r="C87" t="s">
-        <v>65</v>
+      <c r="A87" t="str">
+        <f>系統!E88</f>
+        <v>E221033300</v>
+      </c>
+      <c r="B87" t="str">
+        <f>IFERROR(LEFT(系統!C88,FIND("(",系統!C88)-1),系統!C88)</f>
+        <v>蔡宜汶</v>
+      </c>
+      <c r="C87" t="str">
+        <f>系統!D88</f>
+        <v>鳳凰營業處</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A88" t="s">
-        <v>496</v>
-      </c>
-      <c r="B88" t="s">
-        <v>752</v>
-      </c>
-      <c r="C88" t="s">
-        <v>65</v>
+      <c r="A88" t="str">
+        <f>系統!E89</f>
+        <v>C120486929</v>
+      </c>
+      <c r="B88" t="str">
+        <f>IFERROR(LEFT(系統!C89,FIND("(",系統!C89)-1),系統!C89)</f>
+        <v>陳定濱</v>
+      </c>
+      <c r="C88" t="str">
+        <f>系統!D89</f>
+        <v>鳳凰營業處</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A89" t="s">
-        <v>502</v>
-      </c>
-      <c r="B89" t="s">
-        <v>753</v>
-      </c>
-      <c r="C89" t="s">
-        <v>65</v>
+      <c r="A89" t="str">
+        <f>系統!E90</f>
+        <v>C200163641</v>
+      </c>
+      <c r="B89" t="str">
+        <f>IFERROR(LEFT(系統!C90,FIND("(",系統!C90)-1),系統!C90)</f>
+        <v>高美麗</v>
+      </c>
+      <c r="C89" t="str">
+        <f>系統!D90</f>
+        <v>鳳凰營業處</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A90" t="s">
-        <v>508</v>
-      </c>
-      <c r="B90" t="s">
-        <v>754</v>
-      </c>
-      <c r="C90" t="s">
-        <v>65</v>
+      <c r="A90" t="str">
+        <f>系統!E91</f>
+        <v>C220814345</v>
+      </c>
+      <c r="B90" t="str">
+        <f>IFERROR(LEFT(系統!C91,FIND("(",系統!C91)-1),系統!C91)</f>
+        <v>林惠子</v>
+      </c>
+      <c r="C90" t="str">
+        <f>系統!D91</f>
+        <v>鳳凰營業處</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A91" t="s">
-        <v>514</v>
-      </c>
-      <c r="B91" t="s">
-        <v>755</v>
-      </c>
-      <c r="C91" t="s">
-        <v>65</v>
+      <c r="A91" t="str">
+        <f>系統!E92</f>
+        <v>M220650170</v>
+      </c>
+      <c r="B91" t="str">
+        <f>IFERROR(LEFT(系統!C92,FIND("(",系統!C92)-1),系統!C92)</f>
+        <v>林雅芳</v>
+      </c>
+      <c r="C91" t="str">
+        <f>系統!D92</f>
+        <v>鳳凰營業處</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A92" t="s">
-        <v>520</v>
-      </c>
-      <c r="B92" t="s">
-        <v>756</v>
-      </c>
-      <c r="C92" t="s">
-        <v>65</v>
+      <c r="A92" t="str">
+        <f>系統!E93</f>
+        <v>T200502464</v>
+      </c>
+      <c r="B92" t="str">
+        <f>IFERROR(LEFT(系統!C93,FIND("(",系統!C93)-1),系統!C93)</f>
+        <v>蔡胡錦霞</v>
+      </c>
+      <c r="C92" t="str">
+        <f>系統!D93</f>
+        <v>鳳凰營業處</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A93" t="s">
-        <v>526</v>
-      </c>
-      <c r="B93" t="s">
-        <v>757</v>
-      </c>
-      <c r="C93" t="s">
-        <v>65</v>
+      <c r="A93" t="str">
+        <f>系統!E94</f>
+        <v>R223261624</v>
+      </c>
+      <c r="B93" t="str">
+        <f>IFERROR(LEFT(系統!C94,FIND("(",系統!C94)-1),系統!C94)</f>
+        <v>吳庭筠</v>
+      </c>
+      <c r="C93" t="str">
+        <f>系統!D94</f>
+        <v>鳳凰營業處</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A94" t="s">
-        <v>532</v>
-      </c>
-      <c r="B94" t="s">
-        <v>758</v>
-      </c>
-      <c r="C94" t="s">
-        <v>65</v>
+      <c r="A94" t="str">
+        <f>系統!E95</f>
+        <v>J221830965</v>
+      </c>
+      <c r="B94" t="str">
+        <f>IFERROR(LEFT(系統!C95,FIND("(",系統!C95)-1),系統!C95)</f>
+        <v>楊容琳</v>
+      </c>
+      <c r="C94" t="str">
+        <f>系統!D95</f>
+        <v>鳳凰營業處</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A95" t="s">
-        <v>539</v>
-      </c>
-      <c r="B95" t="s">
-        <v>759</v>
-      </c>
-      <c r="C95" t="s">
-        <v>65</v>
+      <c r="A95" t="str">
+        <f>系統!E96</f>
+        <v>G221860292</v>
+      </c>
+      <c r="B95" t="str">
+        <f>IFERROR(LEFT(系統!C96,FIND("(",系統!C96)-1),系統!C96)</f>
+        <v>陳思妤</v>
+      </c>
+      <c r="C95" t="str">
+        <f>系統!D96</f>
+        <v>鳳凰營業處</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A96" t="s">
-        <v>544</v>
-      </c>
-      <c r="B96" t="s">
-        <v>760</v>
-      </c>
-      <c r="C96" t="s">
-        <v>65</v>
+      <c r="A96" t="str">
+        <f>系統!E97</f>
+        <v>F224878393</v>
+      </c>
+      <c r="B96" t="str">
+        <f>IFERROR(LEFT(系統!C97,FIND("(",系統!C97)-1),系統!C97)</f>
+        <v>張豑云</v>
+      </c>
+      <c r="C96" t="str">
+        <f>系統!D97</f>
+        <v>鳳凰營業處</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A97" t="s">
-        <v>548</v>
-      </c>
-      <c r="B97" t="s">
-        <v>761</v>
-      </c>
-      <c r="C97" t="s">
-        <v>65</v>
+      <c r="A97" t="str">
+        <f>系統!E98</f>
+        <v>H220075469</v>
+      </c>
+      <c r="B97" t="str">
+        <f>IFERROR(LEFT(系統!C98,FIND("(",系統!C98)-1),系統!C98)</f>
+        <v>游劍羽</v>
+      </c>
+      <c r="C97" t="str">
+        <f>系統!D98</f>
+        <v>鳳凰營業處</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A98" t="s">
-        <v>554</v>
-      </c>
-      <c r="B98" t="s">
-        <v>762</v>
-      </c>
-      <c r="C98" t="s">
-        <v>65</v>
+      <c r="A98" t="str">
+        <f>系統!E99</f>
+        <v>F229043309</v>
+      </c>
+      <c r="B98" t="str">
+        <f>IFERROR(LEFT(系統!C99,FIND("(",系統!C99)-1),系統!C99)</f>
+        <v>施如耘</v>
+      </c>
+      <c r="C98" t="str">
+        <f>系統!D99</f>
+        <v>鳳凰營業處</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A99" t="s">
-        <v>559</v>
-      </c>
-      <c r="B99" t="s">
-        <v>763</v>
-      </c>
-      <c r="C99" t="s">
-        <v>65</v>
+      <c r="A99" t="str">
+        <f>系統!E100</f>
+        <v>H202277518</v>
+      </c>
+      <c r="B99" t="str">
+        <f>IFERROR(LEFT(系統!C100,FIND("(",系統!C100)-1),系統!C100)</f>
+        <v>江許月娥</v>
+      </c>
+      <c r="C99" t="str">
+        <f>系統!D100</f>
+        <v>鳳凰營業處</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A100" t="s">
-        <v>566</v>
-      </c>
-      <c r="B100" t="s">
-        <v>764</v>
-      </c>
-      <c r="C100" t="s">
-        <v>565</v>
+      <c r="A100" t="str">
+        <f>系統!E101</f>
+        <v>A122023277</v>
+      </c>
+      <c r="B100" t="str">
+        <f>IFERROR(LEFT(系統!C101,FIND("(",系統!C101)-1),系統!C101)</f>
+        <v>鄭玉章</v>
+      </c>
+      <c r="C100" t="str">
+        <f>系統!D101</f>
+        <v>卓越營業處</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A101" t="s">
-        <v>571</v>
-      </c>
-      <c r="B101" t="s">
-        <v>765</v>
-      </c>
-      <c r="C101" t="s">
-        <v>565</v>
+      <c r="A101" t="str">
+        <f>系統!E102</f>
+        <v>A223236207</v>
+      </c>
+      <c r="B101" t="str">
+        <f>IFERROR(LEFT(系統!C102,FIND("(",系統!C102)-1),系統!C102)</f>
+        <v>柯沛涵</v>
+      </c>
+      <c r="C101" t="str">
+        <f>系統!D102</f>
+        <v>卓越營業處</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A102" t="s">
-        <v>577</v>
-      </c>
-      <c r="B102" t="s">
-        <v>766</v>
-      </c>
-      <c r="C102" t="s">
-        <v>565</v>
+      <c r="A102" t="str">
+        <f>系統!E103</f>
+        <v>A222207051</v>
+      </c>
+      <c r="B102" t="str">
+        <f>IFERROR(LEFT(系統!C103,FIND("(",系統!C103)-1),系統!C103)</f>
+        <v>陳文琴</v>
+      </c>
+      <c r="C102" t="str">
+        <f>系統!D103</f>
+        <v>卓越營業處</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A103" t="s">
-        <v>584</v>
-      </c>
-      <c r="B103" t="s">
-        <v>767</v>
-      </c>
-      <c r="C103" t="s">
-        <v>583</v>
+      <c r="A103" t="str">
+        <f>系統!E104</f>
+        <v>S121213094</v>
+      </c>
+      <c r="B103" t="str">
+        <f>IFERROR(LEFT(系統!C104,FIND("(",系統!C104)-1),系統!C104)</f>
+        <v>鄭宗安</v>
+      </c>
+      <c r="C103" t="str">
+        <f>系統!D104</f>
+        <v>鄭宗安營業處</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A104" t="s">
-        <v>589</v>
-      </c>
-      <c r="B104" t="s">
-        <v>768</v>
-      </c>
-      <c r="C104" t="s">
-        <v>583</v>
+      <c r="A104" t="str">
+        <f>系統!E105</f>
+        <v>AG120381227</v>
+      </c>
+      <c r="B104" t="str">
+        <f>IFERROR(LEFT(系統!C105,FIND("(",系統!C105)-1),系統!C105)</f>
+        <v>謝守席</v>
+      </c>
+      <c r="C104" t="str">
+        <f>系統!D105</f>
+        <v>鄭宗安營業處</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A105" t="s">
-        <v>594</v>
-      </c>
-      <c r="B105" t="s">
-        <v>769</v>
-      </c>
-      <c r="C105" t="s">
-        <v>583</v>
+      <c r="A105" t="str">
+        <f>系統!E106</f>
+        <v>A121486225</v>
+      </c>
+      <c r="B105" t="str">
+        <f>IFERROR(LEFT(系統!C106,FIND("(",系統!C106)-1),系統!C106)</f>
+        <v>吳文昆</v>
+      </c>
+      <c r="C105" t="str">
+        <f>系統!D106</f>
+        <v>鄭宗安營業處</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A106" t="s">
-        <v>600</v>
-      </c>
-      <c r="B106" t="s">
-        <v>770</v>
-      </c>
-      <c r="C106" t="s">
-        <v>583</v>
+      <c r="A106" t="str">
+        <f>系統!E107</f>
+        <v>H120183286</v>
+      </c>
+      <c r="B106" t="str">
+        <f>IFERROR(LEFT(系統!C107,FIND("(",系統!C107)-1),系統!C107)</f>
+        <v>陳逸政</v>
+      </c>
+      <c r="C106" t="str">
+        <f>系統!D107</f>
+        <v>鄭宗安營業處</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A107" t="s">
-        <v>606</v>
-      </c>
-      <c r="B107" t="s">
-        <v>771</v>
-      </c>
-      <c r="C107" t="s">
-        <v>583</v>
+      <c r="A107" t="str">
+        <f>系統!E108</f>
+        <v>G220792017</v>
+      </c>
+      <c r="B107" t="str">
+        <f>IFERROR(LEFT(系統!C108,FIND("(",系統!C108)-1),系統!C108)</f>
+        <v>張美珠</v>
+      </c>
+      <c r="C107" t="str">
+        <f>系統!D108</f>
+        <v>鄭宗安營業處</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A108" t="s">
-        <v>613</v>
-      </c>
-      <c r="B108" t="s">
-        <v>772</v>
-      </c>
-      <c r="C108" t="s">
-        <v>612</v>
+      <c r="A108" t="str">
+        <f>系統!E109</f>
+        <v>A221764557</v>
+      </c>
+      <c r="B108" t="str">
+        <f>IFERROR(LEFT(系統!C109,FIND("(",系統!C109)-1),系統!C109)</f>
+        <v>王藝臻</v>
+      </c>
+      <c r="C108" t="str">
+        <f>系統!D109</f>
+        <v>儷寶營業處</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A109" t="s">
-        <v>618</v>
-      </c>
-      <c r="B109" t="s">
-        <v>773</v>
-      </c>
-      <c r="C109" t="s">
-        <v>612</v>
+      <c r="A109" t="str">
+        <f>系統!E110</f>
+        <v>E120516906</v>
+      </c>
+      <c r="B109" t="str">
+        <f>IFERROR(LEFT(系統!C110,FIND("(",系統!C110)-1),系統!C110)</f>
+        <v>施華生</v>
+      </c>
+      <c r="C109" t="str">
+        <f>系統!D110</f>
+        <v>儷寶營業處</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A110" t="s">
-        <v>624</v>
-      </c>
-      <c r="B110" t="s">
-        <v>774</v>
-      </c>
-      <c r="C110" t="s">
-        <v>612</v>
+      <c r="A110" t="str">
+        <f>系統!E111</f>
+        <v>Q220525120</v>
+      </c>
+      <c r="B110" t="str">
+        <f>IFERROR(LEFT(系統!C111,FIND("(",系統!C111)-1),系統!C111)</f>
+        <v>蕭婕鎂</v>
+      </c>
+      <c r="C110" t="str">
+        <f>系統!D111</f>
+        <v>儷寶營業處</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A111" t="s">
-        <v>630</v>
-      </c>
-      <c r="B111" t="s">
-        <v>775</v>
-      </c>
-      <c r="C111" t="s">
-        <v>612</v>
+      <c r="A111" t="str">
+        <f>系統!E112</f>
+        <v>F220233343</v>
+      </c>
+      <c r="B111" t="str">
+        <f>IFERROR(LEFT(系統!C112,FIND("(",系統!C112)-1),系統!C112)</f>
+        <v>吳連娣</v>
+      </c>
+      <c r="C111" t="str">
+        <f>系統!D112</f>
+        <v>儷寶營業處</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A112" t="s">
-        <v>635</v>
-      </c>
-      <c r="B112" t="s">
-        <v>776</v>
-      </c>
-      <c r="C112" t="s">
-        <v>612</v>
+      <c r="A112" t="str">
+        <f>系統!E113</f>
+        <v>Q220631865</v>
+      </c>
+      <c r="B112" t="str">
+        <f>IFERROR(LEFT(系統!C113,FIND("(",系統!C113)-1),系統!C113)</f>
+        <v>柳秋梅</v>
+      </c>
+      <c r="C112" t="str">
+        <f>系統!D113</f>
+        <v>儷寶營業處</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A113" t="s">
-        <v>641</v>
-      </c>
-      <c r="B113" t="s">
-        <v>777</v>
-      </c>
-      <c r="C113" t="s">
-        <v>640</v>
+      <c r="A113" t="str">
+        <f>系統!E114</f>
+        <v>E221166662</v>
+      </c>
+      <c r="B113" t="str">
+        <f>IFERROR(LEFT(系統!C114,FIND("(",系統!C114)-1),系統!C114)</f>
+        <v>張品竹</v>
+      </c>
+      <c r="C113" t="str">
+        <f>系統!D114</f>
+        <v>利百佳營業處</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A114" t="s">
-        <v>647</v>
-      </c>
-      <c r="B114" t="s">
-        <v>778</v>
-      </c>
-      <c r="C114" t="s">
-        <v>640</v>
+      <c r="A114" t="str">
+        <f>系統!E115</f>
+        <v>C120217728</v>
+      </c>
+      <c r="B114" t="str">
+        <f>IFERROR(LEFT(系統!C115,FIND("(",系統!C115)-1),系統!C115)</f>
+        <v>莊讚祥</v>
+      </c>
+      <c r="C114" t="str">
+        <f>系統!D115</f>
+        <v>利百佳營業處</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A115" t="s">
-        <v>654</v>
-      </c>
-      <c r="B115" t="s">
-        <v>779</v>
-      </c>
-      <c r="C115" t="s">
-        <v>653</v>
+      <c r="A115" t="str">
+        <f>系統!E116</f>
+        <v>F126403598</v>
+      </c>
+      <c r="B115" t="str">
+        <f>IFERROR(LEFT(系統!C116,FIND("(",系統!C116)-1),系統!C116)</f>
+        <v>陳韋滔</v>
+      </c>
+      <c r="C115" t="str">
+        <f>系統!D116</f>
+        <v>星啓方舟營業處</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A116" t="s">
-        <v>659</v>
-      </c>
-      <c r="B116" t="s">
-        <v>780</v>
-      </c>
-      <c r="C116" t="s">
-        <v>653</v>
+      <c r="A116" t="str">
+        <f>系統!E117</f>
+        <v>F127709919</v>
+      </c>
+      <c r="B116" t="str">
+        <f>IFERROR(LEFT(系統!C117,FIND("(",系統!C117)-1),系統!C117)</f>
+        <v>林忠衡</v>
+      </c>
+      <c r="C116" t="str">
+        <f>系統!D117</f>
+        <v>星啓方舟營業處</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A117" t="s">
-        <v>665</v>
-      </c>
-      <c r="B117" t="s">
-        <v>781</v>
-      </c>
-      <c r="C117" t="s">
-        <v>653</v>
+      <c r="A117" t="str">
+        <f>系統!E118</f>
+        <v>N125483605</v>
+      </c>
+      <c r="B117" t="str">
+        <f>IFERROR(LEFT(系統!C118,FIND("(",系統!C118)-1),系統!C118)</f>
+        <v>賴彥碩</v>
+      </c>
+      <c r="C117" t="str">
+        <f>系統!D118</f>
+        <v>星啓方舟營業處</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A118">
-        <v>0</v>
-      </c>
-      <c r="B118" t="s">
-        <v>668</v>
-      </c>
-      <c r="C118" t="s">
-        <v>669</v>
+        <f>系統!E119</f>
+        <v>0</v>
+      </c>
+      <c r="B118" t="str">
+        <f>IFERROR(LEFT(系統!C119,FIND("(",系統!C119)-1),系統!C119)</f>
+        <v>公司直銷</v>
+      </c>
+      <c r="C118" t="str">
+        <f>系統!D119</f>
+        <v>營業處</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A119">
+        <f>系統!E120</f>
         <v>0</v>
       </c>
       <c r="B119">
+        <f>IFERROR(LEFT(系統!C120,FIND("(",系統!C120)-1),系統!C120)</f>
         <v>0</v>
       </c>
       <c r="C119">
+        <f>系統!D120</f>
         <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A120">
+        <f>系統!E121</f>
         <v>0</v>
       </c>
       <c r="B120">
+        <f>IFERROR(LEFT(系統!C121,FIND("(",系統!C121)-1),系統!C121)</f>
         <v>0</v>
       </c>
       <c r="C120">
+        <f>系統!D121</f>
         <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A121">
+        <f>系統!E122</f>
         <v>0</v>
       </c>
       <c r="B121">
+        <f>IFERROR(LEFT(系統!C122,FIND("(",系統!C122)-1),系統!C122)</f>
         <v>0</v>
       </c>
       <c r="C121">
+        <f>系統!D122</f>
         <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A122">
+        <f>系統!E123</f>
         <v>0</v>
       </c>
       <c r="B122">
+        <f>IFERROR(LEFT(系統!C123,FIND("(",系統!C123)-1),系統!C123)</f>
         <v>0</v>
       </c>
       <c r="C122">
+        <f>系統!D123</f>
         <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A123">
+        <f>系統!E124</f>
         <v>0</v>
       </c>
       <c r="B123">
+        <f>IFERROR(LEFT(系統!C124,FIND("(",系統!C124)-1),系統!C124)</f>
         <v>0</v>
       </c>
       <c r="C123">
+        <f>系統!D124</f>
         <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A124">
+        <f>系統!E125</f>
         <v>0</v>
       </c>
       <c r="B124">
+        <f>IFERROR(LEFT(系統!C125,FIND("(",系統!C125)-1),系統!C125)</f>
         <v>0</v>
       </c>
       <c r="C124">
+        <f>系統!D125</f>
         <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A125">
+        <f>系統!E126</f>
         <v>0</v>
       </c>
       <c r="B125">
+        <f>IFERROR(LEFT(系統!C126,FIND("(",系統!C126)-1),系統!C126)</f>
         <v>0</v>
       </c>
       <c r="C125">
+        <f>系統!D126</f>
         <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A126">
+        <f>系統!E127</f>
         <v>0</v>
       </c>
       <c r="B126">
+        <f>IFERROR(LEFT(系統!C127,FIND("(",系統!C127)-1),系統!C127)</f>
         <v>0</v>
       </c>
       <c r="C126">
+        <f>系統!D127</f>
         <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A127">
+        <f>系統!E128</f>
         <v>0</v>
       </c>
       <c r="B127">
+        <f>IFERROR(LEFT(系統!C128,FIND("(",系統!C128)-1),系統!C128)</f>
         <v>0</v>
       </c>
       <c r="C127">
+        <f>系統!D128</f>
         <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A128">
+        <f>系統!E129</f>
         <v>0</v>
       </c>
       <c r="B128">
+        <f>IFERROR(LEFT(系統!C129,FIND("(",系統!C129)-1),系統!C129)</f>
         <v>0</v>
       </c>
       <c r="C128">
+        <f>系統!D129</f>
         <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A129">
+        <f>系統!E130</f>
         <v>0</v>
       </c>
       <c r="B129">
+        <f>IFERROR(LEFT(系統!C130,FIND("(",系統!C130)-1),系統!C130)</f>
         <v>0</v>
       </c>
       <c r="C129">
+        <f>系統!D130</f>
         <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A130">
+        <f>系統!E131</f>
         <v>0</v>
       </c>
       <c r="B130">
+        <f>IFERROR(LEFT(系統!C131,FIND("(",系統!C131)-1),系統!C131)</f>
         <v>0</v>
       </c>
       <c r="C130">
+        <f>系統!D131</f>
         <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A131">
+        <f>系統!E132</f>
         <v>0</v>
       </c>
       <c r="B131">
+        <f>IFERROR(LEFT(系統!C132,FIND("(",系統!C132)-1),系統!C132)</f>
         <v>0</v>
       </c>
       <c r="C131">
+        <f>系統!D132</f>
         <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A132">
+        <f>系統!E133</f>
         <v>0</v>
       </c>
       <c r="B132">
+        <f>IFERROR(LEFT(系統!C133,FIND("(",系統!C133)-1),系統!C133)</f>
         <v>0</v>
       </c>
       <c r="C132">
+        <f>系統!D133</f>
         <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A133">
+        <f>系統!E134</f>
         <v>0</v>
       </c>
       <c r="B133">
+        <f>IFERROR(LEFT(系統!C134,FIND("(",系統!C134)-1),系統!C134)</f>
         <v>0</v>
       </c>
       <c r="C133">
+        <f>系統!D134</f>
         <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A134">
+        <f>系統!E135</f>
         <v>0</v>
       </c>
       <c r="B134">
+        <f>IFERROR(LEFT(系統!C135,FIND("(",系統!C135)-1),系統!C135)</f>
         <v>0</v>
       </c>
       <c r="C134">
+        <f>系統!D135</f>
         <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A135">
+        <f>系統!E136</f>
         <v>0</v>
       </c>
       <c r="B135">
+        <f>IFERROR(LEFT(系統!C136,FIND("(",系統!C136)-1),系統!C136)</f>
         <v>0</v>
       </c>
       <c r="C135">
+        <f>系統!D136</f>
         <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A136">
+        <f>系統!E137</f>
         <v>0</v>
       </c>
       <c r="B136">
+        <f>IFERROR(LEFT(系統!C137,FIND("(",系統!C137)-1),系統!C137)</f>
         <v>0</v>
       </c>
       <c r="C136">
+        <f>系統!D137</f>
         <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A137">
+        <f>系統!E138</f>
         <v>0</v>
       </c>
       <c r="B137">
+        <f>IFERROR(LEFT(系統!C138,FIND("(",系統!C138)-1),系統!C138)</f>
         <v>0</v>
       </c>
       <c r="C137">
+        <f>系統!D138</f>
         <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A138">
+        <f>系統!E139</f>
         <v>0</v>
       </c>
       <c r="B138">
+        <f>IFERROR(LEFT(系統!C139,FIND("(",系統!C139)-1),系統!C139)</f>
         <v>0</v>
       </c>
       <c r="C138">
+        <f>系統!D139</f>
         <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A139">
+        <f>系統!E140</f>
         <v>0</v>
       </c>
       <c r="B139">
+        <f>IFERROR(LEFT(系統!C140,FIND("(",系統!C140)-1),系統!C140)</f>
         <v>0</v>
       </c>
       <c r="C139">
+        <f>系統!D140</f>
         <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A140">
+        <f>系統!E141</f>
         <v>0</v>
       </c>
       <c r="B140">
+        <f>IFERROR(LEFT(系統!C141,FIND("(",系統!C141)-1),系統!C141)</f>
         <v>0</v>
       </c>
       <c r="C140">
+        <f>系統!D141</f>
         <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A141">
+        <f>系統!E142</f>
         <v>0</v>
       </c>
       <c r="B141">
+        <f>IFERROR(LEFT(系統!C142,FIND("(",系統!C142)-1),系統!C142)</f>
         <v>0</v>
       </c>
       <c r="C141">
+        <f>系統!D142</f>
         <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A142">
+        <f>系統!E143</f>
         <v>0</v>
       </c>
       <c r="B142">
+        <f>IFERROR(LEFT(系統!C143,FIND("(",系統!C143)-1),系統!C143)</f>
         <v>0</v>
       </c>
       <c r="C142">
+        <f>系統!D143</f>
         <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A143">
+        <f>系統!E144</f>
         <v>0</v>
       </c>
       <c r="B143">
+        <f>IFERROR(LEFT(系統!C144,FIND("(",系統!C144)-1),系統!C144)</f>
         <v>0</v>
       </c>
       <c r="C143">
+        <f>系統!D144</f>
         <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A144">
+        <f>系統!E145</f>
         <v>0</v>
       </c>
       <c r="B144">
+        <f>IFERROR(LEFT(系統!C145,FIND("(",系統!C145)-1),系統!C145)</f>
         <v>0</v>
       </c>
       <c r="C144">
+        <f>系統!D145</f>
         <v>0</v>
       </c>
     </row>
@@ -4349,7 +4445,7 @@
   <dimension ref="A1:K120"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.149999999999999" x14ac:dyDescent="0.45"/>

--- a/my_app/在職業務名單.xlsx
+++ b/my_app/在職業務名單.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jerry.APEX\Desktop\my_app\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jerry.APEX\OneDrive\建議書\my_app\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1143" uniqueCount="671">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1146" uniqueCount="674">
   <si>
     <t>業務身份證字號</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2041,6 +2041,18 @@
   </si>
   <si>
     <t>2025/10/21  17:07:04</t>
+  </si>
+  <si>
+    <t>F888888888</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王大明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AA營業處</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2410,8 +2422,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C144"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="A125" workbookViewId="0">
+      <selection activeCell="C136" sqref="C136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.149999999999999" x14ac:dyDescent="0.45"/>
@@ -4421,17 +4433,14 @@
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A144">
-        <f>系統!E145</f>
-        <v>0</v>
-      </c>
-      <c r="B144">
-        <f>IFERROR(LEFT(系統!C145,FIND("(",系統!C145)-1),系統!C145)</f>
-        <v>0</v>
-      </c>
-      <c r="C144">
-        <f>系統!D145</f>
-        <v>0</v>
+      <c r="A144" t="s">
+        <v>671</v>
+      </c>
+      <c r="B144" t="s">
+        <v>672</v>
+      </c>
+      <c r="C144" t="s">
+        <v>673</v>
       </c>
     </row>
   </sheetData>

--- a/my_app/在職業務名單.xlsx
+++ b/my_app/在職業務名單.xlsx
@@ -15,6 +15,9 @@
     <sheet name="名單" sheetId="1" r:id="rId1"/>
     <sheet name="系統" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">系統!$A$2:$K$120</definedName>
+  </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -25,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1146" uniqueCount="674">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1268" uniqueCount="739">
   <si>
     <t>業務身份證字號</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1407,9 +1410,6 @@
     <t>FH0103020204</t>
   </si>
   <si>
-    <t>劉瑞品(部門主任)</t>
-  </si>
-  <si>
     <t>H102147040</t>
   </si>
   <si>
@@ -1539,9 +1539,6 @@
     <t>C200163641</t>
   </si>
   <si>
-    <t>114/08/23</t>
-  </si>
-  <si>
     <t>0930-190553</t>
   </si>
   <si>
@@ -1575,9 +1572,6 @@
     <t>M220650170</t>
   </si>
   <si>
-    <t>114/09/25</t>
-  </si>
-  <si>
     <t>0936-588941</t>
   </si>
   <si>
@@ -1716,84 +1710,12 @@
     <t>0912-539877</t>
   </si>
   <si>
-    <t>JY00001</t>
-  </si>
-  <si>
-    <t>JY01</t>
-  </si>
-  <si>
-    <t>鄭玉章(部門副總經理)</t>
-  </si>
-  <si>
-    <t>卓越營業處</t>
-  </si>
-  <si>
-    <t>A122023277</t>
-  </si>
-  <si>
-    <t>0910-243057</t>
-  </si>
-  <si>
-    <t>JY00002</t>
-  </si>
-  <si>
-    <t>JY0102</t>
-  </si>
-  <si>
-    <t>柯沛涵(部門處長)</t>
-  </si>
-  <si>
-    <t>A223236207</t>
-  </si>
-  <si>
-    <t>2025/04/08</t>
-  </si>
-  <si>
-    <t>0955-309339</t>
-  </si>
-  <si>
-    <t>JY00004</t>
-  </si>
-  <si>
-    <t>JY0101</t>
-  </si>
-  <si>
-    <t>陳文琴(總監)</t>
-  </si>
-  <si>
-    <t>A222207051</t>
-  </si>
-  <si>
-    <t>2025/04/14</t>
-  </si>
-  <si>
-    <t>0928884700</t>
-  </si>
-  <si>
-    <t>JZA0001</t>
-  </si>
-  <si>
-    <t>JZ01</t>
-  </si>
-  <si>
-    <t>鄭宗安(部門副總經理)</t>
-  </si>
-  <si>
-    <t>鄭宗安營業處</t>
-  </si>
-  <si>
     <t>S121213094</t>
   </si>
   <si>
     <t>0903-727311</t>
   </si>
   <si>
-    <t>JZA0002</t>
-  </si>
-  <si>
-    <t>JZ0104</t>
-  </si>
-  <si>
     <t>謝守席(部門總監)</t>
   </si>
   <si>
@@ -1803,12 +1725,6 @@
     <t>0900-193351</t>
   </si>
   <si>
-    <t>JZA0003</t>
-  </si>
-  <si>
-    <t>JZ0101</t>
-  </si>
-  <si>
     <t>吳文昆(部門總監)</t>
   </si>
   <si>
@@ -1821,12 +1737,6 @@
     <t>0932-039592</t>
   </si>
   <si>
-    <t>JZA0004</t>
-  </si>
-  <si>
-    <t>JZ0103</t>
-  </si>
-  <si>
     <t>陳逸政(部門總監)</t>
   </si>
   <si>
@@ -1839,12 +1749,6 @@
     <t>0927-536365</t>
   </si>
   <si>
-    <t>JZA0005</t>
-  </si>
-  <si>
-    <t>JZ0102</t>
-  </si>
-  <si>
     <t>張美珠(部門總監)</t>
   </si>
   <si>
@@ -2038,9 +1942,6 @@
   </si>
   <si>
     <t>營業處</t>
-  </si>
-  <si>
-    <t>2025/10/21  17:07:04</t>
   </si>
   <si>
     <t>F888888888</t>
@@ -2053,6 +1954,303 @@
   <si>
     <t>AA營業處</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>劉端品(部門主任)</t>
+  </si>
+  <si>
+    <t>FH00091</t>
+  </si>
+  <si>
+    <t>FH0103020103</t>
+  </si>
+  <si>
+    <t>曾菁菁(部門主任)</t>
+  </si>
+  <si>
+    <t>S220916589</t>
+  </si>
+  <si>
+    <t>0910-756855</t>
+  </si>
+  <si>
+    <t>FH00092</t>
+  </si>
+  <si>
+    <t>FH0103020104</t>
+  </si>
+  <si>
+    <t>郭峻湖(部門主任)</t>
+  </si>
+  <si>
+    <t>B121261336</t>
+  </si>
+  <si>
+    <t>0908-776877</t>
+  </si>
+  <si>
+    <t>FH00093</t>
+  </si>
+  <si>
+    <t>FH0103020105</t>
+  </si>
+  <si>
+    <t>李任楠(部門主任)</t>
+  </si>
+  <si>
+    <t>F126920601</t>
+  </si>
+  <si>
+    <t>2025/06/05</t>
+  </si>
+  <si>
+    <t>0930-859489</t>
+  </si>
+  <si>
+    <t>FH00094</t>
+  </si>
+  <si>
+    <t>黃睿駖(部門主任)</t>
+  </si>
+  <si>
+    <t>P220458909</t>
+  </si>
+  <si>
+    <t>2025/05/18</t>
+  </si>
+  <si>
+    <t>0968-026862</t>
+  </si>
+  <si>
+    <t>FH00095</t>
+  </si>
+  <si>
+    <t>FH010107</t>
+  </si>
+  <si>
+    <t>李虹樵(部門主任)</t>
+  </si>
+  <si>
+    <t>A221172951</t>
+  </si>
+  <si>
+    <t>2025/05/29</t>
+  </si>
+  <si>
+    <t>0919-023228</t>
+  </si>
+  <si>
+    <t>FH00096</t>
+  </si>
+  <si>
+    <t>FH010108</t>
+  </si>
+  <si>
+    <t>謝雅淇(部門主任)</t>
+  </si>
+  <si>
+    <t>R221453535</t>
+  </si>
+  <si>
+    <t>0976-142862</t>
+  </si>
+  <si>
+    <t>FH00097</t>
+  </si>
+  <si>
+    <t>FH01030301</t>
+  </si>
+  <si>
+    <t>孫世鴻(部門主任)</t>
+  </si>
+  <si>
+    <t>A123379465</t>
+  </si>
+  <si>
+    <t>2025/</t>
+  </si>
+  <si>
+    <t>0989-928850</t>
+  </si>
+  <si>
+    <t>FH00098</t>
+  </si>
+  <si>
+    <t>FH01030302</t>
+  </si>
+  <si>
+    <t>李羽潔(部門主任)</t>
+  </si>
+  <si>
+    <t>A227273171</t>
+  </si>
+  <si>
+    <t>2025/09/18</t>
+  </si>
+  <si>
+    <t>0933-211874</t>
+  </si>
+  <si>
+    <t>FH00099</t>
+  </si>
+  <si>
+    <t>FH01010302</t>
+  </si>
+  <si>
+    <t>王勝民(部門經理)</t>
+  </si>
+  <si>
+    <t>A127908855</t>
+  </si>
+  <si>
+    <t>0978-755655</t>
+  </si>
+  <si>
+    <t>FH00100</t>
+  </si>
+  <si>
+    <t>FH01010303</t>
+  </si>
+  <si>
+    <t>賈中麗(部門主任)</t>
+  </si>
+  <si>
+    <t>A290122029</t>
+  </si>
+  <si>
+    <t>0921-134721</t>
+  </si>
+  <si>
+    <t>FH00101</t>
+  </si>
+  <si>
+    <t>FH01010203</t>
+  </si>
+  <si>
+    <t>謝振維(部門主任)</t>
+  </si>
+  <si>
+    <t>K121391097</t>
+  </si>
+  <si>
+    <t>林美雲(部們經理)</t>
+  </si>
+  <si>
+    <t>2025/04/23</t>
+  </si>
+  <si>
+    <t>0936-236292</t>
+  </si>
+  <si>
+    <t>FH00102</t>
+  </si>
+  <si>
+    <t>FH01010601</t>
+  </si>
+  <si>
+    <t>陳靜怡(部門主任)</t>
+  </si>
+  <si>
+    <t>P221169803</t>
+  </si>
+  <si>
+    <t>2025/05/19</t>
+  </si>
+  <si>
+    <t>0938-061207</t>
+  </si>
+  <si>
+    <t>FH00103</t>
+  </si>
+  <si>
+    <t>黃于芬(部門主任)</t>
+  </si>
+  <si>
+    <t>A225805004</t>
+  </si>
+  <si>
+    <t>2025/07/22</t>
+  </si>
+  <si>
+    <t>0988-613062</t>
+  </si>
+  <si>
+    <t>FH00104</t>
+  </si>
+  <si>
+    <t>FH010502</t>
+  </si>
+  <si>
+    <t>黃名晨(部門主任)</t>
+  </si>
+  <si>
+    <t>Q123675714</t>
+  </si>
+  <si>
+    <t>2025/05/30</t>
+  </si>
+  <si>
+    <t>0972-203619</t>
+  </si>
+  <si>
+    <t>FH00105</t>
+  </si>
+  <si>
+    <t>FH01030502</t>
+  </si>
+  <si>
+    <t>謝佩君(部門主任)</t>
+  </si>
+  <si>
+    <t>A225221535</t>
+  </si>
+  <si>
+    <t>2025/09/01</t>
+  </si>
+  <si>
+    <t>0989-274830</t>
+  </si>
+  <si>
+    <t>LBJ0003</t>
+  </si>
+  <si>
+    <t>BJ0102</t>
+  </si>
+  <si>
+    <t>鄭宗安(部門總監)</t>
+  </si>
+  <si>
+    <t>總監 降階</t>
+  </si>
+  <si>
+    <t>2025/11/1</t>
+  </si>
+  <si>
+    <t>LBJ0004</t>
+  </si>
+  <si>
+    <t>BJ010201</t>
+  </si>
+  <si>
+    <t>LBJ0005</t>
+  </si>
+  <si>
+    <t>BJ010202</t>
+  </si>
+  <si>
+    <t>LBJ0006</t>
+  </si>
+  <si>
+    <t>BJ010203</t>
+  </si>
+  <si>
+    <t>LBJ0007</t>
+  </si>
+  <si>
+    <t>BJ010204</t>
+  </si>
+  <si>
+    <t>2025/11/06  16:58:52</t>
   </si>
 </sst>
 </file>
@@ -2422,8 +2620,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C144"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A125" workbookViewId="0">
-      <selection activeCell="C136" sqref="C136"/>
+    <sheetView tabSelected="1" topLeftCell="A127" workbookViewId="0">
+      <selection activeCell="A144" sqref="A144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.149999999999999" x14ac:dyDescent="0.45"/>
@@ -3571,7 +3769,7 @@
       </c>
       <c r="B82" t="str">
         <f>IFERROR(LEFT(系統!C83,FIND("(",系統!C83)-1),系統!C83)</f>
-        <v>劉瑞品</v>
+        <v>劉端品</v>
       </c>
       <c r="C82" t="str">
         <f>系統!D83</f>
@@ -3805,11 +4003,11 @@
     <row r="99" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A99" t="str">
         <f>系統!E100</f>
-        <v>H202277518</v>
+        <v>S220916589</v>
       </c>
       <c r="B99" t="str">
         <f>IFERROR(LEFT(系統!C100,FIND("(",系統!C100)-1),系統!C100)</f>
-        <v>江許月娥</v>
+        <v>曾菁菁</v>
       </c>
       <c r="C99" t="str">
         <f>系統!D100</f>
@@ -3819,421 +4017,421 @@
     <row r="100" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A100" t="str">
         <f>系統!E101</f>
-        <v>A122023277</v>
+        <v>B121261336</v>
       </c>
       <c r="B100" t="str">
         <f>IFERROR(LEFT(系統!C101,FIND("(",系統!C101)-1),系統!C101)</f>
-        <v>鄭玉章</v>
+        <v>郭峻湖</v>
       </c>
       <c r="C100" t="str">
         <f>系統!D101</f>
-        <v>卓越營業處</v>
+        <v>鳳凰營業處</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A101" t="str">
         <f>系統!E102</f>
-        <v>A223236207</v>
+        <v>F126920601</v>
       </c>
       <c r="B101" t="str">
         <f>IFERROR(LEFT(系統!C102,FIND("(",系統!C102)-1),系統!C102)</f>
-        <v>柯沛涵</v>
+        <v>李任楠</v>
       </c>
       <c r="C101" t="str">
         <f>系統!D102</f>
-        <v>卓越營業處</v>
+        <v>鳳凰營業處</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A102" t="str">
         <f>系統!E103</f>
-        <v>A222207051</v>
+        <v>P220458909</v>
       </c>
       <c r="B102" t="str">
         <f>IFERROR(LEFT(系統!C103,FIND("(",系統!C103)-1),系統!C103)</f>
-        <v>陳文琴</v>
+        <v>黃睿駖</v>
       </c>
       <c r="C102" t="str">
         <f>系統!D103</f>
-        <v>卓越營業處</v>
+        <v>鳳凰營業處</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A103" t="str">
         <f>系統!E104</f>
-        <v>S121213094</v>
+        <v>A221172951</v>
       </c>
       <c r="B103" t="str">
         <f>IFERROR(LEFT(系統!C104,FIND("(",系統!C104)-1),系統!C104)</f>
-        <v>鄭宗安</v>
+        <v>李虹樵</v>
       </c>
       <c r="C103" t="str">
         <f>系統!D104</f>
-        <v>鄭宗安營業處</v>
+        <v>鳳凰營業處</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A104" t="str">
         <f>系統!E105</f>
-        <v>AG120381227</v>
+        <v>R221453535</v>
       </c>
       <c r="B104" t="str">
         <f>IFERROR(LEFT(系統!C105,FIND("(",系統!C105)-1),系統!C105)</f>
-        <v>謝守席</v>
+        <v>謝雅淇</v>
       </c>
       <c r="C104" t="str">
         <f>系統!D105</f>
-        <v>鄭宗安營業處</v>
+        <v>鳳凰營業處</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A105" t="str">
         <f>系統!E106</f>
-        <v>A121486225</v>
+        <v>A123379465</v>
       </c>
       <c r="B105" t="str">
         <f>IFERROR(LEFT(系統!C106,FIND("(",系統!C106)-1),系統!C106)</f>
-        <v>吳文昆</v>
+        <v>孫世鴻</v>
       </c>
       <c r="C105" t="str">
         <f>系統!D106</f>
-        <v>鄭宗安營業處</v>
+        <v>鳳凰營業處</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A106" t="str">
         <f>系統!E107</f>
-        <v>H120183286</v>
+        <v>A227273171</v>
       </c>
       <c r="B106" t="str">
         <f>IFERROR(LEFT(系統!C107,FIND("(",系統!C107)-1),系統!C107)</f>
-        <v>陳逸政</v>
+        <v>李羽潔</v>
       </c>
       <c r="C106" t="str">
         <f>系統!D107</f>
-        <v>鄭宗安營業處</v>
+        <v>鳳凰營業處</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A107" t="str">
         <f>系統!E108</f>
-        <v>G220792017</v>
+        <v>A127908855</v>
       </c>
       <c r="B107" t="str">
         <f>IFERROR(LEFT(系統!C108,FIND("(",系統!C108)-1),系統!C108)</f>
-        <v>張美珠</v>
+        <v>王勝民</v>
       </c>
       <c r="C107" t="str">
         <f>系統!D108</f>
-        <v>鄭宗安營業處</v>
+        <v>鳳凰營業處</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A108" t="str">
         <f>系統!E109</f>
-        <v>A221764557</v>
+        <v>A290122029</v>
       </c>
       <c r="B108" t="str">
         <f>IFERROR(LEFT(系統!C109,FIND("(",系統!C109)-1),系統!C109)</f>
-        <v>王藝臻</v>
+        <v>賈中麗</v>
       </c>
       <c r="C108" t="str">
         <f>系統!D109</f>
-        <v>儷寶營業處</v>
+        <v>鳳凰營業處</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A109" t="str">
         <f>系統!E110</f>
-        <v>E120516906</v>
+        <v>K121391097</v>
       </c>
       <c r="B109" t="str">
         <f>IFERROR(LEFT(系統!C110,FIND("(",系統!C110)-1),系統!C110)</f>
-        <v>施華生</v>
+        <v>謝振維</v>
       </c>
       <c r="C109" t="str">
         <f>系統!D110</f>
-        <v>儷寶營業處</v>
+        <v>鳳凰營業處</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A110" t="str">
         <f>系統!E111</f>
-        <v>Q220525120</v>
+        <v>P221169803</v>
       </c>
       <c r="B110" t="str">
         <f>IFERROR(LEFT(系統!C111,FIND("(",系統!C111)-1),系統!C111)</f>
-        <v>蕭婕鎂</v>
+        <v>陳靜怡</v>
       </c>
       <c r="C110" t="str">
         <f>系統!D111</f>
-        <v>儷寶營業處</v>
+        <v>鳳凰營業處</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A111" t="str">
         <f>系統!E112</f>
-        <v>F220233343</v>
+        <v>A225805004</v>
       </c>
       <c r="B111" t="str">
         <f>IFERROR(LEFT(系統!C112,FIND("(",系統!C112)-1),系統!C112)</f>
-        <v>吳連娣</v>
+        <v>黃于芬</v>
       </c>
       <c r="C111" t="str">
         <f>系統!D112</f>
-        <v>儷寶營業處</v>
+        <v>鳳凰營業處</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A112" t="str">
         <f>系統!E113</f>
-        <v>Q220631865</v>
+        <v>Q123675714</v>
       </c>
       <c r="B112" t="str">
         <f>IFERROR(LEFT(系統!C113,FIND("(",系統!C113)-1),系統!C113)</f>
-        <v>柳秋梅</v>
+        <v>黃名晨</v>
       </c>
       <c r="C112" t="str">
         <f>系統!D113</f>
-        <v>儷寶營業處</v>
+        <v>鳳凰營業處</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A113" t="str">
         <f>系統!E114</f>
-        <v>E221166662</v>
+        <v>A225221535</v>
       </c>
       <c r="B113" t="str">
         <f>IFERROR(LEFT(系統!C114,FIND("(",系統!C114)-1),系統!C114)</f>
-        <v>張品竹</v>
+        <v>謝佩君</v>
       </c>
       <c r="C113" t="str">
         <f>系統!D114</f>
-        <v>利百佳營業處</v>
+        <v>鳳凰營業處</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A114" t="str">
         <f>系統!E115</f>
-        <v>C120217728</v>
+        <v>H202277518</v>
       </c>
       <c r="B114" t="str">
         <f>IFERROR(LEFT(系統!C115,FIND("(",系統!C115)-1),系統!C115)</f>
-        <v>莊讚祥</v>
+        <v>江許月娥</v>
       </c>
       <c r="C114" t="str">
         <f>系統!D115</f>
-        <v>利百佳營業處</v>
+        <v>鳳凰營業處</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A115" t="str">
         <f>系統!E116</f>
-        <v>F126403598</v>
+        <v>A221764557</v>
       </c>
       <c r="B115" t="str">
         <f>IFERROR(LEFT(系統!C116,FIND("(",系統!C116)-1),系統!C116)</f>
-        <v>陳韋滔</v>
+        <v>王藝臻</v>
       </c>
       <c r="C115" t="str">
         <f>系統!D116</f>
-        <v>星啓方舟營業處</v>
+        <v>儷寶營業處</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A116" t="str">
         <f>系統!E117</f>
-        <v>F127709919</v>
+        <v>E120516906</v>
       </c>
       <c r="B116" t="str">
         <f>IFERROR(LEFT(系統!C117,FIND("(",系統!C117)-1),系統!C117)</f>
-        <v>林忠衡</v>
+        <v>施華生</v>
       </c>
       <c r="C116" t="str">
         <f>系統!D117</f>
-        <v>星啓方舟營業處</v>
+        <v>儷寶營業處</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A117" t="str">
         <f>系統!E118</f>
-        <v>N125483605</v>
+        <v>Q220525120</v>
       </c>
       <c r="B117" t="str">
         <f>IFERROR(LEFT(系統!C118,FIND("(",系統!C118)-1),系統!C118)</f>
-        <v>賴彥碩</v>
+        <v>蕭婕鎂</v>
       </c>
       <c r="C117" t="str">
         <f>系統!D118</f>
-        <v>星啓方舟營業處</v>
+        <v>儷寶營業處</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A118">
+      <c r="A118" t="str">
         <f>系統!E119</f>
-        <v>0</v>
+        <v>F220233343</v>
       </c>
       <c r="B118" t="str">
         <f>IFERROR(LEFT(系統!C119,FIND("(",系統!C119)-1),系統!C119)</f>
-        <v>公司直銷</v>
+        <v>吳連娣</v>
       </c>
       <c r="C118" t="str">
         <f>系統!D119</f>
-        <v>營業處</v>
+        <v>儷寶營業處</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A119">
+      <c r="A119" t="str">
         <f>系統!E120</f>
-        <v>0</v>
-      </c>
-      <c r="B119">
+        <v>Q220631865</v>
+      </c>
+      <c r="B119" t="str">
         <f>IFERROR(LEFT(系統!C120,FIND("(",系統!C120)-1),系統!C120)</f>
-        <v>0</v>
-      </c>
-      <c r="C119">
+        <v>柳秋梅</v>
+      </c>
+      <c r="C119" t="str">
         <f>系統!D120</f>
-        <v>0</v>
+        <v>儷寶營業處</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A120">
+      <c r="A120" t="str">
         <f>系統!E121</f>
-        <v>0</v>
-      </c>
-      <c r="B120">
+        <v>E221166662</v>
+      </c>
+      <c r="B120" t="str">
         <f>IFERROR(LEFT(系統!C121,FIND("(",系統!C121)-1),系統!C121)</f>
-        <v>0</v>
-      </c>
-      <c r="C120">
+        <v>張品竹</v>
+      </c>
+      <c r="C120" t="str">
         <f>系統!D121</f>
-        <v>0</v>
+        <v>利百佳營業處</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A121">
+      <c r="A121" t="str">
         <f>系統!E122</f>
-        <v>0</v>
-      </c>
-      <c r="B121">
+        <v>C120217728</v>
+      </c>
+      <c r="B121" t="str">
         <f>IFERROR(LEFT(系統!C122,FIND("(",系統!C122)-1),系統!C122)</f>
-        <v>0</v>
-      </c>
-      <c r="C121">
+        <v>莊讚祥</v>
+      </c>
+      <c r="C121" t="str">
         <f>系統!D122</f>
-        <v>0</v>
+        <v>利百佳營業處</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A122">
+      <c r="A122" t="str">
         <f>系統!E123</f>
-        <v>0</v>
-      </c>
-      <c r="B122">
+        <v>S121213094</v>
+      </c>
+      <c r="B122" t="str">
         <f>IFERROR(LEFT(系統!C123,FIND("(",系統!C123)-1),系統!C123)</f>
-        <v>0</v>
-      </c>
-      <c r="C122">
+        <v>鄭宗安</v>
+      </c>
+      <c r="C122" t="str">
         <f>系統!D123</f>
-        <v>0</v>
+        <v>利百佳營業處</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A123">
+      <c r="A123" t="str">
         <f>系統!E124</f>
-        <v>0</v>
-      </c>
-      <c r="B123">
+        <v>A121486225</v>
+      </c>
+      <c r="B123" t="str">
         <f>IFERROR(LEFT(系統!C124,FIND("(",系統!C124)-1),系統!C124)</f>
-        <v>0</v>
-      </c>
-      <c r="C123">
+        <v>吳文昆</v>
+      </c>
+      <c r="C123" t="str">
         <f>系統!D124</f>
-        <v>0</v>
+        <v>利百佳營業處</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A124">
+      <c r="A124" t="str">
         <f>系統!E125</f>
-        <v>0</v>
-      </c>
-      <c r="B124">
+        <v>AG120381227</v>
+      </c>
+      <c r="B124" t="str">
         <f>IFERROR(LEFT(系統!C125,FIND("(",系統!C125)-1),系統!C125)</f>
-        <v>0</v>
-      </c>
-      <c r="C124">
+        <v>謝守席</v>
+      </c>
+      <c r="C124" t="str">
         <f>系統!D125</f>
-        <v>0</v>
+        <v>利百佳營業處</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A125">
+      <c r="A125" t="str">
         <f>系統!E126</f>
-        <v>0</v>
-      </c>
-      <c r="B125">
+        <v>H120183286</v>
+      </c>
+      <c r="B125" t="str">
         <f>IFERROR(LEFT(系統!C126,FIND("(",系統!C126)-1),系統!C126)</f>
-        <v>0</v>
-      </c>
-      <c r="C125">
+        <v>陳逸政</v>
+      </c>
+      <c r="C125" t="str">
         <f>系統!D126</f>
-        <v>0</v>
+        <v>利百佳營業處</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A126">
+      <c r="A126" t="str">
         <f>系統!E127</f>
-        <v>0</v>
-      </c>
-      <c r="B126">
+        <v>G220792017</v>
+      </c>
+      <c r="B126" t="str">
         <f>IFERROR(LEFT(系統!C127,FIND("(",系統!C127)-1),系統!C127)</f>
-        <v>0</v>
-      </c>
-      <c r="C126">
+        <v>張美珠</v>
+      </c>
+      <c r="C126" t="str">
         <f>系統!D127</f>
-        <v>0</v>
+        <v>利百佳營業處</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A127">
+      <c r="A127" t="str">
         <f>系統!E128</f>
-        <v>0</v>
-      </c>
-      <c r="B127">
+        <v>F126403598</v>
+      </c>
+      <c r="B127" t="str">
         <f>IFERROR(LEFT(系統!C128,FIND("(",系統!C128)-1),系統!C128)</f>
-        <v>0</v>
-      </c>
-      <c r="C127">
+        <v>陳韋滔</v>
+      </c>
+      <c r="C127" t="str">
         <f>系統!D128</f>
-        <v>0</v>
+        <v>星啓方舟營業處</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A128">
+      <c r="A128" t="str">
         <f>系統!E129</f>
-        <v>0</v>
-      </c>
-      <c r="B128">
+        <v>F127709919</v>
+      </c>
+      <c r="B128" t="str">
         <f>IFERROR(LEFT(系統!C129,FIND("(",系統!C129)-1),系統!C129)</f>
-        <v>0</v>
-      </c>
-      <c r="C128">
+        <v>林忠衡</v>
+      </c>
+      <c r="C128" t="str">
         <f>系統!D129</f>
-        <v>0</v>
+        <v>星啓方舟營業處</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A129">
+      <c r="A129" t="str">
         <f>系統!E130</f>
-        <v>0</v>
-      </c>
-      <c r="B129">
+        <v>N125483605</v>
+      </c>
+      <c r="B129" t="str">
         <f>IFERROR(LEFT(系統!C130,FIND("(",系統!C130)-1),系統!C130)</f>
-        <v>0</v>
-      </c>
-      <c r="C129">
+        <v>賴彥碩</v>
+      </c>
+      <c r="C129" t="str">
         <f>系統!D130</f>
-        <v>0</v>
+        <v>星啓方舟營業處</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.45">
@@ -4241,13 +4439,13 @@
         <f>系統!E131</f>
         <v>0</v>
       </c>
-      <c r="B130">
+      <c r="B130" t="str">
         <f>IFERROR(LEFT(系統!C131,FIND("(",系統!C131)-1),系統!C131)</f>
-        <v>0</v>
-      </c>
-      <c r="C130">
+        <v>公司直銷</v>
+      </c>
+      <c r="C130" t="str">
         <f>系統!D131</f>
-        <v>0</v>
+        <v>營業處</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.45">
@@ -4434,27 +4632,28 @@
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A144" t="s">
-        <v>671</v>
+        <v>637</v>
       </c>
       <c r="B144" t="s">
-        <v>672</v>
+        <v>638</v>
       </c>
       <c r="C144" t="s">
-        <v>673</v>
+        <v>639</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K120"/>
+  <dimension ref="A1:K132"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView topLeftCell="A115" workbookViewId="0">
+      <selection activeCell="A132" sqref="A132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.149999999999999" x14ac:dyDescent="0.45"/>
@@ -7095,26 +7294,26 @@
         <v>458</v>
       </c>
       <c r="C83" s="3" t="s">
+        <v>640</v>
+      </c>
+      <c r="D83" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E83" s="4" t="s">
         <v>459</v>
-      </c>
-      <c r="D83" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="E83" s="4" t="s">
-        <v>460</v>
       </c>
       <c r="F83" s="3" t="s">
         <v>108</v>
       </c>
       <c r="G83" s="3" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="H83" s="3" t="s">
         <v>79</v>
       </c>
       <c r="I83" s="4"/>
       <c r="J83" s="3" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>18</v>
@@ -7122,32 +7321,32 @@
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A84" s="3" t="s">
+        <v>462</v>
+      </c>
+      <c r="B84" s="4" t="s">
         <v>463</v>
       </c>
-      <c r="B84" s="4" t="s">
+      <c r="C84" s="3" t="s">
         <v>464</v>
       </c>
-      <c r="C84" s="3" t="s">
+      <c r="D84" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E84" s="4" t="s">
         <v>465</v>
-      </c>
-      <c r="D84" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="E84" s="4" t="s">
-        <v>466</v>
       </c>
       <c r="F84" s="3" t="s">
         <v>108</v>
       </c>
       <c r="G84" s="3" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H84" s="3" t="s">
         <v>79</v>
       </c>
       <c r="I84" s="4"/>
       <c r="J84" s="3" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="K84" s="3" t="s">
         <v>18</v>
@@ -7155,25 +7354,25 @@
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A85" s="3" t="s">
+        <v>468</v>
+      </c>
+      <c r="B85" s="4" t="s">
         <v>469</v>
       </c>
-      <c r="B85" s="4" t="s">
+      <c r="C85" s="3" t="s">
         <v>470</v>
       </c>
-      <c r="C85" s="3" t="s">
+      <c r="D85" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E85" s="4" t="s">
         <v>471</v>
-      </c>
-      <c r="D85" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="E85" s="4" t="s">
-        <v>472</v>
       </c>
       <c r="F85" s="3" t="s">
         <v>108</v>
       </c>
       <c r="G85" s="3" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H85" s="3" t="s">
         <v>79</v>
@@ -7186,32 +7385,32 @@
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A86" s="3" t="s">
+        <v>473</v>
+      </c>
+      <c r="B86" s="4" t="s">
         <v>474</v>
       </c>
-      <c r="B86" s="4" t="s">
+      <c r="C86" s="3" t="s">
         <v>475</v>
       </c>
-      <c r="C86" s="3" t="s">
+      <c r="D86" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E86" s="4" t="s">
         <v>476</v>
-      </c>
-      <c r="D86" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="E86" s="4" t="s">
-        <v>477</v>
       </c>
       <c r="F86" s="3" t="s">
         <v>179</v>
       </c>
       <c r="G86" s="3" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="H86" s="3" t="s">
         <v>79</v>
       </c>
       <c r="I86" s="4"/>
       <c r="J86" s="3" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="K86" s="3" t="s">
         <v>18</v>
@@ -7219,32 +7418,32 @@
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A87" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="B87" s="4" t="s">
         <v>480</v>
       </c>
-      <c r="B87" s="4" t="s">
+      <c r="C87" s="3" t="s">
         <v>481</v>
       </c>
-      <c r="C87" s="3" t="s">
+      <c r="D87" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E87" s="4" t="s">
         <v>482</v>
       </c>
-      <c r="D87" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="E87" s="4" t="s">
+      <c r="F87" s="3" t="s">
+        <v>475</v>
+      </c>
+      <c r="G87" s="3" t="s">
         <v>483</v>
-      </c>
-      <c r="F87" s="3" t="s">
-        <v>476</v>
-      </c>
-      <c r="G87" s="3" t="s">
-        <v>484</v>
       </c>
       <c r="H87" s="3" t="s">
         <v>79</v>
       </c>
       <c r="I87" s="4"/>
       <c r="J87" s="3" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="K87" s="3" t="s">
         <v>18</v>
@@ -7252,32 +7451,32 @@
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A88" s="3" t="s">
+        <v>485</v>
+      </c>
+      <c r="B88" s="4" t="s">
         <v>486</v>
       </c>
-      <c r="B88" s="4" t="s">
+      <c r="C88" s="3" t="s">
         <v>487</v>
       </c>
-      <c r="C88" s="3" t="s">
+      <c r="D88" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E88" s="4" t="s">
         <v>488</v>
       </c>
-      <c r="D88" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="E88" s="4" t="s">
+      <c r="F88" s="3" t="s">
         <v>489</v>
       </c>
-      <c r="F88" s="3" t="s">
+      <c r="G88" s="3" t="s">
         <v>490</v>
-      </c>
-      <c r="G88" s="3" t="s">
-        <v>491</v>
       </c>
       <c r="H88" s="3" t="s">
         <v>79</v>
       </c>
       <c r="I88" s="4"/>
       <c r="J88" s="3" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="K88" s="3" t="s">
         <v>18</v>
@@ -7285,32 +7484,32 @@
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A89" s="3" t="s">
+        <v>492</v>
+      </c>
+      <c r="B89" s="4" t="s">
         <v>493</v>
       </c>
-      <c r="B89" s="4" t="s">
+      <c r="C89" s="3" t="s">
         <v>494</v>
       </c>
-      <c r="C89" s="3" t="s">
+      <c r="D89" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E89" s="4" t="s">
         <v>495</v>
       </c>
-      <c r="D89" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="E89" s="4" t="s">
+      <c r="F89" s="3" t="s">
+        <v>475</v>
+      </c>
+      <c r="G89" s="3" t="s">
         <v>496</v>
-      </c>
-      <c r="F89" s="3" t="s">
-        <v>476</v>
-      </c>
-      <c r="G89" s="3" t="s">
-        <v>497</v>
       </c>
       <c r="H89" s="3" t="s">
         <v>79</v>
       </c>
       <c r="I89" s="4"/>
       <c r="J89" s="3" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="K89" s="3" t="s">
         <v>18</v>
@@ -7318,32 +7517,32 @@
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A90" s="3" t="s">
+        <v>498</v>
+      </c>
+      <c r="B90" s="4" t="s">
         <v>499</v>
       </c>
-      <c r="B90" s="4" t="s">
+      <c r="C90" s="3" t="s">
         <v>500</v>
       </c>
-      <c r="C90" s="3" t="s">
+      <c r="D90" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E90" s="4" t="s">
         <v>501</v>
       </c>
-      <c r="D90" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="E90" s="4" t="s">
-        <v>502</v>
-      </c>
       <c r="F90" s="3" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="G90" s="3" t="s">
-        <v>503</v>
+        <v>490</v>
       </c>
       <c r="H90" s="3" t="s">
         <v>79</v>
       </c>
       <c r="I90" s="4"/>
       <c r="J90" s="3" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="K90" s="3" t="s">
         <v>18</v>
@@ -7351,32 +7550,32 @@
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A91" s="3" t="s">
+        <v>503</v>
+      </c>
+      <c r="B91" s="4" t="s">
+        <v>504</v>
+      </c>
+      <c r="C91" s="3" t="s">
         <v>505</v>
       </c>
-      <c r="B91" s="4" t="s">
+      <c r="D91" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E91" s="4" t="s">
         <v>506</v>
-      </c>
-      <c r="C91" s="3" t="s">
-        <v>507</v>
-      </c>
-      <c r="D91" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="E91" s="4" t="s">
-        <v>508</v>
       </c>
       <c r="F91" s="3" t="s">
         <v>423</v>
       </c>
       <c r="G91" s="3" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="H91" s="3" t="s">
         <v>79</v>
       </c>
       <c r="I91" s="4"/>
       <c r="J91" s="3" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="K91" s="3" t="s">
         <v>18</v>
@@ -7384,32 +7583,32 @@
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A92" s="3" t="s">
+        <v>509</v>
+      </c>
+      <c r="B92" s="4" t="s">
+        <v>510</v>
+      </c>
+      <c r="C92" s="3" t="s">
         <v>511</v>
       </c>
-      <c r="B92" s="4" t="s">
+      <c r="D92" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E92" s="4" t="s">
         <v>512</v>
-      </c>
-      <c r="C92" s="3" t="s">
-        <v>513</v>
-      </c>
-      <c r="D92" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="E92" s="4" t="s">
-        <v>514</v>
       </c>
       <c r="F92" s="3" t="s">
         <v>423</v>
       </c>
       <c r="G92" s="3" t="s">
-        <v>515</v>
+        <v>518</v>
       </c>
       <c r="H92" s="3" t="s">
         <v>79</v>
       </c>
       <c r="I92" s="4"/>
       <c r="J92" s="3" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="K92" s="3" t="s">
         <v>18</v>
@@ -7417,32 +7616,32 @@
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A93" s="3" t="s">
+        <v>514</v>
+      </c>
+      <c r="B93" s="4" t="s">
+        <v>515</v>
+      </c>
+      <c r="C93" s="3" t="s">
+        <v>516</v>
+      </c>
+      <c r="D93" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E93" s="4" t="s">
         <v>517</v>
-      </c>
-      <c r="B93" s="4" t="s">
-        <v>518</v>
-      </c>
-      <c r="C93" s="3" t="s">
-        <v>519</v>
-      </c>
-      <c r="D93" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="E93" s="4" t="s">
-        <v>520</v>
       </c>
       <c r="F93" s="3" t="s">
         <v>381</v>
       </c>
       <c r="G93" s="3" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="H93" s="3" t="s">
         <v>79</v>
       </c>
       <c r="I93" s="4"/>
       <c r="J93" s="3" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="K93" s="3" t="s">
         <v>18</v>
@@ -7450,32 +7649,32 @@
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A94" s="3" t="s">
+        <v>520</v>
+      </c>
+      <c r="B94" s="4" t="s">
+        <v>521</v>
+      </c>
+      <c r="C94" s="3" t="s">
+        <v>522</v>
+      </c>
+      <c r="D94" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E94" s="4" t="s">
         <v>523</v>
-      </c>
-      <c r="B94" s="4" t="s">
-        <v>524</v>
-      </c>
-      <c r="C94" s="3" t="s">
-        <v>525</v>
-      </c>
-      <c r="D94" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="E94" s="4" t="s">
-        <v>526</v>
       </c>
       <c r="F94" s="3" t="s">
         <v>286</v>
       </c>
       <c r="G94" s="3" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>79</v>
       </c>
       <c r="I94" s="4"/>
       <c r="J94" s="3" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>18</v>
@@ -7483,32 +7682,32 @@
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A95" s="3" t="s">
+        <v>526</v>
+      </c>
+      <c r="B95" s="4" t="s">
+        <v>527</v>
+      </c>
+      <c r="C95" s="3" t="s">
+        <v>528</v>
+      </c>
+      <c r="D95" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E95" s="4" t="s">
         <v>529</v>
       </c>
-      <c r="B95" s="4" t="s">
+      <c r="F95" s="3" t="s">
         <v>530</v>
       </c>
-      <c r="C95" s="3" t="s">
+      <c r="G95" s="3" t="s">
         <v>531</v>
-      </c>
-      <c r="D95" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="E95" s="4" t="s">
-        <v>532</v>
-      </c>
-      <c r="F95" s="3" t="s">
-        <v>533</v>
-      </c>
-      <c r="G95" s="3" t="s">
-        <v>534</v>
       </c>
       <c r="H95" s="3" t="s">
         <v>79</v>
       </c>
       <c r="I95" s="4"/>
       <c r="J95" s="3" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="K95" s="3" t="s">
         <v>18</v>
@@ -7516,32 +7715,32 @@
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A96" s="3" t="s">
+        <v>533</v>
+      </c>
+      <c r="B96" s="4" t="s">
+        <v>534</v>
+      </c>
+      <c r="C96" s="3" t="s">
+        <v>535</v>
+      </c>
+      <c r="D96" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E96" s="4" t="s">
         <v>536</v>
       </c>
-      <c r="B96" s="4" t="s">
+      <c r="F96" s="3" t="s">
+        <v>528</v>
+      </c>
+      <c r="G96" s="3" t="s">
         <v>537</v>
-      </c>
-      <c r="C96" s="3" t="s">
-        <v>538</v>
-      </c>
-      <c r="D96" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="E96" s="4" t="s">
-        <v>539</v>
-      </c>
-      <c r="F96" s="3" t="s">
-        <v>531</v>
-      </c>
-      <c r="G96" s="3" t="s">
-        <v>540</v>
       </c>
       <c r="H96" s="3" t="s">
         <v>79</v>
       </c>
       <c r="I96" s="4"/>
       <c r="J96" s="3" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="K96" s="3" t="s">
         <v>18</v>
@@ -7549,32 +7748,32 @@
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A97" s="3" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="B97" s="4" t="s">
         <v>223</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="D97" s="3" t="s">
         <v>65</v>
       </c>
       <c r="E97" s="4" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="F97" s="3" t="s">
         <v>103</v>
       </c>
       <c r="G97" s="3" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="H97" s="3" t="s">
         <v>79</v>
       </c>
       <c r="I97" s="4"/>
       <c r="J97" s="3" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="K97" s="3" t="s">
         <v>18</v>
@@ -7582,32 +7781,32 @@
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A98" s="3" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="B98" s="4" t="s">
         <v>75</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="D98" s="3" t="s">
         <v>65</v>
       </c>
       <c r="E98" s="4" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="F98" s="3" t="s">
         <v>103</v>
       </c>
       <c r="G98" s="3" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="H98" s="3" t="s">
         <v>79</v>
       </c>
       <c r="I98" s="4"/>
       <c r="J98" s="3" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="K98" s="3" t="s">
         <v>18</v>
@@ -7615,32 +7814,32 @@
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A99" s="3" t="s">
+        <v>548</v>
+      </c>
+      <c r="B99" s="4" t="s">
+        <v>549</v>
+      </c>
+      <c r="C99" s="3" t="s">
+        <v>550</v>
+      </c>
+      <c r="D99" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E99" s="4" t="s">
         <v>551</v>
-      </c>
-      <c r="B99" s="4" t="s">
-        <v>552</v>
-      </c>
-      <c r="C99" s="3" t="s">
-        <v>553</v>
-      </c>
-      <c r="D99" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="E99" s="4" t="s">
-        <v>554</v>
       </c>
       <c r="F99" s="3" t="s">
         <v>191</v>
       </c>
       <c r="G99" s="3" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="H99" s="3" t="s">
         <v>79</v>
       </c>
       <c r="I99" s="4"/>
       <c r="J99" s="3" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="K99" s="3" t="s">
         <v>18</v>
@@ -7648,32 +7847,32 @@
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A100" s="3" t="s">
-        <v>557</v>
+        <v>641</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>212</v>
+        <v>642</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>558</v>
+        <v>643</v>
       </c>
       <c r="D100" s="3" t="s">
         <v>65</v>
       </c>
       <c r="E100" s="4" t="s">
-        <v>559</v>
+        <v>644</v>
       </c>
       <c r="F100" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G100" s="3" t="s">
-        <v>560</v>
+        <v>477</v>
       </c>
       <c r="H100" s="3" t="s">
         <v>79</v>
       </c>
       <c r="I100" s="4"/>
       <c r="J100" s="3" t="s">
-        <v>561</v>
+        <v>645</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>18</v>
@@ -7681,30 +7880,32 @@
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A101" s="3" t="s">
-        <v>562</v>
+        <v>646</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>563</v>
+        <v>647</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>564</v>
+        <v>648</v>
       </c>
       <c r="D101" s="3" t="s">
-        <v>565</v>
+        <v>65</v>
       </c>
       <c r="E101" s="4" t="s">
-        <v>566</v>
+        <v>649</v>
       </c>
       <c r="F101" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G101" s="3"/>
+        <v>101</v>
+      </c>
+      <c r="G101" s="3" t="s">
+        <v>496</v>
+      </c>
       <c r="H101" s="3" t="s">
-        <v>32</v>
+        <v>79</v>
       </c>
       <c r="I101" s="4"/>
       <c r="J101" s="3" t="s">
-        <v>567</v>
+        <v>650</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>18</v>
@@ -7712,32 +7913,32 @@
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A102" s="3" t="s">
-        <v>568</v>
+        <v>651</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>569</v>
+        <v>652</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>570</v>
+        <v>653</v>
       </c>
       <c r="D102" s="3" t="s">
-        <v>565</v>
+        <v>65</v>
       </c>
       <c r="E102" s="4" t="s">
-        <v>571</v>
+        <v>654</v>
       </c>
       <c r="F102" s="3" t="s">
-        <v>564</v>
+        <v>101</v>
       </c>
       <c r="G102" s="3" t="s">
-        <v>572</v>
+        <v>655</v>
       </c>
       <c r="H102" s="3" t="s">
-        <v>42</v>
+        <v>79</v>
       </c>
       <c r="I102" s="4"/>
       <c r="J102" s="3" t="s">
-        <v>573</v>
+        <v>656</v>
       </c>
       <c r="K102" s="3" t="s">
         <v>18</v>
@@ -7745,32 +7946,32 @@
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A103" s="3" t="s">
-        <v>574</v>
+        <v>657</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>575</v>
+        <v>366</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>576</v>
+        <v>658</v>
       </c>
       <c r="D103" s="3" t="s">
-        <v>565</v>
+        <v>65</v>
       </c>
       <c r="E103" s="4" t="s">
-        <v>577</v>
+        <v>659</v>
       </c>
       <c r="F103" s="3" t="s">
-        <v>564</v>
+        <v>95</v>
       </c>
       <c r="G103" s="3" t="s">
-        <v>578</v>
+        <v>660</v>
       </c>
       <c r="H103" s="3" t="s">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="I103" s="4"/>
       <c r="J103" s="3" t="s">
-        <v>579</v>
+        <v>661</v>
       </c>
       <c r="K103" s="3" t="s">
         <v>18</v>
@@ -7778,30 +7979,32 @@
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A104" s="3" t="s">
-        <v>580</v>
+        <v>662</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>581</v>
+        <v>663</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>582</v>
+        <v>664</v>
       </c>
       <c r="D104" s="3" t="s">
-        <v>583</v>
+        <v>65</v>
       </c>
       <c r="E104" s="4" t="s">
-        <v>584</v>
+        <v>665</v>
       </c>
       <c r="F104" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G104" s="3"/>
+        <v>95</v>
+      </c>
+      <c r="G104" s="3" t="s">
+        <v>666</v>
+      </c>
       <c r="H104" s="3" t="s">
-        <v>32</v>
+        <v>79</v>
       </c>
       <c r="I104" s="4"/>
       <c r="J104" s="3" t="s">
-        <v>585</v>
+        <v>667</v>
       </c>
       <c r="K104" s="3" t="s">
         <v>18</v>
@@ -7809,32 +8012,32 @@
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A105" s="3" t="s">
-        <v>586</v>
+        <v>668</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>587</v>
+        <v>669</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>588</v>
+        <v>670</v>
       </c>
       <c r="D105" s="3" t="s">
-        <v>583</v>
+        <v>65</v>
       </c>
       <c r="E105" s="4" t="s">
-        <v>589</v>
+        <v>671</v>
       </c>
       <c r="F105" s="3" t="s">
-        <v>582</v>
+        <v>95</v>
       </c>
       <c r="G105" s="3" t="s">
-        <v>181</v>
+        <v>666</v>
       </c>
       <c r="H105" s="3" t="s">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="I105" s="4"/>
       <c r="J105" s="3" t="s">
-        <v>590</v>
+        <v>672</v>
       </c>
       <c r="K105" s="3" t="s">
         <v>18</v>
@@ -7842,32 +8045,32 @@
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A106" s="3" t="s">
-        <v>591</v>
+        <v>673</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>592</v>
+        <v>674</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>593</v>
+        <v>675</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>583</v>
+        <v>65</v>
       </c>
       <c r="E106" s="4" t="s">
-        <v>594</v>
+        <v>676</v>
       </c>
       <c r="F106" s="3" t="s">
-        <v>582</v>
+        <v>224</v>
       </c>
       <c r="G106" s="3" t="s">
-        <v>595</v>
+        <v>677</v>
       </c>
       <c r="H106" s="3" t="s">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="I106" s="4"/>
       <c r="J106" s="3" t="s">
-        <v>596</v>
+        <v>678</v>
       </c>
       <c r="K106" s="3" t="s">
         <v>18</v>
@@ -7875,32 +8078,32 @@
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A107" s="3" t="s">
-        <v>597</v>
+        <v>679</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>598</v>
+        <v>680</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>599</v>
+        <v>681</v>
       </c>
       <c r="D107" s="3" t="s">
-        <v>583</v>
+        <v>65</v>
       </c>
       <c r="E107" s="4" t="s">
-        <v>600</v>
+        <v>682</v>
       </c>
       <c r="F107" s="3" t="s">
-        <v>582</v>
+        <v>224</v>
       </c>
       <c r="G107" s="3" t="s">
-        <v>601</v>
+        <v>683</v>
       </c>
       <c r="H107" s="3" t="s">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="I107" s="4"/>
       <c r="J107" s="3" t="s">
-        <v>602</v>
+        <v>684</v>
       </c>
       <c r="K107" s="3" t="s">
         <v>18</v>
@@ -7908,32 +8111,32 @@
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A108" s="3" t="s">
-        <v>603</v>
+        <v>685</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>604</v>
+        <v>686</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>605</v>
+        <v>687</v>
       </c>
       <c r="D108" s="3" t="s">
-        <v>583</v>
+        <v>65</v>
       </c>
       <c r="E108" s="4" t="s">
-        <v>606</v>
+        <v>688</v>
       </c>
       <c r="F108" s="3" t="s">
-        <v>582</v>
+        <v>347</v>
       </c>
       <c r="G108" s="3" t="s">
-        <v>607</v>
+        <v>496</v>
       </c>
       <c r="H108" s="3" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="I108" s="4"/>
       <c r="J108" s="3" t="s">
-        <v>608</v>
+        <v>689</v>
       </c>
       <c r="K108" s="3" t="s">
         <v>18</v>
@@ -7941,30 +8144,32 @@
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A109" s="3" t="s">
-        <v>609</v>
+        <v>690</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>610</v>
+        <v>691</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>611</v>
+        <v>692</v>
       </c>
       <c r="D109" s="3" t="s">
-        <v>612</v>
+        <v>65</v>
       </c>
       <c r="E109" s="4" t="s">
-        <v>613</v>
+        <v>693</v>
       </c>
       <c r="F109" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G109" s="3"/>
+        <v>347</v>
+      </c>
+      <c r="G109" s="3" t="s">
+        <v>557</v>
+      </c>
       <c r="H109" s="3" t="s">
-        <v>32</v>
+        <v>79</v>
       </c>
       <c r="I109" s="4"/>
       <c r="J109" s="3" t="s">
-        <v>614</v>
+        <v>694</v>
       </c>
       <c r="K109" s="3" t="s">
         <v>18</v>
@@ -7972,32 +8177,32 @@
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A110" s="3" t="s">
-        <v>615</v>
+        <v>695</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>616</v>
+        <v>696</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>617</v>
+        <v>697</v>
       </c>
       <c r="D110" s="3" t="s">
-        <v>612</v>
+        <v>65</v>
       </c>
       <c r="E110" s="4" t="s">
-        <v>618</v>
+        <v>698</v>
       </c>
       <c r="F110" s="3" t="s">
-        <v>611</v>
+        <v>699</v>
       </c>
       <c r="G110" s="3" t="s">
-        <v>619</v>
+        <v>700</v>
       </c>
       <c r="H110" s="3" t="s">
-        <v>42</v>
+        <v>79</v>
       </c>
       <c r="I110" s="4"/>
       <c r="J110" s="3" t="s">
-        <v>620</v>
+        <v>701</v>
       </c>
       <c r="K110" s="3" t="s">
         <v>18</v>
@@ -8005,32 +8210,32 @@
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A111" s="3" t="s">
-        <v>621</v>
+        <v>702</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>622</v>
+        <v>703</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>623</v>
+        <v>704</v>
       </c>
       <c r="D111" s="3" t="s">
-        <v>612</v>
+        <v>65</v>
       </c>
       <c r="E111" s="4" t="s">
-        <v>624</v>
+        <v>705</v>
       </c>
       <c r="F111" s="3" t="s">
-        <v>617</v>
+        <v>367</v>
       </c>
       <c r="G111" s="3" t="s">
-        <v>625</v>
+        <v>706</v>
       </c>
       <c r="H111" s="3" t="s">
-        <v>48</v>
+        <v>79</v>
       </c>
       <c r="I111" s="4"/>
       <c r="J111" s="3" t="s">
-        <v>626</v>
+        <v>707</v>
       </c>
       <c r="K111" s="3" t="s">
         <v>18</v>
@@ -8038,32 +8243,32 @@
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A112" s="3" t="s">
-        <v>627</v>
+        <v>708</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>628</v>
+        <v>435</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>629</v>
+        <v>709</v>
       </c>
       <c r="D112" s="3" t="s">
-        <v>612</v>
+        <v>65</v>
       </c>
       <c r="E112" s="4" t="s">
-        <v>630</v>
+        <v>710</v>
       </c>
       <c r="F112" s="3" t="s">
-        <v>631</v>
+        <v>70</v>
       </c>
       <c r="G112" s="3" t="s">
-        <v>425</v>
+        <v>711</v>
       </c>
       <c r="H112" s="3" t="s">
-        <v>48</v>
+        <v>79</v>
       </c>
       <c r="I112" s="4"/>
       <c r="J112" s="3" t="s">
-        <v>632</v>
+        <v>712</v>
       </c>
       <c r="K112" s="3" t="s">
         <v>18</v>
@@ -8071,32 +8276,32 @@
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A113" s="3" t="s">
-        <v>633</v>
+        <v>713</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>634</v>
+        <v>714</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>631</v>
+        <v>715</v>
       </c>
       <c r="D113" s="3" t="s">
-        <v>612</v>
+        <v>65</v>
       </c>
       <c r="E113" s="4" t="s">
-        <v>635</v>
+        <v>716</v>
       </c>
       <c r="F113" s="3" t="s">
-        <v>611</v>
+        <v>300</v>
       </c>
       <c r="G113" s="3" t="s">
-        <v>215</v>
+        <v>717</v>
       </c>
       <c r="H113" s="3" t="s">
-        <v>54</v>
+        <v>79</v>
       </c>
       <c r="I113" s="4"/>
       <c r="J113" s="3" t="s">
-        <v>636</v>
+        <v>718</v>
       </c>
       <c r="K113" s="3" t="s">
         <v>18</v>
@@ -8104,32 +8309,32 @@
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A114" s="3" t="s">
-        <v>637</v>
+        <v>719</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>638</v>
+        <v>720</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>639</v>
+        <v>721</v>
       </c>
       <c r="D114" s="3" t="s">
-        <v>640</v>
+        <v>65</v>
       </c>
       <c r="E114" s="4" t="s">
-        <v>641</v>
+        <v>722</v>
       </c>
       <c r="F114" s="3" t="s">
-        <v>583</v>
+        <v>213</v>
       </c>
       <c r="G114" s="3" t="s">
-        <v>642</v>
+        <v>723</v>
       </c>
       <c r="H114" s="3" t="s">
-        <v>32</v>
+        <v>79</v>
       </c>
       <c r="I114" s="4"/>
       <c r="J114" s="3" t="s">
-        <v>643</v>
+        <v>724</v>
       </c>
       <c r="K114" s="3" t="s">
         <v>18</v>
@@ -8137,32 +8342,32 @@
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A115" s="3" t="s">
-        <v>644</v>
+        <v>554</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>645</v>
+        <v>212</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>646</v>
+        <v>555</v>
       </c>
       <c r="D115" s="3" t="s">
-        <v>640</v>
+        <v>65</v>
       </c>
       <c r="E115" s="4" t="s">
-        <v>647</v>
+        <v>556</v>
       </c>
       <c r="F115" s="3" t="s">
-        <v>639</v>
+        <v>103</v>
       </c>
       <c r="G115" s="3" t="s">
-        <v>648</v>
+        <v>557</v>
       </c>
       <c r="H115" s="3" t="s">
-        <v>42</v>
+        <v>79</v>
       </c>
       <c r="I115" s="4"/>
       <c r="J115" s="3" t="s">
-        <v>649</v>
+        <v>558</v>
       </c>
       <c r="K115" s="3" t="s">
         <v>18</v>
@@ -8170,19 +8375,19 @@
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A116" s="3" t="s">
-        <v>650</v>
+        <v>576</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>651</v>
+        <v>577</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>652</v>
+        <v>578</v>
       </c>
       <c r="D116" s="3" t="s">
-        <v>653</v>
+        <v>579</v>
       </c>
       <c r="E116" s="4" t="s">
-        <v>654</v>
+        <v>580</v>
       </c>
       <c r="F116" s="3" t="s">
         <v>31</v>
@@ -8193,7 +8398,7 @@
       </c>
       <c r="I116" s="4"/>
       <c r="J116" s="3" t="s">
-        <v>655</v>
+        <v>581</v>
       </c>
       <c r="K116" s="3" t="s">
         <v>18</v>
@@ -8201,32 +8406,32 @@
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A117" s="3" t="s">
-        <v>656</v>
+        <v>582</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>657</v>
+        <v>583</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>658</v>
+        <v>584</v>
       </c>
       <c r="D117" s="3" t="s">
-        <v>653</v>
+        <v>579</v>
       </c>
       <c r="E117" s="4" t="s">
-        <v>659</v>
+        <v>585</v>
       </c>
       <c r="F117" s="3" t="s">
-        <v>652</v>
+        <v>578</v>
       </c>
       <c r="G117" s="3" t="s">
-        <v>660</v>
+        <v>586</v>
       </c>
       <c r="H117" s="3" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="I117" s="4"/>
       <c r="J117" s="3" t="s">
-        <v>661</v>
+        <v>587</v>
       </c>
       <c r="K117" s="3" t="s">
         <v>18</v>
@@ -8234,32 +8439,32 @@
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A118" s="3" t="s">
-        <v>662</v>
+        <v>588</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>663</v>
+        <v>589</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>664</v>
+        <v>590</v>
       </c>
       <c r="D118" s="3" t="s">
-        <v>653</v>
+        <v>579</v>
       </c>
       <c r="E118" s="4" t="s">
-        <v>665</v>
+        <v>591</v>
       </c>
       <c r="F118" s="3" t="s">
-        <v>652</v>
+        <v>584</v>
       </c>
       <c r="G118" s="3" t="s">
-        <v>478</v>
+        <v>592</v>
       </c>
       <c r="H118" s="3" t="s">
         <v>48</v>
       </c>
       <c r="I118" s="4"/>
       <c r="J118" s="3" t="s">
-        <v>666</v>
+        <v>593</v>
       </c>
       <c r="K118" s="3" t="s">
         <v>18</v>
@@ -8267,31 +8472,426 @@
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A119" s="3" t="s">
-        <v>667</v>
-      </c>
-      <c r="B119" s="4"/>
+        <v>594</v>
+      </c>
+      <c r="B119" s="4" t="s">
+        <v>595</v>
+      </c>
       <c r="C119" s="3" t="s">
-        <v>668</v>
+        <v>596</v>
       </c>
       <c r="D119" s="3" t="s">
-        <v>669</v>
-      </c>
-      <c r="E119" s="4"/>
-      <c r="F119" s="3"/>
-      <c r="G119" s="3"/>
-      <c r="H119" s="3"/>
+        <v>579</v>
+      </c>
+      <c r="E119" s="4" t="s">
+        <v>597</v>
+      </c>
+      <c r="F119" s="3" t="s">
+        <v>598</v>
+      </c>
+      <c r="G119" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="H119" s="3" t="s">
+        <v>48</v>
+      </c>
       <c r="I119" s="4"/>
-      <c r="J119" s="3"/>
+      <c r="J119" s="3" t="s">
+        <v>599</v>
+      </c>
       <c r="K119" s="3" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A120" t="s">
-        <v>670</v>
+      <c r="A120" s="3" t="s">
+        <v>600</v>
+      </c>
+      <c r="B120" s="4" t="s">
+        <v>601</v>
+      </c>
+      <c r="C120" s="3" t="s">
+        <v>598</v>
+      </c>
+      <c r="D120" s="3" t="s">
+        <v>579</v>
+      </c>
+      <c r="E120" s="4" t="s">
+        <v>602</v>
+      </c>
+      <c r="F120" s="3" t="s">
+        <v>578</v>
+      </c>
+      <c r="G120" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="H120" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="I120" s="4"/>
+      <c r="J120" s="3" t="s">
+        <v>603</v>
+      </c>
+      <c r="K120" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A121" s="3" t="s">
+        <v>604</v>
+      </c>
+      <c r="B121" s="4" t="s">
+        <v>605</v>
+      </c>
+      <c r="C121" s="3" t="s">
+        <v>606</v>
+      </c>
+      <c r="D121" s="3" t="s">
+        <v>607</v>
+      </c>
+      <c r="E121" s="4" t="s">
+        <v>608</v>
+      </c>
+      <c r="F121" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G121" s="3" t="s">
+        <v>609</v>
+      </c>
+      <c r="H121" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I121" s="4"/>
+      <c r="J121" s="3" t="s">
+        <v>610</v>
+      </c>
+      <c r="K121" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A122" s="3" t="s">
+        <v>611</v>
+      </c>
+      <c r="B122" s="4" t="s">
+        <v>612</v>
+      </c>
+      <c r="C122" s="3" t="s">
+        <v>613</v>
+      </c>
+      <c r="D122" s="3" t="s">
+        <v>607</v>
+      </c>
+      <c r="E122" s="4" t="s">
+        <v>614</v>
+      </c>
+      <c r="F122" s="3" t="s">
+        <v>606</v>
+      </c>
+      <c r="G122" s="3" t="s">
+        <v>615</v>
+      </c>
+      <c r="H122" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="I122" s="4"/>
+      <c r="J122" s="3" t="s">
+        <v>616</v>
+      </c>
+      <c r="K122" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A123" s="3" t="s">
+        <v>725</v>
+      </c>
+      <c r="B123" s="4" t="s">
+        <v>726</v>
+      </c>
+      <c r="C123" s="3" t="s">
+        <v>727</v>
+      </c>
+      <c r="D123" s="3" t="s">
+        <v>607</v>
+      </c>
+      <c r="E123" s="4" t="s">
+        <v>559</v>
+      </c>
+      <c r="F123" s="3" t="s">
+        <v>606</v>
+      </c>
+      <c r="G123" s="3"/>
+      <c r="H123" s="3" t="s">
+        <v>728</v>
+      </c>
+      <c r="I123" s="4" t="s">
+        <v>729</v>
+      </c>
+      <c r="J123" s="3" t="s">
+        <v>560</v>
+      </c>
+      <c r="K123" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A124" s="3" t="s">
+        <v>730</v>
+      </c>
+      <c r="B124" s="4" t="s">
+        <v>731</v>
+      </c>
+      <c r="C124" s="3" t="s">
+        <v>564</v>
+      </c>
+      <c r="D124" s="3" t="s">
+        <v>607</v>
+      </c>
+      <c r="E124" s="4" t="s">
+        <v>565</v>
+      </c>
+      <c r="F124" s="3" t="s">
+        <v>727</v>
+      </c>
+      <c r="G124" s="3" t="s">
+        <v>566</v>
+      </c>
+      <c r="H124" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="I124" s="4"/>
+      <c r="J124" s="3" t="s">
+        <v>567</v>
+      </c>
+      <c r="K124" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A125" s="3" t="s">
+        <v>732</v>
+      </c>
+      <c r="B125" s="4" t="s">
+        <v>733</v>
+      </c>
+      <c r="C125" s="3" t="s">
+        <v>561</v>
+      </c>
+      <c r="D125" s="3" t="s">
+        <v>607</v>
+      </c>
+      <c r="E125" s="4" t="s">
+        <v>562</v>
+      </c>
+      <c r="F125" s="3" t="s">
+        <v>727</v>
+      </c>
+      <c r="G125" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="H125" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="I125" s="4"/>
+      <c r="J125" s="3" t="s">
+        <v>563</v>
+      </c>
+      <c r="K125" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A126" s="3" t="s">
+        <v>734</v>
+      </c>
+      <c r="B126" s="4" t="s">
+        <v>735</v>
+      </c>
+      <c r="C126" s="3" t="s">
+        <v>568</v>
+      </c>
+      <c r="D126" s="3" t="s">
+        <v>607</v>
+      </c>
+      <c r="E126" s="4" t="s">
+        <v>569</v>
+      </c>
+      <c r="F126" s="3" t="s">
+        <v>727</v>
+      </c>
+      <c r="G126" s="3" t="s">
+        <v>570</v>
+      </c>
+      <c r="H126" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="I126" s="4"/>
+      <c r="J126" s="3" t="s">
+        <v>571</v>
+      </c>
+      <c r="K126" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A127" s="3" t="s">
+        <v>736</v>
+      </c>
+      <c r="B127" s="4" t="s">
+        <v>737</v>
+      </c>
+      <c r="C127" s="3" t="s">
+        <v>572</v>
+      </c>
+      <c r="D127" s="3" t="s">
+        <v>607</v>
+      </c>
+      <c r="E127" s="4" t="s">
+        <v>573</v>
+      </c>
+      <c r="F127" s="3" t="s">
+        <v>727</v>
+      </c>
+      <c r="G127" s="3" t="s">
+        <v>574</v>
+      </c>
+      <c r="H127" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="I127" s="4"/>
+      <c r="J127" s="3" t="s">
+        <v>575</v>
+      </c>
+      <c r="K127" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A128" s="3" t="s">
+        <v>617</v>
+      </c>
+      <c r="B128" s="4" t="s">
+        <v>618</v>
+      </c>
+      <c r="C128" s="3" t="s">
+        <v>619</v>
+      </c>
+      <c r="D128" s="3" t="s">
+        <v>620</v>
+      </c>
+      <c r="E128" s="4" t="s">
+        <v>621</v>
+      </c>
+      <c r="F128" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G128" s="3"/>
+      <c r="H128" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I128" s="4"/>
+      <c r="J128" s="3" t="s">
+        <v>622</v>
+      </c>
+      <c r="K128" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A129" s="3" t="s">
+        <v>623</v>
+      </c>
+      <c r="B129" s="4" t="s">
+        <v>624</v>
+      </c>
+      <c r="C129" s="3" t="s">
+        <v>625</v>
+      </c>
+      <c r="D129" s="3" t="s">
+        <v>620</v>
+      </c>
+      <c r="E129" s="4" t="s">
+        <v>626</v>
+      </c>
+      <c r="F129" s="3" t="s">
+        <v>619</v>
+      </c>
+      <c r="G129" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="H129" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="I129" s="4"/>
+      <c r="J129" s="3" t="s">
+        <v>628</v>
+      </c>
+      <c r="K129" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A130" s="3" t="s">
+        <v>629</v>
+      </c>
+      <c r="B130" s="4" t="s">
+        <v>630</v>
+      </c>
+      <c r="C130" s="3" t="s">
+        <v>631</v>
+      </c>
+      <c r="D130" s="3" t="s">
+        <v>620</v>
+      </c>
+      <c r="E130" s="4" t="s">
+        <v>632</v>
+      </c>
+      <c r="F130" s="3" t="s">
+        <v>619</v>
+      </c>
+      <c r="G130" s="3" t="s">
+        <v>477</v>
+      </c>
+      <c r="H130" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="I130" s="4"/>
+      <c r="J130" s="3" t="s">
+        <v>633</v>
+      </c>
+      <c r="K130" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A131" s="3" t="s">
+        <v>634</v>
+      </c>
+      <c r="B131" s="4"/>
+      <c r="C131" s="3" t="s">
+        <v>635</v>
+      </c>
+      <c r="D131" s="3" t="s">
+        <v>636</v>
+      </c>
+      <c r="E131" s="4"/>
+      <c r="F131" s="3"/>
+      <c r="G131" s="3"/>
+      <c r="H131" s="3"/>
+      <c r="I131" s="4"/>
+      <c r="J131" s="3"/>
+      <c r="K131" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A132" t="s">
+        <v>738</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A2:K120"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
